--- a/result-montage-1.xlsx
+++ b/result-montage-1.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,13 +29,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,8 +59,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,23 +424,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D1" t="n">
-        <v>150</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Load</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -439,103 +479,346 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3396.643137254902</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>4489.012871287128</v>
+        <v>3215.862745098039</v>
       </c>
       <c r="D2" t="n">
-        <v>5322.894039735099</v>
+        <v>2270.941176470588</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4015.764705882353</v>
+      </c>
+      <c r="F2" t="n">
+        <v>426.6178502566808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3255.050980392157</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>4304.234653465346</v>
+        <v>4445.649504950495</v>
       </c>
       <c r="D3" t="n">
-        <v>5457.955629139073</v>
+        <v>3601.722772277228</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5698.207920792079</v>
+      </c>
+      <c r="F3" t="n">
+        <v>552.0116870391848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3321.809803921568</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>4241.996039603961</v>
+        <v>5445.997792494481</v>
       </c>
       <c r="D4" t="n">
-        <v>5433.430463576159</v>
+        <v>4471.384105960265</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7066.629139072847</v>
+      </c>
+      <c r="F4" t="n">
+        <v>537.2171667697639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3243.967320261438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2565.039215686274</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3829.176470588235</v>
+      </c>
+      <c r="F5" t="n">
+        <v>284.1815308329742</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4293.317821782178</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3542.415841584158</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4746.633663366337</v>
+      </c>
+      <c r="F6" t="n">
+        <v>311.8807020306338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5490.475717439293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4751.993377483444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6506.145695364238</v>
+      </c>
+      <c r="F7" t="n">
+        <v>348.7670918900341</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3228.008496732026</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2393.862745098039</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4229.21568627451</v>
+      </c>
+      <c r="F8" t="n">
+        <v>348.5416046581949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4333.213861386139</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3343.247524752475</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6465.990099009901</v>
+      </c>
+      <c r="F9" t="n">
+        <v>608.9290603186914</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5490.973951434878</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4390.364238410596</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7266.105960264901</v>
+      </c>
+      <c r="F10" t="n">
+        <v>618.3654640425397</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2638.509803921569</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3210.867326732673</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4126.474172185431</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7">
-        <f>(1 - B5/B2)*100</f>
-        <v/>
-      </c>
-      <c r="C7">
-        <f>(1 - C5/C2)*100</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>(1 - D5/D2)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <f>(1 - B5/B3)*100</f>
-        <v/>
-      </c>
-      <c r="C8">
-        <f>(1 - C5/C3)*100</f>
-        <v/>
-      </c>
-      <c r="D8">
-        <f>(1 - D5/D3)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9">
-        <f>(1 - B5/B4)*100</f>
-        <v/>
-      </c>
-      <c r="C9">
-        <f>(1 - C5/C4)*100</f>
-        <v/>
-      </c>
-      <c r="D9">
-        <f>(1 - D5/D4)*100</f>
-        <v/>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2498.035294117647</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1989.21568627451</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2859.666666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>189.3679154916689</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3105.52805280528</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2604.435643564356</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3357.089108910891</v>
+      </c>
+      <c r="F12" t="n">
+        <v>165.9316745464963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3929.221854304636</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3561.529801324503</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4416.602649006622</v>
+      </c>
+      <c r="F13" t="n">
+        <v>205.6536190989403</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4369.170014181005</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2270.941176470588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7066.629139072847</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1044.165825054162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4342.58695316097</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2565.039215686274</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6506.145695364238</v>
+      </c>
+      <c r="F18" t="n">
+        <v>970.6884772171873</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4350.732103184348</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2393.862745098039</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7266.105960264901</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1070.143036480272</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3177.595067075854</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1989.21568627451</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4416.602649006622</v>
+      </c>
+      <c r="F20" t="n">
+        <v>615.7989135891416</v>
       </c>
     </row>
   </sheetData>
@@ -549,23 +832,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D1" t="n">
-        <v>150</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Load</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -575,103 +887,346 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19143700.75</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>25387361.58333334</v>
+        <v>20524599.97222222</v>
       </c>
       <c r="D2" t="n">
-        <v>27790524.16666667</v>
+        <v>15273677.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24433235.83333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1945544.594552245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19648098.75</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>23184464.75</v>
+        <v>24145646.97222222</v>
       </c>
       <c r="D3" t="n">
-        <v>28605008</v>
+        <v>19621070</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30338622.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2543629.056192661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20428715.91666666</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>23903407.5</v>
+        <v>28781100.63888889</v>
       </c>
       <c r="D4" t="n">
-        <v>29222015.58333333</v>
+        <v>24035199.16666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32910298.33333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2190641.92432325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20468328.02777778</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16293902.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25271382.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1834295.174898445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23970834.38888889</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20628933.33333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28921993.33333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1805019.384783719</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28562389.47222222</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24468986.66666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31435665.83333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1976012.259423688</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19854190.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17172781.66666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22394215.83333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1548649.051376451</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24151114.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18819253.33333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27931305</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2312955.239497123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28784109.38888889</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24102510.83333334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34914876.66666667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2102382.731057754</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>18760590.58333334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21909364.83333334</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25217160.33333334</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7">
-        <f>(1 - B5/B2)*100</f>
-        <v/>
-      </c>
-      <c r="C7">
-        <f>(1 - C5/C2)*100</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>(1 - D5/D2)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <f>(1 - B5/B3)*100</f>
-        <v/>
-      </c>
-      <c r="C8">
-        <f>(1 - C5/C3)*100</f>
-        <v/>
-      </c>
-      <c r="D8">
-        <f>(1 - D5/D3)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9">
-        <f>(1 - B5/B4)*100</f>
-        <v/>
-      </c>
-      <c r="C9">
-        <f>(1 - C5/C4)*100</f>
-        <v/>
-      </c>
-      <c r="D9">
-        <f>(1 - D5/D4)*100</f>
-        <v/>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18428955.22222222</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14570880</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22429975.83333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2013772.251942211</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21137168.44444444</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18235621.66666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25451350.83333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1816483.891029446</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24763048.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20089930.83333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28391267.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1976255.084880935</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>24483782.52777778</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15273677.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32910298.33333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4054236.865951945</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>24333850.62962963</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16293902.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>31435665.83333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3807096.213532337</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>24263138.12962963</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17172781.66666667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>34914876.66666667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4165678.674001582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>21443057.38888889</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14570880</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28391267.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3238373.94715694</v>
       </c>
     </row>
   </sheetData>
@@ -685,23 +1240,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D1" t="n">
-        <v>150</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Load</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -711,103 +1295,346 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74471.60000000001</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>95027</v>
+        <v>80255.8</v>
       </c>
       <c r="D2" t="n">
-        <v>100451.6</v>
+        <v>58843</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96647</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7828.069325191238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75938.2</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>85642.2</v>
+        <v>90050.3</v>
       </c>
       <c r="D3" t="n">
-        <v>103013.1</v>
+        <v>72018</v>
+      </c>
+      <c r="E3" t="n">
+        <v>114049</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9940.240520731879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79565.8</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>88954.39999999999</v>
+        <v>104284.0333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>105820.1</v>
+        <v>85948</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120403</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8466.030488500632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>79576.89999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62780</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99381</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7573.766198090177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>88909.06666666667</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75162</v>
+      </c>
+      <c r="E6" t="n">
+        <v>108788</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7428.942113712348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>102609.6666666667</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85689</v>
+      </c>
+      <c r="E7" t="n">
+        <v>114581</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8021.142737928444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>77548.23333333334</v>
+      </c>
+      <c r="D8" t="n">
+        <v>66723</v>
+      </c>
+      <c r="E8" t="n">
+        <v>86912</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6159.250261102311</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>90182.33333333333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>69888</v>
+      </c>
+      <c r="E9" t="n">
+        <v>106451</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9045.524272011853</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>104011.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>87157</v>
+      </c>
+      <c r="E10" t="n">
+        <v>126146</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8055.853372341547</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>73718.7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82554.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>91677.10000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7">
-        <f>(1 - B5/B2)*100</f>
-        <v/>
-      </c>
-      <c r="C7">
-        <f>(1 - C5/C2)*100</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>(1 - D5/D2)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <f>(1 - B5/B3)*100</f>
-        <v/>
-      </c>
-      <c r="C8">
-        <f>(1 - C5/C3)*100</f>
-        <v/>
-      </c>
-      <c r="D8">
-        <f>(1 - D5/D3)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9">
-        <f>(1 - B5/B4)*100</f>
-        <v/>
-      </c>
-      <c r="C9">
-        <f>(1 - C5/C4)*100</f>
-        <v/>
-      </c>
-      <c r="D9">
-        <f>(1 - D5/D4)*100</f>
-        <v/>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>72375.33333333333</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57684</v>
+      </c>
+      <c r="E11" t="n">
+        <v>89343</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8113.577260096533</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>79474.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67379</v>
+      </c>
+      <c r="E12" t="n">
+        <v>97025</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7487.631829223443</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" t="n">
+        <v>89959.56666666667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71763</v>
+      </c>
+      <c r="E13" t="n">
+        <v>105197</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7984.410813927071</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>91530.04444444444</v>
+      </c>
+      <c r="D17" t="n">
+        <v>58843</v>
+      </c>
+      <c r="E17" t="n">
+        <v>120403</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13212.66043351444</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>90365.21111111112</v>
+      </c>
+      <c r="D18" t="n">
+        <v>62780</v>
+      </c>
+      <c r="E18" t="n">
+        <v>114581</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12183.65778819631</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>90580.82222222222</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66723</v>
+      </c>
+      <c r="E19" t="n">
+        <v>126146</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13354.84510711606</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>80603.06666666667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>57684</v>
+      </c>
+      <c r="E20" t="n">
+        <v>105197</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10679.56591897713</v>
       </c>
     </row>
   </sheetData>
@@ -821,23 +1648,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D1" t="n">
-        <v>150</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Load</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -847,61 +1703,346 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02905828011783463</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.039456260857435</v>
+        <v>0.0364363781420448</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05133882217203874</v>
+        <v>0.004582432293275667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07706337108013937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01719950250800498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04376653786901896</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05210557289138987</v>
+        <v>0.04832033328548693</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05526899151204401</v>
+        <v>0.01627859157136143</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08062246367325566</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01512939966584752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02742612379772096</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04308120811270705</v>
+        <v>0.05042368719491313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04638114781588889</v>
+        <v>0.02708502923111078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07869023783111015</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01355628144543023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04313840810624612</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04091471647164716</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04613184546136534</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001294905125549455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0520840844787018</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05054974854550833</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05325517070552781</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0005389274673163063</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05534666856624591</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05485738547982603</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05585426637807517</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0002475975583907728</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03950359138903169</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1045068379610443</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0274626307276255</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04425544843476625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01351446364001607</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.09254291845493562</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02021911045744979</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05175925243039869</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02632668799268822</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1034950143899532</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01722624983368031</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.06987821750863688</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07327337884645349</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06636266134515889</v>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05948164338610887</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1543001942218985</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02999538233246777</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.07916095298633906</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02017905458048248</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1476098812961181</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02848619270691134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0869552591580631</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05448284017877533</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1306267894383373</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.020396249012215</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04506013287414829</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.004582432293275667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.08062246367325566</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01655556457058973</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05018972038373128</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04091471647164716</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05585426637807517</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.005225969172194781</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0451727640847322</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1045068379610443</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0226282641349839</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.07519928517683701</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1543001942218985</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.02902949712227343</v>
       </c>
     </row>
   </sheetData>
@@ -915,23 +2056,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D1" t="n">
-        <v>150</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Load</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Std Dev</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -941,61 +2111,346 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.339934634239519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1795054935711501</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1795054935711501</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2060804110110156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2060804110110156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2060804110110156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result-montage-1.xlsx
+++ b/result-montage-1.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Data Age" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Energy" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Makespan" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Load" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Success Rate" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Data Age" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Energy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Makespan" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Success Rate" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Load Edge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Load Cloud" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Load" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,15 +31,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCE5FF"/>
+        <bgColor rgb="FFCCE5FF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -59,10 +71,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,15 +426,1013 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="6"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="19" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Load</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Std Dev</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3206.554901960784</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2601.176470588235</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3708.941176470588</v>
+      </c>
+      <c r="F2" t="n">
+        <v>339.7981553712361</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5291.736423841059</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4409.291390728476</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6039.086092715232</v>
+      </c>
+      <c r="F3" t="n">
+        <v>480.2559607917121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5623.135099337748</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4416</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6206.94701986755</v>
+      </c>
+      <c r="F4" t="n">
+        <v>506.0556563556059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3493.368627450981</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2851.470588235294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4162.294117647059</v>
+      </c>
+      <c r="F5" t="n">
+        <v>423.5639911264979</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5449.88476821192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4964.655629139073</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6331.854304635762</v>
+      </c>
+      <c r="F6" t="n">
+        <v>489.6792006230489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5458.046357615895</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4938.278145695364</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5855.655629139073</v>
+      </c>
+      <c r="F7" t="n">
+        <v>274.8159923436452</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3328.017647058824</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2673.196078431372</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4857.745098039216</v>
+      </c>
+      <c r="F8" t="n">
+        <v>608.2311127054411</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5398.697350993378</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4515.940397350993</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6284</v>
+      </c>
+      <c r="F9" t="n">
+        <v>519.5775423017874</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5262.576821192053</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4768.324503311258</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5813.695364238411</v>
+      </c>
+      <c r="F10" t="n">
+        <v>370.3970238630574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2544.774509803922</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2234.607843137255</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2766.823529411765</v>
+      </c>
+      <c r="F11" t="n">
+        <v>164.0169054428524</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3903.941721854304</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3646.662251655629</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4145.82119205298</v>
+      </c>
+      <c r="F12" t="n">
+        <v>154.8352033133279</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3871.450331125828</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3646.860927152318</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4029.41059602649</v>
+      </c>
+      <c r="F13" t="n">
+        <v>125.8188431796519</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4707.142141713198</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2601.176470588235</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6206.94701986755</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1159.706362090752</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4800.433251092932</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2851.470588235294</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6331.854304635762</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1009.517410298087</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4663.097273081418</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2673.196078431372</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6284</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1073.936788217618</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3440.055520928018</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2234.607843137255</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4145.82119205298</v>
+      </c>
+      <c r="F20" t="n">
+        <v>650.5192401228439</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3206.554901960784</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5291.736423841059</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5623.135099337748</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3493.368627450981</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5449.88476821192</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5458.046357615895</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3328.017647058824</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5398.697350993378</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5262.576821192053</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2544.774509803922</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3903.941721854304</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3871.450331125828</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>50</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>100</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100</v>
+      </c>
+      <c r="V32" t="n">
+        <v>150</v>
+      </c>
+      <c r="W32" t="n">
+        <v>150</v>
+      </c>
+      <c r="X32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3425.490196078431</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3341.666666666667</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2960.21568627451</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3335.235294117647</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3595.196078431372</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2601.176470588235</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3137.235294117647</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2721.352941176471</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3708.941176470588</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3239.039215686274</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4409.291390728476</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6039.086092715232</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5560.920529801325</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4912.562913907284</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5963.403973509934</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5564.615894039735</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4894.390728476821</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5345.12582781457</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5155.562913907284</v>
+      </c>
+      <c r="U33" t="n">
+        <v>5072.403973509934</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6104.41059602649</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5958.94701986755</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5918.615894039735</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>4416</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5180.854304635762</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5327.158940397351</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>5753.05298013245</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>5792.278145695364</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>5573.086092715232</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>6206.94701986755</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3893.882352941177</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2993.254901960785</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3807.941176470588</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3884.509803921569</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3599.725490196078</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3037.529411764706</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2851.470588235294</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3271.647058823529</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3431.43137254902</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4162.294117647059</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6044.801324503312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6142.516556291391</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5291.112582781457</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5249.344370860927</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4964.655629139073</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5115.894039735099</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6331.854304635762</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5056.145695364238</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5008.92715231788</v>
+      </c>
+      <c r="U34" t="n">
+        <v>5293.596026490066</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5572.87417218543</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5105.443708609271</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5359.344370860927</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5500.311258278146</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5573.350993377483</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4938.278145695364</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5276.059602649007</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>5613.377483443709</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>5855.655629139073</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>5785.76821192053</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4857.745098039216</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3262.980392156863</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3486.294117647059</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2869.588235294118</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2967.980392156863</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2722.941176470588</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3716.21568627451</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3215.921568627451</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2673.196078431372</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3507.313725490196</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4515.940397350993</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5859.761589403974</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5119.516556291391</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5364.006622516556</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4995.629139072847</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5046.165562913908</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5075.847682119205</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5969.437086092716</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5756.668874172185</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6284</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4768.324503311258</v>
+      </c>
+      <c r="W35" t="n">
+        <v>5022.774834437086</v>
+      </c>
+      <c r="X35" t="n">
+        <v>5240.966887417218</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>4822.12582781457</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5650.07284768212</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>5192.450331125828</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>4886.397350993378</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>5732.165562913908</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>5496.794701986755</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>5813.695364238411</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2603.823529411765</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2651.725490196078</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2460.647058823529</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2703.901960784314</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2596.686274509804</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2234.607843137255</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2278.333333333333</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2766.823529411765</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2558.333333333333</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2592.862745098039</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3715.754966887417</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4132.350993377483</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3878.721854304636</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3923.152317880795</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3925.185430463576</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4014.496688741722</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3863.529801324503</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3793.741721854305</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3646.662251655629</v>
+      </c>
+      <c r="U36" t="n">
+        <v>4145.82119205298</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3646.860927152318</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3949.41059602649</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3803.609271523179</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3881.966887417218</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3941.887417218543</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3976.741721854305</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>3699.403973509934</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>4029.41059602649</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3779.516556291391</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>4005.695364238411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -424,49 +1442,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="6"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Algorithm</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Std Dev</t>
         </is>
@@ -482,16 +1525,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>3215.862745098039</v>
+        <v>19128197.08333333</v>
       </c>
       <c r="D2" t="n">
-        <v>2270.941176470588</v>
+        <v>16060487.5</v>
       </c>
       <c r="E2" t="n">
-        <v>4015.764705882353</v>
+        <v>22238655</v>
       </c>
       <c r="F2" t="n">
-        <v>426.6178502566808</v>
+        <v>1997122.115836909</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +1547,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>4445.649504950495</v>
+        <v>27354031.75</v>
       </c>
       <c r="D3" t="n">
-        <v>3601.722772277228</v>
+        <v>22814475</v>
       </c>
       <c r="E3" t="n">
-        <v>5698.207920792079</v>
+        <v>29805011.66666666</v>
       </c>
       <c r="F3" t="n">
-        <v>552.0116870391848</v>
+        <v>2176487.745555403</v>
       </c>
     </row>
     <row r="4">
@@ -526,16 +1569,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>5445.997792494481</v>
+        <v>28606823.41666667</v>
       </c>
       <c r="D4" t="n">
-        <v>4471.384105960265</v>
+        <v>26360512.5</v>
       </c>
       <c r="E4" t="n">
-        <v>7066.629139072847</v>
+        <v>31816390</v>
       </c>
       <c r="F4" t="n">
-        <v>537.2171667697639</v>
+        <v>1656275.964399102</v>
       </c>
     </row>
     <row r="5">
@@ -548,16 +1591,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>3243.967320261438</v>
+        <v>21200345.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2565.039215686274</v>
+        <v>18226099.16666667</v>
       </c>
       <c r="E5" t="n">
-        <v>3829.176470588235</v>
+        <v>23718065.83333333</v>
       </c>
       <c r="F5" t="n">
-        <v>284.1815308329742</v>
+        <v>1452904.534060575</v>
       </c>
     </row>
     <row r="6">
@@ -570,16 +1613,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>4293.317821782178</v>
+        <v>28145305.58333333</v>
       </c>
       <c r="D6" t="n">
-        <v>3542.415841584158</v>
+        <v>23968279.16666667</v>
       </c>
       <c r="E6" t="n">
-        <v>4746.633663366337</v>
+        <v>31965899.16666666</v>
       </c>
       <c r="F6" t="n">
-        <v>311.8807020306338</v>
+        <v>2194763.707390402</v>
       </c>
     </row>
     <row r="7">
@@ -592,16 +1635,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>5490.475717439293</v>
+        <v>28605824</v>
       </c>
       <c r="D7" t="n">
-        <v>4751.993377483444</v>
+        <v>24715292.5</v>
       </c>
       <c r="E7" t="n">
-        <v>6506.145695364238</v>
+        <v>31451505.83333333</v>
       </c>
       <c r="F7" t="n">
-        <v>348.7670918900341</v>
+        <v>1985985.846258058</v>
       </c>
     </row>
     <row r="8">
@@ -614,16 +1657,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>3228.008496732026</v>
+        <v>19253866.08333333</v>
       </c>
       <c r="D8" t="n">
-        <v>2393.862745098039</v>
+        <v>15549185.83333333</v>
       </c>
       <c r="E8" t="n">
-        <v>4229.21568627451</v>
+        <v>22583518.33333333</v>
       </c>
       <c r="F8" t="n">
-        <v>348.5416046581949</v>
+        <v>2201047.112310728</v>
       </c>
     </row>
     <row r="9">
@@ -636,16 +1679,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>4333.213861386139</v>
+        <v>28070310.83333333</v>
       </c>
       <c r="D9" t="n">
-        <v>3343.247524752475</v>
+        <v>25339089.16666667</v>
       </c>
       <c r="E9" t="n">
-        <v>6465.990099009901</v>
+        <v>30962206.66666667</v>
       </c>
       <c r="F9" t="n">
-        <v>608.9290603186914</v>
+        <v>1751409.970559752</v>
       </c>
     </row>
     <row r="10">
@@ -658,16 +1701,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>5490.973951434878</v>
+        <v>28959023.08333333</v>
       </c>
       <c r="D10" t="n">
-        <v>4390.364238410596</v>
+        <v>25010403.33333333</v>
       </c>
       <c r="E10" t="n">
-        <v>7266.105960264901</v>
+        <v>31155718.33333333</v>
       </c>
       <c r="F10" t="n">
-        <v>618.3654640425397</v>
+        <v>1901966.690183372</v>
       </c>
     </row>
     <row r="11">
@@ -680,16 +1723,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>2498.035294117647</v>
+        <v>17475865.83333333</v>
       </c>
       <c r="D11" t="n">
-        <v>1989.21568627451</v>
+        <v>13781231.66666667</v>
       </c>
       <c r="E11" t="n">
-        <v>2859.666666666667</v>
+        <v>20568985.83333333</v>
       </c>
       <c r="F11" t="n">
-        <v>189.3679154916689</v>
+        <v>2124796.460943213</v>
       </c>
     </row>
     <row r="12">
@@ -702,16 +1745,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>3105.52805280528</v>
+        <v>24038400.16666666</v>
       </c>
       <c r="D12" t="n">
-        <v>2604.435643564356</v>
+        <v>21271465.83333333</v>
       </c>
       <c r="E12" t="n">
-        <v>3357.089108910891</v>
+        <v>27163661.66666667</v>
       </c>
       <c r="F12" t="n">
-        <v>165.9316745464963</v>
+        <v>1695616.504868911</v>
       </c>
     </row>
     <row r="13">
@@ -724,22 +1767,22 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>3929.221854304636</v>
+        <v>24369550.75</v>
       </c>
       <c r="D13" t="n">
-        <v>3561.529801324503</v>
+        <v>21472100.83333334</v>
       </c>
       <c r="E13" t="n">
-        <v>4416.602649006622</v>
+        <v>28554672.5</v>
       </c>
       <c r="F13" t="n">
-        <v>205.6536190989403</v>
+        <v>1841194.306646596</v>
       </c>
     </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Summary by Algorithm</t>
         </is>
@@ -752,16 +1795,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4369.170014181005</v>
+        <v>25029684.08333333</v>
       </c>
       <c r="D17" t="n">
-        <v>2270.941176470588</v>
+        <v>16060487.5</v>
       </c>
       <c r="E17" t="n">
-        <v>7066.629139072847</v>
+        <v>31816390</v>
       </c>
       <c r="F17" t="n">
-        <v>1044.165825054162</v>
+        <v>4636626.374824413</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +1814,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4342.58695316097</v>
+        <v>25983825.02777778</v>
       </c>
       <c r="D18" t="n">
-        <v>2565.039215686274</v>
+        <v>18226099.16666667</v>
       </c>
       <c r="E18" t="n">
-        <v>6506.145695364238</v>
+        <v>31965899.16666666</v>
       </c>
       <c r="F18" t="n">
-        <v>970.6884772171873</v>
+        <v>3885898.106957061</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +1833,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4350.732103184348</v>
+        <v>25427733.33333333</v>
       </c>
       <c r="D19" t="n">
-        <v>2393.862745098039</v>
+        <v>15549185.83333333</v>
       </c>
       <c r="E19" t="n">
-        <v>7266.105960264901</v>
+        <v>31155718.33333333</v>
       </c>
       <c r="F19" t="n">
-        <v>1070.143036480272</v>
+        <v>4799284.062188806</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +1852,599 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3177.595067075854</v>
+        <v>21961272.25</v>
       </c>
       <c r="D20" t="n">
-        <v>1989.21568627451</v>
+        <v>13781231.66666667</v>
       </c>
       <c r="E20" t="n">
-        <v>4416.602649006622</v>
+        <v>28554672.5</v>
       </c>
       <c r="F20" t="n">
-        <v>615.7989135891416</v>
+        <v>3697431.912615443</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>19128197.08333333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>27354031.75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28606823.41666667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21200345.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28145305.58333333</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28605824</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19253866.08333333</v>
+      </c>
+      <c r="C27" t="n">
+        <v>28070310.83333333</v>
+      </c>
+      <c r="D27" t="n">
+        <v>28959023.08333333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>17475865.83333333</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24038400.16666666</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24369550.75</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>50</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>100</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100</v>
+      </c>
+      <c r="V32" t="n">
+        <v>150</v>
+      </c>
+      <c r="W32" t="n">
+        <v>150</v>
+      </c>
+      <c r="X32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17567619.16666667</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20444991.66666666</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21963840.83333333</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22238655</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19799599.16666667</v>
+      </c>
+      <c r="G33" t="n">
+        <v>18829975</v>
+      </c>
+      <c r="H33" t="n">
+        <v>18360768.33333333</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16434695.83333333</v>
+      </c>
+      <c r="J33" t="n">
+        <v>19581338.33333333</v>
+      </c>
+      <c r="K33" t="n">
+        <v>16060487.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>24475992.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>28996985.83333333</v>
+      </c>
+      <c r="N33" t="n">
+        <v>26768696.66666667</v>
+      </c>
+      <c r="O33" t="n">
+        <v>26705624.16666667</v>
+      </c>
+      <c r="P33" t="n">
+        <v>29631395</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>29011824.16666667</v>
+      </c>
+      <c r="R33" t="n">
+        <v>29805011.66666666</v>
+      </c>
+      <c r="S33" t="n">
+        <v>28329384.16666667</v>
+      </c>
+      <c r="T33" t="n">
+        <v>27000928.33333333</v>
+      </c>
+      <c r="U33" t="n">
+        <v>22814475</v>
+      </c>
+      <c r="V33" t="n">
+        <v>29302398.33333333</v>
+      </c>
+      <c r="W33" t="n">
+        <v>29822621.66666667</v>
+      </c>
+      <c r="X33" t="n">
+        <v>31816390</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>26360512.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>27218366.66666666</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>26977082.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>27169977.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>27942539.16666667</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>29222085</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>30236260.83333334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>20315501.66666667</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22357678.33333333</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23718065.83333333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>21117938.33333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>21487295.83333333</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20055452.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>18226099.16666667</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20453510</v>
+      </c>
+      <c r="J34" t="n">
+        <v>22352150.83333333</v>
+      </c>
+      <c r="K34" t="n">
+        <v>21919762.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>30890263.33333333</v>
+      </c>
+      <c r="M34" t="n">
+        <v>28277155</v>
+      </c>
+      <c r="N34" t="n">
+        <v>26189434.16666666</v>
+      </c>
+      <c r="O34" t="n">
+        <v>26986392.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>23968279.16666667</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>28548864.16666666</v>
+      </c>
+      <c r="R34" t="n">
+        <v>31965899.16666666</v>
+      </c>
+      <c r="S34" t="n">
+        <v>27444615</v>
+      </c>
+      <c r="T34" t="n">
+        <v>29675846.66666667</v>
+      </c>
+      <c r="U34" t="n">
+        <v>27506306.66666666</v>
+      </c>
+      <c r="V34" t="n">
+        <v>28526363.33333333</v>
+      </c>
+      <c r="W34" t="n">
+        <v>24715292.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>28784943.33333333</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>31451505.83333333</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>26832521.66666666</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>27487155</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>27319492.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>29894456.66666666</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>29780107.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>31266401.66666667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>18889235</v>
+      </c>
+      <c r="C35" t="n">
+        <v>19557104.16666667</v>
+      </c>
+      <c r="D35" t="n">
+        <v>22583518.33333333</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21570188.33333333</v>
+      </c>
+      <c r="F35" t="n">
+        <v>21558084.16666667</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16974537.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>19623081.66666667</v>
+      </c>
+      <c r="I35" t="n">
+        <v>16564775</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15549185.83333333</v>
+      </c>
+      <c r="K35" t="n">
+        <v>19668950.83333333</v>
+      </c>
+      <c r="L35" t="n">
+        <v>25339089.16666667</v>
+      </c>
+      <c r="M35" t="n">
+        <v>28367654.16666666</v>
+      </c>
+      <c r="N35" t="n">
+        <v>27033725.83333333</v>
+      </c>
+      <c r="O35" t="n">
+        <v>28182506.66666667</v>
+      </c>
+      <c r="P35" t="n">
+        <v>25371844.16666667</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>30144360</v>
+      </c>
+      <c r="R35" t="n">
+        <v>29489640.83333333</v>
+      </c>
+      <c r="S35" t="n">
+        <v>30962206.66666667</v>
+      </c>
+      <c r="T35" t="n">
+        <v>28016395.83333333</v>
+      </c>
+      <c r="U35" t="n">
+        <v>27795685</v>
+      </c>
+      <c r="V35" t="n">
+        <v>25010403.33333333</v>
+      </c>
+      <c r="W35" t="n">
+        <v>29621526.66666667</v>
+      </c>
+      <c r="X35" t="n">
+        <v>28201096.66666667</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>30152238.33333333</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>27906508.33333333</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>29451882.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>26609870.83333333</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>30968632.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>30512353.33333333</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>31155718.33333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13781231.66666667</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19998415</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17078060</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20199225.83333333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20568985.83333333</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16717155</v>
+      </c>
+      <c r="H36" t="n">
+        <v>15720263.33333333</v>
+      </c>
+      <c r="I36" t="n">
+        <v>18327260.83333333</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15815682.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>16552378.33333333</v>
+      </c>
+      <c r="L36" t="n">
+        <v>23332364.16666666</v>
+      </c>
+      <c r="M36" t="n">
+        <v>23193980.83333333</v>
+      </c>
+      <c r="N36" t="n">
+        <v>21271465.83333333</v>
+      </c>
+      <c r="O36" t="n">
+        <v>23421793.33333333</v>
+      </c>
+      <c r="P36" t="n">
+        <v>24094330</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>27163661.66666667</v>
+      </c>
+      <c r="R36" t="n">
+        <v>26929746.66666666</v>
+      </c>
+      <c r="S36" t="n">
+        <v>22869518.33333333</v>
+      </c>
+      <c r="T36" t="n">
+        <v>24110472.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>23996668.33333333</v>
+      </c>
+      <c r="V36" t="n">
+        <v>24103038.33333333</v>
+      </c>
+      <c r="W36" t="n">
+        <v>22797520</v>
+      </c>
+      <c r="X36" t="n">
+        <v>24656706.66666666</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>28554672.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>24404935.83333333</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>23126436.66666666</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>21472100.83333334</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>25344560.83333333</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>23446383.33333334</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>25789152.5</v>
       </c>
     </row>
   </sheetData>
@@ -832,49 +2458,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Algorithm</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Std Dev</t>
         </is>
@@ -890,16 +2541,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>20524599.97222222</v>
+        <v>74395.5</v>
       </c>
       <c r="D2" t="n">
-        <v>15273677.5</v>
+        <v>61894</v>
       </c>
       <c r="E2" t="n">
-        <v>24433235.83333333</v>
+        <v>87220</v>
       </c>
       <c r="F2" t="n">
-        <v>1945544.594552245</v>
+        <v>8241.257807519432</v>
       </c>
     </row>
     <row r="3">
@@ -912,16 +2563,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>24145646.97222222</v>
+        <v>98473.89999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>19621070</v>
+        <v>80144</v>
       </c>
       <c r="E3" t="n">
-        <v>30338622.5</v>
+        <v>108796</v>
       </c>
       <c r="F3" t="n">
-        <v>2543629.056192661</v>
+        <v>8395.707444283657</v>
       </c>
     </row>
     <row r="4">
@@ -934,16 +2585,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>28781100.63888889</v>
+        <v>103466.3</v>
       </c>
       <c r="D4" t="n">
-        <v>24035199.16666667</v>
+        <v>95801</v>
       </c>
       <c r="E4" t="n">
-        <v>32910298.33333333</v>
+        <v>115992</v>
       </c>
       <c r="F4" t="n">
-        <v>2190641.92432325</v>
+        <v>6230.683558807974</v>
       </c>
     </row>
     <row r="5">
@@ -956,16 +2607,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>20468328.02777778</v>
+        <v>82530.7</v>
       </c>
       <c r="D5" t="n">
-        <v>16293902.5</v>
+        <v>70650</v>
       </c>
       <c r="E5" t="n">
-        <v>25271382.5</v>
+        <v>93379</v>
       </c>
       <c r="F5" t="n">
-        <v>1834295.174898445</v>
+        <v>5961.559897375853</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +2629,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>23970834.38888889</v>
+        <v>101106.5</v>
       </c>
       <c r="D6" t="n">
-        <v>20628933.33333333</v>
+        <v>84497</v>
       </c>
       <c r="E6" t="n">
-        <v>28921993.33333333</v>
+        <v>116713</v>
       </c>
       <c r="F6" t="n">
-        <v>1805019.384783719</v>
+        <v>8945.970883587761</v>
       </c>
     </row>
     <row r="7">
@@ -1000,16 +2651,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>28562389.47222222</v>
+        <v>103016.5</v>
       </c>
       <c r="D7" t="n">
-        <v>24468986.66666667</v>
+        <v>87438</v>
       </c>
       <c r="E7" t="n">
-        <v>31435665.83333333</v>
+        <v>114647</v>
       </c>
       <c r="F7" t="n">
-        <v>1976012.259423688</v>
+        <v>7930.840803470966</v>
       </c>
     </row>
     <row r="8">
@@ -1022,16 +2673,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>19854190.75</v>
+        <v>74985.60000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>17172781.66666667</v>
+        <v>60416</v>
       </c>
       <c r="E8" t="n">
-        <v>22394215.83333333</v>
+        <v>89018</v>
       </c>
       <c r="F8" t="n">
-        <v>1548649.051376451</v>
+        <v>9165.524940776715</v>
       </c>
     </row>
     <row r="9">
@@ -1044,16 +2695,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>24151114.25</v>
+        <v>101233.5</v>
       </c>
       <c r="D9" t="n">
-        <v>18819253.33333333</v>
+        <v>91287</v>
       </c>
       <c r="E9" t="n">
-        <v>27931305</v>
+        <v>112911</v>
       </c>
       <c r="F9" t="n">
-        <v>2312955.239497123</v>
+        <v>6842.359421281521</v>
       </c>
     </row>
     <row r="10">
@@ -1066,16 +2717,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>28784109.38888889</v>
+        <v>105160.2</v>
       </c>
       <c r="D10" t="n">
-        <v>24102510.83333334</v>
+        <v>89190</v>
       </c>
       <c r="E10" t="n">
-        <v>34914876.66666667</v>
+        <v>113159</v>
       </c>
       <c r="F10" t="n">
-        <v>2102382.731057754</v>
+        <v>7287.041097729585</v>
       </c>
     </row>
     <row r="11">
@@ -1088,16 +2739,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>18428955.22222222</v>
+        <v>68443.7</v>
       </c>
       <c r="D11" t="n">
-        <v>14570880</v>
+        <v>53309</v>
       </c>
       <c r="E11" t="n">
-        <v>22429975.83333333</v>
+        <v>81492</v>
       </c>
       <c r="F11" t="n">
-        <v>2013772.251942211</v>
+        <v>8632.847190237992</v>
       </c>
     </row>
     <row r="12">
@@ -1110,16 +2761,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>21137168.44444444</v>
+        <v>87113.39999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>18235621.66666667</v>
+        <v>75026</v>
       </c>
       <c r="E12" t="n">
-        <v>25451350.83333333</v>
+        <v>99162</v>
       </c>
       <c r="F12" t="n">
-        <v>1816483.891029446</v>
+        <v>6904.554876311723</v>
       </c>
     </row>
     <row r="13">
@@ -1132,22 +2783,22 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>24763048.5</v>
+        <v>88202.39999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>20089930.83333333</v>
+        <v>76821</v>
       </c>
       <c r="E13" t="n">
-        <v>28391267.5</v>
+        <v>104270</v>
       </c>
       <c r="F13" t="n">
-        <v>1976255.084880935</v>
+        <v>7115.160928608713</v>
       </c>
     </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Summary by Algorithm</t>
         </is>
@@ -1160,16 +2811,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24483782.52777778</v>
+        <v>92111.89999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>15273677.5</v>
+        <v>61894</v>
       </c>
       <c r="E17" t="n">
-        <v>32910298.33333333</v>
+        <v>115992</v>
       </c>
       <c r="F17" t="n">
-        <v>4054236.865951945</v>
+        <v>14837.96845562087</v>
       </c>
     </row>
     <row r="18">
@@ -1179,16 +2830,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24333850.62962963</v>
+        <v>95551.23333333334</v>
       </c>
       <c r="D18" t="n">
-        <v>16293902.5</v>
+        <v>70650</v>
       </c>
       <c r="E18" t="n">
-        <v>31435665.83333333</v>
+        <v>116713</v>
       </c>
       <c r="F18" t="n">
-        <v>3807096.213532337</v>
+        <v>12035.97814522036</v>
       </c>
     </row>
     <row r="19">
@@ -1198,16 +2849,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24263138.12962963</v>
+        <v>93793.10000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>17172781.66666667</v>
+        <v>60416</v>
       </c>
       <c r="E19" t="n">
-        <v>34914876.66666667</v>
+        <v>113159</v>
       </c>
       <c r="F19" t="n">
-        <v>4165678.674001582</v>
+        <v>15515.77980283299</v>
       </c>
     </row>
     <row r="20">
@@ -1217,16 +2868,599 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21443057.38888889</v>
+        <v>81253.16666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>14570880</v>
+        <v>53309</v>
       </c>
       <c r="E20" t="n">
-        <v>28391267.5</v>
+        <v>104270</v>
       </c>
       <c r="F20" t="n">
-        <v>3238373.94715694</v>
+        <v>11825.69319485707</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>74395.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>98473.89999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>103466.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>82530.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>101106.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>103016.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>74985.60000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>101233.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>105160.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>68443.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>87113.39999999999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>88202.39999999999</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>50</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>100</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100</v>
+      </c>
+      <c r="V32" t="n">
+        <v>150</v>
+      </c>
+      <c r="W32" t="n">
+        <v>150</v>
+      </c>
+      <c r="X32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>67622</v>
+      </c>
+      <c r="C33" t="n">
+        <v>79915</v>
+      </c>
+      <c r="D33" t="n">
+        <v>86656</v>
+      </c>
+      <c r="E33" t="n">
+        <v>87220</v>
+      </c>
+      <c r="F33" t="n">
+        <v>76185</v>
+      </c>
+      <c r="G33" t="n">
+        <v>74009</v>
+      </c>
+      <c r="H33" t="n">
+        <v>71249</v>
+      </c>
+      <c r="I33" t="n">
+        <v>63579</v>
+      </c>
+      <c r="J33" t="n">
+        <v>75626</v>
+      </c>
+      <c r="K33" t="n">
+        <v>61894</v>
+      </c>
+      <c r="L33" t="n">
+        <v>88901</v>
+      </c>
+      <c r="M33" t="n">
+        <v>103521</v>
+      </c>
+      <c r="N33" t="n">
+        <v>96330</v>
+      </c>
+      <c r="O33" t="n">
+        <v>95520</v>
+      </c>
+      <c r="P33" t="n">
+        <v>107043</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>104942</v>
+      </c>
+      <c r="R33" t="n">
+        <v>108796</v>
+      </c>
+      <c r="S33" t="n">
+        <v>102348</v>
+      </c>
+      <c r="T33" t="n">
+        <v>97194</v>
+      </c>
+      <c r="U33" t="n">
+        <v>80144</v>
+      </c>
+      <c r="V33" t="n">
+        <v>106736</v>
+      </c>
+      <c r="W33" t="n">
+        <v>107329</v>
+      </c>
+      <c r="X33" t="n">
+        <v>115992</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>95801</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>98254</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>97276</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>98722</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>99387</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>105531</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>109635</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>78729</v>
+      </c>
+      <c r="C34" t="n">
+        <v>87072</v>
+      </c>
+      <c r="D34" t="n">
+        <v>93379</v>
+      </c>
+      <c r="E34" t="n">
+        <v>81888</v>
+      </c>
+      <c r="F34" t="n">
+        <v>83498</v>
+      </c>
+      <c r="G34" t="n">
+        <v>78380</v>
+      </c>
+      <c r="H34" t="n">
+        <v>70650</v>
+      </c>
+      <c r="I34" t="n">
+        <v>79049</v>
+      </c>
+      <c r="J34" t="n">
+        <v>87307</v>
+      </c>
+      <c r="K34" t="n">
+        <v>85355</v>
+      </c>
+      <c r="L34" t="n">
+        <v>112844</v>
+      </c>
+      <c r="M34" t="n">
+        <v>100532</v>
+      </c>
+      <c r="N34" t="n">
+        <v>93281</v>
+      </c>
+      <c r="O34" t="n">
+        <v>96348</v>
+      </c>
+      <c r="P34" t="n">
+        <v>84497</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>102564</v>
+      </c>
+      <c r="R34" t="n">
+        <v>116713</v>
+      </c>
+      <c r="S34" t="n">
+        <v>98316</v>
+      </c>
+      <c r="T34" t="n">
+        <v>107563</v>
+      </c>
+      <c r="U34" t="n">
+        <v>98407</v>
+      </c>
+      <c r="V34" t="n">
+        <v>102851</v>
+      </c>
+      <c r="W34" t="n">
+        <v>87438</v>
+      </c>
+      <c r="X34" t="n">
+        <v>104093</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>114647</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>96014</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>98340</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>98320</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>106887</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>107538</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>114037</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>71694</v>
+      </c>
+      <c r="C35" t="n">
+        <v>76397</v>
+      </c>
+      <c r="D35" t="n">
+        <v>89018</v>
+      </c>
+      <c r="E35" t="n">
+        <v>85195</v>
+      </c>
+      <c r="F35" t="n">
+        <v>85246</v>
+      </c>
+      <c r="G35" t="n">
+        <v>66711</v>
+      </c>
+      <c r="H35" t="n">
+        <v>76644</v>
+      </c>
+      <c r="I35" t="n">
+        <v>63270</v>
+      </c>
+      <c r="J35" t="n">
+        <v>60416</v>
+      </c>
+      <c r="K35" t="n">
+        <v>75265</v>
+      </c>
+      <c r="L35" t="n">
+        <v>92043</v>
+      </c>
+      <c r="M35" t="n">
+        <v>101787</v>
+      </c>
+      <c r="N35" t="n">
+        <v>96932</v>
+      </c>
+      <c r="O35" t="n">
+        <v>101901</v>
+      </c>
+      <c r="P35" t="n">
+        <v>91287</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>110249</v>
+      </c>
+      <c r="R35" t="n">
+        <v>107312</v>
+      </c>
+      <c r="S35" t="n">
+        <v>112911</v>
+      </c>
+      <c r="T35" t="n">
+        <v>99488</v>
+      </c>
+      <c r="U35" t="n">
+        <v>98425</v>
+      </c>
+      <c r="V35" t="n">
+        <v>89190</v>
+      </c>
+      <c r="W35" t="n">
+        <v>109102</v>
+      </c>
+      <c r="X35" t="n">
+        <v>102558</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>110956</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>101653</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>107986</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>96271</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>111510</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>109217</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>113159</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>53309</v>
+      </c>
+      <c r="C36" t="n">
+        <v>78489</v>
+      </c>
+      <c r="D36" t="n">
+        <v>67209</v>
+      </c>
+      <c r="E36" t="n">
+        <v>79273</v>
+      </c>
+      <c r="F36" t="n">
+        <v>81492</v>
+      </c>
+      <c r="G36" t="n">
+        <v>65879</v>
+      </c>
+      <c r="H36" t="n">
+        <v>60805</v>
+      </c>
+      <c r="I36" t="n">
+        <v>71123</v>
+      </c>
+      <c r="J36" t="n">
+        <v>62044</v>
+      </c>
+      <c r="K36" t="n">
+        <v>64814</v>
+      </c>
+      <c r="L36" t="n">
+        <v>85422</v>
+      </c>
+      <c r="M36" t="n">
+        <v>82245</v>
+      </c>
+      <c r="N36" t="n">
+        <v>75026</v>
+      </c>
+      <c r="O36" t="n">
+        <v>84179</v>
+      </c>
+      <c r="P36" t="n">
+        <v>88462</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>99162</v>
+      </c>
+      <c r="R36" t="n">
+        <v>98982</v>
+      </c>
+      <c r="S36" t="n">
+        <v>84461</v>
+      </c>
+      <c r="T36" t="n">
+        <v>86724</v>
+      </c>
+      <c r="U36" t="n">
+        <v>86471</v>
+      </c>
+      <c r="V36" t="n">
+        <v>87565</v>
+      </c>
+      <c r="W36" t="n">
+        <v>82051</v>
+      </c>
+      <c r="X36" t="n">
+        <v>89817</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>104270</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>89118</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>83327</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>76821</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>91227</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>84281</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>93547</v>
       </c>
     </row>
   </sheetData>
@@ -1240,49 +3474,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="4" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Algorithm</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Std Dev</t>
         </is>
@@ -1298,16 +3557,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>80255.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58843</v>
-      </c>
-      <c r="E2" t="n">
-        <v>96647</v>
+        <v>0.9</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>7828.069325191238</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1320,16 +3579,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>90050.3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72018</v>
-      </c>
-      <c r="E3" t="n">
-        <v>114049</v>
+        <v>0.9</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>9940.240520731879</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1342,16 +3601,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>104284.0333333333</v>
-      </c>
-      <c r="D4" t="n">
-        <v>85948</v>
-      </c>
-      <c r="E4" t="n">
-        <v>120403</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>8466.030488500632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1364,16 +3623,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>79576.89999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>62780</v>
-      </c>
-      <c r="E5" t="n">
-        <v>99381</v>
+        <v>0.6</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>7573.766198090177</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="6">
@@ -1386,16 +3645,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>88909.06666666667</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75162</v>
-      </c>
-      <c r="E6" t="n">
-        <v>108788</v>
+        <v>0.9</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>7428.942113712348</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -1408,16 +3667,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>102609.6666666667</v>
-      </c>
-      <c r="D7" t="n">
-        <v>85689</v>
-      </c>
-      <c r="E7" t="n">
-        <v>114581</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>8021.142737928444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1430,16 +3689,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>77548.23333333334</v>
-      </c>
-      <c r="D8" t="n">
-        <v>66723</v>
-      </c>
-      <c r="E8" t="n">
-        <v>86912</v>
+        <v>0.7</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>6159.250261102311</v>
+        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="9">
@@ -1452,16 +3711,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>90182.33333333333</v>
-      </c>
-      <c r="D9" t="n">
-        <v>69888</v>
-      </c>
-      <c r="E9" t="n">
-        <v>106451</v>
+        <v>0.8</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>9045.524272011853</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -1474,16 +3733,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>104011.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>87157</v>
-      </c>
-      <c r="E10" t="n">
-        <v>126146</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>8055.853372341547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1496,16 +3755,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>72375.33333333333</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57684</v>
-      </c>
-      <c r="E11" t="n">
-        <v>89343</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>8113.577260096533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1518,16 +3777,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>79474.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67379</v>
-      </c>
-      <c r="E12" t="n">
-        <v>97025</v>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>7487.631829223443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,22 +3799,22 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>89959.56666666667</v>
-      </c>
-      <c r="D13" t="n">
-        <v>71763</v>
-      </c>
-      <c r="E13" t="n">
-        <v>105197</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>7984.410813927071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Summary by Algorithm</t>
         </is>
@@ -1568,16 +3827,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>91530.04444444444</v>
-      </c>
-      <c r="D17" t="n">
-        <v>58843</v>
-      </c>
-      <c r="E17" t="n">
-        <v>120403</v>
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>13212.66043351444</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="18">
@@ -1587,16 +3846,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>90365.21111111112</v>
-      </c>
-      <c r="D18" t="n">
-        <v>62780</v>
-      </c>
-      <c r="E18" t="n">
-        <v>114581</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>12183.65778819631</v>
+        <v>0.3726779962499649</v>
       </c>
     </row>
     <row r="19">
@@ -1606,16 +3865,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>90580.82222222222</v>
-      </c>
-      <c r="D19" t="n">
-        <v>66723</v>
-      </c>
-      <c r="E19" t="n">
-        <v>126146</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>13354.84510711606</v>
+        <v>0.3726779962499649</v>
       </c>
     </row>
     <row r="20">
@@ -1625,16 +3884,599 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80603.06666666667</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57684</v>
-      </c>
-      <c r="E20" t="n">
-        <v>105197</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>10679.56591897713</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>50</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>100</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100</v>
+      </c>
+      <c r="V32" t="n">
+        <v>150</v>
+      </c>
+      <c r="W32" t="n">
+        <v>150</v>
+      </c>
+      <c r="X32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1648,49 +4490,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="5"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="22" max="22"/>
+    <col width="9" customWidth="1" min="23" max="23"/>
+    <col width="9" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="25" max="25"/>
+    <col width="9" customWidth="1" min="26" max="26"/>
+    <col width="9" customWidth="1" min="27" max="27"/>
+    <col width="9" customWidth="1" min="28" max="28"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="9" customWidth="1" min="30" max="30"/>
+    <col width="9" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Algorithm</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Std Dev</t>
         </is>
@@ -1706,16 +4573,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0364363781420448</v>
+        <v>11914.74</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004582432293275667</v>
+        <v>10390.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07706337108013937</v>
+        <v>13139.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01719950250800498</v>
+        <v>880.4191049721719</v>
       </c>
     </row>
     <row r="3">
@@ -1728,16 +4595,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04832033328548693</v>
+        <v>34199.09</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01627859157136143</v>
+        <v>31939.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08062246367325566</v>
+        <v>37720.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01512939966584752</v>
+        <v>1577.269304494321</v>
       </c>
     </row>
     <row r="4">
@@ -1750,16 +4617,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05042368719491313</v>
+        <v>33528.06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02708502923111078</v>
+        <v>31376</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07869023783111015</v>
+        <v>35912.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01355628144543023</v>
+        <v>1477.10934747567</v>
       </c>
     </row>
     <row r="5">
@@ -1772,16 +4639,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04313840810624612</v>
+        <v>11730.63</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04091471647164716</v>
+        <v>10353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04613184546136534</v>
+        <v>12526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001294905125549455</v>
+        <v>729.1226481875324</v>
       </c>
     </row>
     <row r="6">
@@ -1794,16 +4661,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0520840844787018</v>
+        <v>34076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05054974854550833</v>
+        <v>32385.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05325517070552781</v>
+        <v>36468.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005389274673163063</v>
+        <v>1013.742927965469</v>
       </c>
     </row>
     <row r="7">
@@ -1816,16 +4683,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05534666856624591</v>
+        <v>34099.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05485738547982603</v>
+        <v>32651.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05585426637807517</v>
+        <v>37231.9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002475975583907728</v>
+        <v>1269.50771088639</v>
       </c>
     </row>
     <row r="8">
@@ -1838,16 +4705,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03950359138903169</v>
+        <v>11580.21</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10158.9</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1045068379610443</v>
+        <v>12691.7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0274626307276255</v>
+        <v>981.2608414178158</v>
       </c>
     </row>
     <row r="9">
@@ -1860,16 +4727,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04425544843476625</v>
+        <v>33861.67</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01351446364001607</v>
+        <v>30554.6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09254291845493562</v>
+        <v>36388.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02021911045744979</v>
+        <v>1597.535682261902</v>
       </c>
     </row>
     <row r="10">
@@ -1882,16 +4749,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05175925243039869</v>
+        <v>34251.72</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02632668799268822</v>
+        <v>31705.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1034950143899532</v>
+        <v>36976.6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01722624983368031</v>
+        <v>1541.825007450586</v>
       </c>
     </row>
     <row r="11">
@@ -1904,16 +4771,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05948164338610887</v>
+        <v>10954.18</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9102.1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1543001942218985</v>
+        <v>12449.2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02999538233246777</v>
+        <v>982.4122839215723</v>
       </c>
     </row>
     <row r="12">
@@ -1926,16 +4793,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07916095298633906</v>
+        <v>33736.99</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02017905458048248</v>
+        <v>31885.3</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1476098812961181</v>
+        <v>35551.5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02848619270691134</v>
+        <v>1136.274098490324</v>
       </c>
     </row>
     <row r="13">
@@ -1948,22 +4815,22 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0869552591580631</v>
+        <v>34765.44</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05448284017877533</v>
+        <v>32748.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1306267894383373</v>
+        <v>38679.7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020396249012215</v>
+        <v>1757.048784866259</v>
       </c>
     </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Summary by Algorithm</t>
         </is>
@@ -1976,16 +4843,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.04506013287414829</v>
+        <v>26547.29666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004582432293275667</v>
+        <v>10390.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08062246367325566</v>
+        <v>37720.6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01655556457058973</v>
+        <v>10437.71176741605</v>
       </c>
     </row>
     <row r="18">
@@ -1995,16 +4862,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.05018972038373128</v>
+        <v>26635.47666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04091471647164716</v>
+        <v>10353</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05585426637807517</v>
+        <v>37231.9</v>
       </c>
       <c r="F18" t="n">
-        <v>0.005225969172194781</v>
+        <v>10589.34856106781</v>
       </c>
     </row>
     <row r="19">
@@ -2014,16 +4881,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0451727640847322</v>
+        <v>26564.53333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>10158.9</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1045068379610443</v>
+        <v>36976.6</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0226282641349839</v>
+        <v>10688.98507166243</v>
       </c>
     </row>
     <row r="20">
@@ -2033,16 +4900,599 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.07519928517683701</v>
+        <v>26485.53666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9102.1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1543001942218985</v>
+        <v>38679.7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02902949712227343</v>
+        <v>11071.08678370476</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11914.74</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34199.09</v>
+      </c>
+      <c r="D25" t="n">
+        <v>33528.06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11730.63</v>
+      </c>
+      <c r="C26" t="n">
+        <v>34076</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34099.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11580.21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33861.67</v>
+      </c>
+      <c r="D27" t="n">
+        <v>34251.72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10954.18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33736.99</v>
+      </c>
+      <c r="D28" t="n">
+        <v>34765.44</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>50</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>100</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100</v>
+      </c>
+      <c r="V32" t="n">
+        <v>150</v>
+      </c>
+      <c r="W32" t="n">
+        <v>150</v>
+      </c>
+      <c r="X32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12131.6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12972.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10390.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12667.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11685.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11214.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10682.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13139.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12275.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>11986.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>33052.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>37720.6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>33265.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>34167.1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>32925.1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>31939.9</v>
+      </c>
+      <c r="R33" t="n">
+        <v>34623.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>33533.9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>35113.2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>35649.9</v>
+      </c>
+      <c r="V33" t="n">
+        <v>34259</v>
+      </c>
+      <c r="W33" t="n">
+        <v>33794.2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>31545.3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>33442</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>32251.6</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>31376</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>33024.9</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>35745.1</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>35912.1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>33930.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>12131.6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12276.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11039.1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12229.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12163.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10353</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10613.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12526</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11857.9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12115.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>33412.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>36468.4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>33433</v>
+      </c>
+      <c r="O34" t="n">
+        <v>33886.9</v>
+      </c>
+      <c r="P34" t="n">
+        <v>32385.8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>34558.3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>34765.1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>33814.2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>33908.9</v>
+      </c>
+      <c r="U34" t="n">
+        <v>34127.2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>33771.6</v>
+      </c>
+      <c r="W34" t="n">
+        <v>32677.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>33429.4</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>34637.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>33291.6</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>34131.1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>32651.6</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>37231.9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>34911.4</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>34264.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>12099.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10685.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10638.2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12691.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12511.3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10158.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10212.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12469</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12481.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11853.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>34219.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>36388.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>33385.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>33966.8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>30554.6</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>34087.1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>35042.2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>31913.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>35452.1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>33607.3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>32481.8</v>
+      </c>
+      <c r="W35" t="n">
+        <v>31705.3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>33935.6</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>35856.7</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>33747.6</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>35778.6</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>33331.1</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>36976.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>34900.3</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>33803.6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10614.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12449.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10415.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11947.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10575.4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9102.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10609.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12418.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10527.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10883.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>33141.8</v>
+      </c>
+      <c r="M36" t="n">
+        <v>35551.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>32155.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>33819.1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>34375.7</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>34721</v>
+      </c>
+      <c r="R36" t="n">
+        <v>34807.9</v>
+      </c>
+      <c r="S36" t="n">
+        <v>31885.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>34024.8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>32887.3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>33899.9</v>
+      </c>
+      <c r="W36" t="n">
+        <v>33330.2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>33519.3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>36396.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>34289.4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>32748.9</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>33430.8</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>38679.7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>36305.1</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>35054.6</v>
       </c>
     </row>
   </sheetData>
@@ -2056,49 +5506,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="4" max="5"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="22" max="22"/>
+    <col width="9" customWidth="1" min="23" max="23"/>
+    <col width="9" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="25" max="25"/>
+    <col width="9" customWidth="1" min="26" max="26"/>
+    <col width="9" customWidth="1" min="27" max="27"/>
+    <col width="9" customWidth="1" min="28" max="28"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="9" customWidth="1" min="30" max="30"/>
+    <col width="9" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Algorithm</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Std Dev</t>
         </is>
@@ -2114,16 +5589,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+        <v>8348.299999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15003</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3742.540635717934</v>
       </c>
     </row>
     <row r="3">
@@ -2136,16 +5611,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+        <v>29613.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19854</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51999</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9674.384739610059</v>
       </c>
     </row>
     <row r="4">
@@ -2158,16 +5633,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+        <v>34765.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15102</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54217</v>
       </c>
       <c r="F4" t="n">
-        <v>0.339934634239519</v>
+        <v>11621.00042552275</v>
       </c>
     </row>
     <row r="5">
@@ -2180,16 +5655,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+        <v>8632.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7361</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9258</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>691.353918047768</v>
       </c>
     </row>
     <row r="6">
@@ -2202,16 +5677,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+        <v>28988.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27449</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31138</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1795054935711501</v>
+        <v>932.2757585607384</v>
       </c>
     </row>
     <row r="7">
@@ -2224,16 +5699,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
+        <v>28977.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27649</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3</v>
+        <v>1168.742161471041</v>
       </c>
     </row>
     <row r="8">
@@ -2246,16 +5721,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
+        <v>11256.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6474</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4788.739167045956</v>
       </c>
     </row>
     <row r="9">
@@ -2268,16 +5743,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
+        <v>31827.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13249</v>
+      </c>
+      <c r="E9" t="n">
+        <v>44791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1795054935711501</v>
+        <v>8530.208100626855</v>
       </c>
     </row>
     <row r="10">
@@ -2290,16 +5765,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
+        <v>29383.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19069</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41724</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3</v>
+        <v>6723.474926702709</v>
       </c>
     </row>
     <row r="11">
@@ -2312,16 +5787,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
+        <v>18525.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8876</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26677</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6293.463787136619</v>
       </c>
     </row>
     <row r="12">
@@ -2334,16 +5809,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
+        <v>39443.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19584</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57474</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>9526.030902742234</v>
       </c>
     </row>
     <row r="13">
@@ -2356,22 +5831,22 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
+        <v>30494.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19329</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48104</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7228.886000622779</v>
       </c>
     </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Summary by Algorithm</t>
         </is>
@@ -2384,16 +5859,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
+        <v>24242.16666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E17" t="n">
+        <v>54217</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2060804110110156</v>
+        <v>14546.95878659484</v>
       </c>
     </row>
     <row r="18">
@@ -2403,16 +5878,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
+        <v>22199.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7361</v>
+      </c>
+      <c r="E18" t="n">
+        <v>31812</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2060804110110156</v>
+        <v>9640.408601817664</v>
       </c>
     </row>
     <row r="19">
@@ -2422,16 +5897,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
+        <v>24155.73333333333</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6474</v>
+      </c>
+      <c r="E19" t="n">
+        <v>44791</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2060804110110156</v>
+        <v>11452.31389700595</v>
       </c>
     </row>
     <row r="20">
@@ -2441,19 +5916,808 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
+        <v>29487.96666666667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8876</v>
+      </c>
+      <c r="E20" t="n">
+        <v>57474</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>11589.07159492175</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8348.299999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>29613.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>34765.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8632.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28988.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28977.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11256.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31827.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>29383.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18525.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>39443.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30494.7</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>50</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>100</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="n">
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100</v>
+      </c>
+      <c r="V32" t="n">
+        <v>150</v>
+      </c>
+      <c r="W32" t="n">
+        <v>150</v>
+      </c>
+      <c r="X32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9741</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5378</v>
+      </c>
+      <c r="D33" t="n">
+        <v>15003</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7294</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12401</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2098</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6898</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7341</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5122</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12207</v>
+      </c>
+      <c r="L33" t="n">
+        <v>38153</v>
+      </c>
+      <c r="M33" t="n">
+        <v>20837</v>
+      </c>
+      <c r="N33" t="n">
+        <v>31172</v>
+      </c>
+      <c r="O33" t="n">
+        <v>27415</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20442</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>51999</v>
+      </c>
+      <c r="R33" t="n">
+        <v>33474</v>
+      </c>
+      <c r="S33" t="n">
+        <v>31987</v>
+      </c>
+      <c r="T33" t="n">
+        <v>20798</v>
+      </c>
+      <c r="U33" t="n">
+        <v>19854</v>
+      </c>
+      <c r="V33" t="n">
+        <v>26310</v>
+      </c>
+      <c r="W33" t="n">
+        <v>15102</v>
+      </c>
+      <c r="X33" t="n">
+        <v>42020</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>45229</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>38268</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>54217</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>27107</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>45569</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>22390</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>31439</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8902</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9094</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8241</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9258</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9165</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7361</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7373</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8883</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8809</v>
+      </c>
+      <c r="L34" t="n">
+        <v>28352</v>
+      </c>
+      <c r="M34" t="n">
+        <v>31138</v>
+      </c>
+      <c r="N34" t="n">
+        <v>28231</v>
+      </c>
+      <c r="O34" t="n">
+        <v>28877</v>
+      </c>
+      <c r="P34" t="n">
+        <v>27449</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>29411</v>
+      </c>
+      <c r="R34" t="n">
+        <v>29637</v>
+      </c>
+      <c r="S34" t="n">
+        <v>28834</v>
+      </c>
+      <c r="T34" t="n">
+        <v>28772</v>
+      </c>
+      <c r="U34" t="n">
+        <v>29188</v>
+      </c>
+      <c r="V34" t="n">
+        <v>28708</v>
+      </c>
+      <c r="W34" t="n">
+        <v>27689</v>
+      </c>
+      <c r="X34" t="n">
+        <v>28364</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>29597</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>28170</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>28994</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>27649</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>31812</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>29823</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>28970</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6474</v>
+      </c>
+      <c r="C35" t="n">
+        <v>24591</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12430</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8966</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9887</v>
+      </c>
+      <c r="G35" t="n">
+        <v>11827</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11094</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10750</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7341</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9207</v>
+      </c>
+      <c r="L35" t="n">
+        <v>27461</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33951</v>
+      </c>
+      <c r="N35" t="n">
+        <v>28949</v>
+      </c>
+      <c r="O35" t="n">
+        <v>29616</v>
+      </c>
+      <c r="P35" t="n">
+        <v>44791</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>35832</v>
+      </c>
+      <c r="R35" t="n">
+        <v>29615</v>
+      </c>
+      <c r="S35" t="n">
+        <v>44280</v>
+      </c>
+      <c r="T35" t="n">
+        <v>13249</v>
+      </c>
+      <c r="U35" t="n">
+        <v>30530</v>
+      </c>
+      <c r="V35" t="n">
+        <v>41724</v>
+      </c>
+      <c r="W35" t="n">
+        <v>38668</v>
+      </c>
+      <c r="X35" t="n">
+        <v>26416</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>23830</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>27294</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>19069</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>24311</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>34265</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>26532</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>31722</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>25794</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10746</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17040</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14561</v>
+      </c>
+      <c r="F36" t="n">
+        <v>26677</v>
+      </c>
+      <c r="G36" t="n">
+        <v>21090</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8876</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12415</v>
+      </c>
+      <c r="J36" t="n">
+        <v>24653</v>
+      </c>
+      <c r="K36" t="n">
+        <v>23402</v>
+      </c>
+      <c r="L36" t="n">
+        <v>40583</v>
+      </c>
+      <c r="M36" t="n">
+        <v>45779</v>
+      </c>
+      <c r="N36" t="n">
+        <v>44217</v>
+      </c>
+      <c r="O36" t="n">
+        <v>36032</v>
+      </c>
+      <c r="P36" t="n">
+        <v>19584</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>33906</v>
+      </c>
+      <c r="R36" t="n">
+        <v>37288</v>
+      </c>
+      <c r="S36" t="n">
+        <v>57474</v>
+      </c>
+      <c r="T36" t="n">
+        <v>33601</v>
+      </c>
+      <c r="U36" t="n">
+        <v>45974</v>
+      </c>
+      <c r="V36" t="n">
+        <v>35390</v>
+      </c>
+      <c r="W36" t="n">
+        <v>28736</v>
+      </c>
+      <c r="X36" t="n">
+        <v>34820</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>19329</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>27901</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>48104</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>28307</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>28043</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>26096</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>28221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21.7109375" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Algorithms / Loads</t>
+        </is>
+      </c>
+      <c r="B2" s="3">
+        <f>'Load Edge'!B24</f>
+        <v/>
+      </c>
+      <c r="D2" s="3">
+        <f>'Load Edge'!C24</f>
+        <v/>
+      </c>
+      <c r="F2" s="3">
+        <f>'Load Edge'!D24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Edge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Edge</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Edge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>'Load Edge'!A25</f>
+        <v/>
+      </c>
+      <c r="B4">
+        <f>'Load Edge'!B25</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>'Load Cloud'!B25</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>'Load Edge'!C25</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>'Load Cloud'!C25</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>'Load Edge'!D25</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>'Load Cloud'!D25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f>'Load Edge'!A26</f>
+        <v/>
+      </c>
+      <c r="B5">
+        <f>'Load Edge'!B26</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>'Load Cloud'!B26</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>'Load Edge'!C26</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>'Load Cloud'!C26</f>
+        <v/>
+      </c>
+      <c r="F5">
+        <f>'Load Edge'!D26</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>'Load Cloud'!D26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <f>'Load Edge'!A27</f>
+        <v/>
+      </c>
+      <c r="B6">
+        <f>'Load Edge'!B27</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>'Load Cloud'!B27</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>'Load Edge'!C27</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>'Load Cloud'!C27</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>'Load Edge'!D27</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>'Load Cloud'!D27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>'Load Edge'!A28</f>
+        <v/>
+      </c>
+      <c r="B7">
+        <f>'Load Edge'!B28</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>'Load Cloud'!B28</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>'Load Edge'!C28</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>'Load Cloud'!C28</f>
+        <v/>
+      </c>
+      <c r="F7">
+        <f>'Load Edge'!D28</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>'Load Cloud'!D28</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result-montage-1.xlsx
+++ b/result-montage-1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -440,13 +440,13 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
@@ -455,14 +455,14 @@
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
     <col width="19" customWidth="1" min="21" max="21"/>
-    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
     <col width="19" customWidth="1" min="23" max="23"/>
     <col width="20" customWidth="1" min="24" max="24"/>
     <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="19" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
     <col width="20" customWidth="1" min="27" max="27"/>
     <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
     <col width="20" customWidth="1" min="30" max="30"/>
     <col width="20" customWidth="1" min="31" max="31"/>
   </cols>
@@ -509,16 +509,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>3206.554901960784</v>
+        <v>3216.633333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>2601.176470588235</v>
+        <v>2311.235294117647</v>
       </c>
       <c r="E2" t="n">
-        <v>3708.941176470588</v>
+        <v>4179.019607843137</v>
       </c>
       <c r="F2" t="n">
-        <v>339.7981553712361</v>
+        <v>477.7870116812869</v>
       </c>
     </row>
     <row r="3">
@@ -531,16 +531,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>5291.736423841059</v>
+        <v>4358.5</v>
       </c>
       <c r="D3" t="n">
-        <v>4409.291390728476</v>
+        <v>3494.148514851485</v>
       </c>
       <c r="E3" t="n">
-        <v>6039.086092715232</v>
+        <v>5295.821782178218</v>
       </c>
       <c r="F3" t="n">
-        <v>480.2559607917121</v>
+        <v>500.8093848383461</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +553,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>5623.135099337748</v>
+        <v>5839.507947019867</v>
       </c>
       <c r="D4" t="n">
-        <v>4416</v>
+        <v>4983.238410596026</v>
       </c>
       <c r="E4" t="n">
-        <v>6206.94701986755</v>
+        <v>6463.211920529801</v>
       </c>
       <c r="F4" t="n">
-        <v>506.0556563556059</v>
+        <v>499.7378134743568</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>3493.368627450981</v>
+        <v>3493.543137254902</v>
       </c>
       <c r="D5" t="n">
-        <v>2851.470588235294</v>
+        <v>2851.196078431372</v>
       </c>
       <c r="E5" t="n">
-        <v>4162.294117647059</v>
+        <v>4161.705882352941</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5639911264979</v>
+        <v>423.4639190511721</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>5449.88476821192</v>
+        <v>4061.650495049505</v>
       </c>
       <c r="D6" t="n">
-        <v>4964.655629139073</v>
+        <v>3495.940594059406</v>
       </c>
       <c r="E6" t="n">
-        <v>6331.854304635762</v>
+        <v>4515.079207920792</v>
       </c>
       <c r="F6" t="n">
-        <v>489.6792006230489</v>
+        <v>282.4122831912319</v>
       </c>
     </row>
     <row r="7">
@@ -619,16 +619,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>5458.046357615895</v>
+        <v>5391.531125827814</v>
       </c>
       <c r="D7" t="n">
-        <v>4938.278145695364</v>
+        <v>5145.741721854305</v>
       </c>
       <c r="E7" t="n">
-        <v>5855.655629139073</v>
+        <v>5847.046357615894</v>
       </c>
       <c r="F7" t="n">
-        <v>274.8159923436452</v>
+        <v>245.0468712049199</v>
       </c>
     </row>
     <row r="8">
@@ -641,16 +641,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>3328.017647058824</v>
+        <v>2645.443137254902</v>
       </c>
       <c r="D8" t="n">
-        <v>2673.196078431372</v>
+        <v>2262.764705882353</v>
       </c>
       <c r="E8" t="n">
-        <v>4857.745098039216</v>
+        <v>2843.862745098039</v>
       </c>
       <c r="F8" t="n">
-        <v>608.2311127054411</v>
+        <v>192.2866320917799</v>
       </c>
     </row>
     <row r="9">
@@ -663,16 +663,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>5398.697350993378</v>
+        <v>2796.179207920792</v>
       </c>
       <c r="D9" t="n">
-        <v>4515.940397350993</v>
+        <v>2462.663366336634</v>
       </c>
       <c r="E9" t="n">
-        <v>6284</v>
+        <v>3250.772277227723</v>
       </c>
       <c r="F9" t="n">
-        <v>519.5775423017874</v>
+        <v>255.0767864633153</v>
       </c>
     </row>
     <row r="10">
@@ -685,16 +685,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>5262.576821192053</v>
+        <v>3285.834437086093</v>
       </c>
       <c r="D10" t="n">
-        <v>4768.324503311258</v>
+        <v>2975.807947019868</v>
       </c>
       <c r="E10" t="n">
-        <v>5813.695364238411</v>
+        <v>3711.629139072847</v>
       </c>
       <c r="F10" t="n">
-        <v>370.3970238630574</v>
+        <v>182.3740645636428</v>
       </c>
     </row>
     <row r="11">
@@ -707,16 +707,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>2544.774509803922</v>
+        <v>2550.03137254902</v>
       </c>
       <c r="D11" t="n">
-        <v>2234.607843137255</v>
+        <v>2243.392156862745</v>
       </c>
       <c r="E11" t="n">
-        <v>2766.823529411765</v>
+        <v>2732.117647058823</v>
       </c>
       <c r="F11" t="n">
-        <v>164.0169054428524</v>
+        <v>172.2865979521042</v>
       </c>
     </row>
     <row r="12">
@@ -729,16 +729,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>3903.941721854304</v>
+        <v>3010.99702970297</v>
       </c>
       <c r="D12" t="n">
-        <v>3646.662251655629</v>
+        <v>2781.910891089109</v>
       </c>
       <c r="E12" t="n">
-        <v>4145.82119205298</v>
+        <v>3324.148514851485</v>
       </c>
       <c r="F12" t="n">
-        <v>154.8352033133279</v>
+        <v>144.749774463163</v>
       </c>
     </row>
     <row r="13">
@@ -751,25 +751,82 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>3871.450331125828</v>
+        <v>3942.952317880794</v>
       </c>
       <c r="D13" t="n">
-        <v>3646.860927152318</v>
+        <v>3614.609271523179</v>
       </c>
       <c r="E13" t="n">
-        <v>4029.41059602649</v>
+        <v>4252.019867549669</v>
       </c>
       <c r="F13" t="n">
-        <v>125.8188431796519</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>216.538317394111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2794.958823529412</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2503.294117647059</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3038.156862745098</v>
+      </c>
+      <c r="F14" t="n">
+        <v>164.7547059872471</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3364.370297029703</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3054.128712871287</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3614.217821782178</v>
+      </c>
+      <c r="F15" t="n">
+        <v>181.5994027201815</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>150</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4230.274172185431</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3716.82119205298</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5109.198675496688</v>
+      </c>
+      <c r="F16" t="n">
+        <v>398.1310967788859</v>
       </c>
     </row>
     <row r="17">
@@ -811,9 +868,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -832,45 +889,99 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3440.055520928018</v>
+        <v>4471.547093451067</v>
       </c>
       <c r="D20" t="n">
-        <v>2234.607843137255</v>
+        <v>2311.235294117647</v>
       </c>
       <c r="E20" t="n">
-        <v>4145.82119205298</v>
+        <v>6463.211920529801</v>
       </c>
       <c r="F20" t="n">
-        <v>650.5192401228439</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
+        <v>1181.486837034431</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4315.574919377407</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2851.196078431372</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5847.046357615894</v>
+      </c>
+      <c r="F21" t="n">
+        <v>859.6553533852375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2909.152260753929</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2262.764705882353</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3711.629139072847</v>
+      </c>
+      <c r="F22" t="n">
+        <v>346.1663808770354</v>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3167.993573377595</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2243.392156862745</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4252.019867549669</v>
+      </c>
+      <c r="F23" t="n">
+        <v>606.7976774295173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>3463.201097581515</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>2503.294117647059</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5109.198675496688</v>
+      </c>
+      <c r="F24" t="n">
+        <v>648.9343038618449</v>
       </c>
     </row>
     <row r="25">
@@ -906,9 +1017,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -924,42 +1035,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Algorithms</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2544.774509803922</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>3903.941721854304</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>3871.450331125828</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3216.633333333333</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4358.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5839.507947019867</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3493.543137254902</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4061.650495049505</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5391.531125827814</v>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
-        </is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2645.443137254902</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2796.179207920792</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3285.834437086093</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
+        <v>2550.03137254902</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>3010.99702970297</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>3942.952317880794</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -1046,17 +1196,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3425.490196078431</v>
+        <v>2794.958823529412</v>
       </c>
       <c r="C33" t="n">
-        <v>3341.666666666667</v>
+        <v>3364.370297029703</v>
       </c>
       <c r="D33" t="n">
-        <v>2960.21568627451</v>
+        <v>4230.274172185431</v>
       </c>
       <c r="E33" t="n">
         <v>3335.235294117647</v>
@@ -1335,9 +1485,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>QUEST</t>
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1429,6 +1579,588 @@
       </c>
       <c r="AE36" t="n">
         <v>4005.695364238411</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100</v>
+      </c>
+      <c r="N37" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" t="n">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>100</v>
+      </c>
+      <c r="R37" t="n">
+        <v>100</v>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="n">
+        <v>100</v>
+      </c>
+      <c r="V37" t="n">
+        <v>150</v>
+      </c>
+      <c r="W37" t="n">
+        <v>150</v>
+      </c>
+      <c r="X37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4179.019607843137</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3050.627450980392</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2984.196078431372</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3276.901960784314</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3558.823529411765</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2311.235294117647</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2714.196078431372</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3463.352941176471</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3280.156862745098</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3347.823529411765</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4815</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3494.148514851485</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4009.722772277228</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5295.821782178218</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4257.554455445545</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4159.891089108911</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4065.207920792079</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4032.613861386139</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4589.356435643565</v>
+      </c>
+      <c r="U38" t="n">
+        <v>4865.683168316832</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5558.82119205298</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5357.172185430463</v>
+      </c>
+      <c r="X38" t="n">
+        <v>6380.026490066225</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>5525.841059602649</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>6463.211920529801</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6294.158940397351</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>5509.145695364238</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6435.311258278146</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>5888.152317880795</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>4983.238410596026</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3894.313725490196</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2994.862745098039</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3808.705882352941</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3884.803921568628</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3599.43137254902</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3037.549019607843</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2851.196078431372</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3271.058823529412</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3431.803921568628</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4161.705882352941</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4142.475247524752</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4083.118811881188</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4304.445544554455</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4317.237623762377</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3789.415841584158</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4155.524752475248</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3837.029702970297</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3495.940594059406</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4515.079207920792</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3976.237623762376</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5152.092715231788</v>
+      </c>
+      <c r="W39" t="n">
+        <v>5171.158940397351</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5847.046357615894</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>5149.887417218543</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>5375.41059602649</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5740.867549668874</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>5575.211920529801</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>5145.741721854305</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>5301.695364238411</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>5456.198675496688</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2709.333333333333</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2843.862745098039</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2496.56862745098</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2746.117647058823</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2771.156862745098</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2262.764705882353</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2355.156862745098</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2760.529411764706</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2826.78431372549</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2682.156862745098</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2858.603960396039</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2740.752475247525</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2462.663366336634</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3169.80198019802</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2645.168316831683</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3250.772277227723</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2605.504950495049</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2518.960396039604</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2707.623762376238</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3001.940594059406</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3151.364238410596</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3348.980132450331</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3179.013245033113</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3256.695364238411</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3227.172185430464</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3409.28476821192</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>3711.629139072847</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3329.344370860927</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3269.052980132451</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2975.807947019868</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2654.666666666667</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2642.196078431372</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2407.333333333333</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2713.470588235294</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2618</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2243.392156862745</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2259.313725490196</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2732.117647058823</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2562.137254901961</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2667.686274509804</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2987.772277227723</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2996.257425742574</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2781.910891089109</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3114.435643564356</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2928.138613861386</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3324.148514851485</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2987.831683168317</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2835.960396039604</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3056.316831683168</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3097.19801980198</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3906.596026490066</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3614.609271523179</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4252.019867549669</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3871.880794701987</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4187.774834437086</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3800.026490066225</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>4215.629139072847</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>3625.960264900662</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3949.298013245033</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>4005.728476821192</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2836.156862745098</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2991.549019607843</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2549.529411764706</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3038.156862745098</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2826.117647058823</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2503.294117647059</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2808.529411764706</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2725.450980392157</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2742.156862745098</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2928.647058823529</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3561.079207920792</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3298.792079207921</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3494.811881188119</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3614.217821782178</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3054.128712871287</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3432.722772277228</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3335.663366336634</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3086.673267326732</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3500.722772277228</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3264.891089108911</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4430.794701986755</v>
+      </c>
+      <c r="W42" t="n">
+        <v>3937.569536423841</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5109.198675496688</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>4086.960264900662</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>4215.450331125828</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3904.397350993378</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>4718.708609271524</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>3716.82119205298</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3994.019867549669</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>4188.82119205298</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +2174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1456,7 +2188,7 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
@@ -1525,16 +2257,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>19128197.08333333</v>
+        <v>18827491.33333333</v>
       </c>
       <c r="D2" t="n">
-        <v>16060487.5</v>
+        <v>16581765</v>
       </c>
       <c r="E2" t="n">
-        <v>22238655</v>
+        <v>22151180</v>
       </c>
       <c r="F2" t="n">
-        <v>1997122.115836909</v>
+        <v>1673905.278161306</v>
       </c>
     </row>
     <row r="3">
@@ -1547,16 +2279,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>27354031.75</v>
+        <v>24356747.08333333</v>
       </c>
       <c r="D3" t="n">
-        <v>22814475</v>
+        <v>20824455</v>
       </c>
       <c r="E3" t="n">
-        <v>29805011.66666666</v>
+        <v>29128237.5</v>
       </c>
       <c r="F3" t="n">
-        <v>2176487.745555403</v>
+        <v>2464206.122393688</v>
       </c>
     </row>
     <row r="4">
@@ -1569,16 +2301,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>28606823.41666667</v>
+        <v>29856924.08333333</v>
       </c>
       <c r="D4" t="n">
-        <v>26360512.5</v>
+        <v>26973859.16666667</v>
       </c>
       <c r="E4" t="n">
-        <v>31816390</v>
+        <v>33710869.16666666</v>
       </c>
       <c r="F4" t="n">
-        <v>1656275.964399102</v>
+        <v>2086314.29649918</v>
       </c>
     </row>
     <row r="5">
@@ -1591,16 +2323,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>21200345.5</v>
+        <v>21198161.5</v>
       </c>
       <c r="D5" t="n">
-        <v>18226099.16666667</v>
+        <v>18201619.16666667</v>
       </c>
       <c r="E5" t="n">
-        <v>23718065.83333333</v>
+        <v>23725265.83333333</v>
       </c>
       <c r="F5" t="n">
-        <v>1452904.534060575</v>
+        <v>1460048.729139468</v>
       </c>
     </row>
     <row r="6">
@@ -1613,16 +2345,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>28145305.58333333</v>
+        <v>24276878.75</v>
       </c>
       <c r="D6" t="n">
-        <v>23968279.16666667</v>
+        <v>21669291.66666667</v>
       </c>
       <c r="E6" t="n">
-        <v>31965899.16666666</v>
+        <v>27304551.66666667</v>
       </c>
       <c r="F6" t="n">
-        <v>2194763.707390402</v>
+        <v>1732415.139982301</v>
       </c>
     </row>
     <row r="7">
@@ -1635,16 +2367,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>28605824</v>
+        <v>27351799.25</v>
       </c>
       <c r="D7" t="n">
-        <v>24715292.5</v>
+        <v>24508780.83333333</v>
       </c>
       <c r="E7" t="n">
-        <v>31451505.83333333</v>
+        <v>30421253.33333333</v>
       </c>
       <c r="F7" t="n">
-        <v>1985985.846258058</v>
+        <v>1809036.762718494</v>
       </c>
     </row>
     <row r="8">
@@ -1657,16 +2389,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>19253866.08333333</v>
+        <v>10566920.91666667</v>
       </c>
       <c r="D8" t="n">
-        <v>15549185.83333333</v>
+        <v>7594880</v>
       </c>
       <c r="E8" t="n">
-        <v>22583518.33333333</v>
+        <v>13750229.16666667</v>
       </c>
       <c r="F8" t="n">
-        <v>2201047.112310728</v>
+        <v>1957989.665987102</v>
       </c>
     </row>
     <row r="9">
@@ -1679,16 +2411,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>28070310.83333333</v>
+        <v>14299924.25</v>
       </c>
       <c r="D9" t="n">
-        <v>25339089.16666667</v>
+        <v>12576981.66666667</v>
       </c>
       <c r="E9" t="n">
-        <v>30962206.66666667</v>
+        <v>16606029.16666667</v>
       </c>
       <c r="F9" t="n">
-        <v>1751409.970559752</v>
+        <v>1062066.288836062</v>
       </c>
     </row>
     <row r="10">
@@ -1701,16 +2433,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>28959023.08333333</v>
+        <v>17702347.91666666</v>
       </c>
       <c r="D10" t="n">
-        <v>25010403.33333333</v>
+        <v>16131912.5</v>
       </c>
       <c r="E10" t="n">
-        <v>31155718.33333333</v>
+        <v>19488150</v>
       </c>
       <c r="F10" t="n">
-        <v>1901966.690183372</v>
+        <v>1096394.060093844</v>
       </c>
     </row>
     <row r="11">
@@ -1723,16 +2455,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>17475865.83333333</v>
+        <v>18220303.91666667</v>
       </c>
       <c r="D11" t="n">
-        <v>13781231.66666667</v>
+        <v>15321888.33333333</v>
       </c>
       <c r="E11" t="n">
-        <v>20568985.83333333</v>
+        <v>21393285.83333333</v>
       </c>
       <c r="F11" t="n">
-        <v>2124796.460943213</v>
+        <v>1880752.411911366</v>
       </c>
     </row>
     <row r="12">
@@ -1745,16 +2477,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>24038400.16666666</v>
+        <v>20875749.08333333</v>
       </c>
       <c r="D12" t="n">
-        <v>21271465.83333333</v>
+        <v>18707926.66666666</v>
       </c>
       <c r="E12" t="n">
-        <v>27163661.66666667</v>
+        <v>22985769.16666667</v>
       </c>
       <c r="F12" t="n">
-        <v>1695616.504868911</v>
+        <v>1315920.203430826</v>
       </c>
     </row>
     <row r="13">
@@ -1767,25 +2499,82 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>24369550.75</v>
+        <v>25000707.08333333</v>
       </c>
       <c r="D13" t="n">
-        <v>21472100.83333334</v>
+        <v>22339360</v>
       </c>
       <c r="E13" t="n">
-        <v>28554672.5</v>
+        <v>27513268.33333333</v>
       </c>
       <c r="F13" t="n">
-        <v>1841194.306646596</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>1649912.537873146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13878079</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12237305</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15539049.16666667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>953583.5024166593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17960182</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16824038.33333333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19302631.66666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>655542.840999415</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>150</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21822422.16666666</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19598454.16666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23179067.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1100989.526863991</v>
       </c>
     </row>
     <row r="17">
@@ -1827,9 +2616,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1848,45 +2637,99 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21961272.25</v>
+        <v>24347054.16666667</v>
       </c>
       <c r="D20" t="n">
-        <v>13781231.66666667</v>
+        <v>16581765</v>
       </c>
       <c r="E20" t="n">
-        <v>28554672.5</v>
+        <v>33710869.16666666</v>
       </c>
       <c r="F20" t="n">
-        <v>3697431.912615443</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
+        <v>4968276.440242707</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>24275613.16666667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18201619.16666667</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30421253.33333333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3018788.371694454</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>14189731.02777778</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7594880</v>
+      </c>
+      <c r="E22" t="n">
+        <v>19488150</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3247520.147461415</v>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>21365586.69444444</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15321888.33333333</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27513268.33333333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3232023.714769592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>17886894.38888889</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>12237305</v>
+      </c>
+      <c r="E24" t="n">
+        <v>23179067.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3372219.182107742</v>
       </c>
     </row>
     <row r="25">
@@ -1922,9 +2765,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1940,42 +2783,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Algorithms</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17475865.83333333</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>24038400.16666666</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>24369550.75</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18827491.33333333</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24356747.08333333</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29856924.08333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>21198161.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24276878.75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27351799.25</v>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
-        </is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10566920.91666667</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14299924.25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>17702347.91666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
+        <v>18220303.91666667</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>20875749.08333333</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>25000707.08333333</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -2062,17 +2944,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17567619.16666667</v>
+        <v>13878079</v>
       </c>
       <c r="C33" t="n">
-        <v>20444991.66666666</v>
+        <v>17960182</v>
       </c>
       <c r="D33" t="n">
-        <v>21963840.83333333</v>
+        <v>21822422.16666666</v>
       </c>
       <c r="E33" t="n">
         <v>22238655</v>
@@ -2351,9 +3233,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>QUEST</t>
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2445,6 +3327,588 @@
       </c>
       <c r="AE36" t="n">
         <v>25789152.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100</v>
+      </c>
+      <c r="N37" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" t="n">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>100</v>
+      </c>
+      <c r="R37" t="n">
+        <v>100</v>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="n">
+        <v>100</v>
+      </c>
+      <c r="V37" t="n">
+        <v>150</v>
+      </c>
+      <c r="W37" t="n">
+        <v>150</v>
+      </c>
+      <c r="X37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>19166510</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19123356.66666667</v>
+      </c>
+      <c r="D38" t="n">
+        <v>19496294.16666667</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20710120.83333333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>22151180</v>
+      </c>
+      <c r="G38" t="n">
+        <v>18471280</v>
+      </c>
+      <c r="H38" t="n">
+        <v>17206958.33333333</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16581765</v>
+      </c>
+      <c r="J38" t="n">
+        <v>16596085.83333333</v>
+      </c>
+      <c r="K38" t="n">
+        <v>18771362.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>29128237.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>23013043.33333333</v>
+      </c>
+      <c r="N38" t="n">
+        <v>21171821.66666667</v>
+      </c>
+      <c r="O38" t="n">
+        <v>26634720</v>
+      </c>
+      <c r="P38" t="n">
+        <v>22159945</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>24935563.33333334</v>
+      </c>
+      <c r="R38" t="n">
+        <v>25943000.83333333</v>
+      </c>
+      <c r="S38" t="n">
+        <v>25122440.83333334</v>
+      </c>
+      <c r="T38" t="n">
+        <v>20824455</v>
+      </c>
+      <c r="U38" t="n">
+        <v>24634243.33333333</v>
+      </c>
+      <c r="V38" t="n">
+        <v>30184459.16666667</v>
+      </c>
+      <c r="W38" t="n">
+        <v>26973859.16666667</v>
+      </c>
+      <c r="X38" t="n">
+        <v>33710869.16666666</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>28496327.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>30614230.83333334</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>29854312.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>27125337.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>29259400</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>32982938.33333334</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>29367506.66666666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>20314061.66666667</v>
+      </c>
+      <c r="C39" t="n">
+        <v>22374958.33333333</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23725265.83333333</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21109538.33333333</v>
+      </c>
+      <c r="F39" t="n">
+        <v>21485615.83333333</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20049692.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>18201619.16666667</v>
+      </c>
+      <c r="I39" t="n">
+        <v>20460950</v>
+      </c>
+      <c r="J39" t="n">
+        <v>22349030.83333333</v>
+      </c>
+      <c r="K39" t="n">
+        <v>21910882.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>27100275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>24618092.5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>23804745.83333334</v>
+      </c>
+      <c r="O39" t="n">
+        <v>27304551.66666667</v>
+      </c>
+      <c r="P39" t="n">
+        <v>21990010</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>23925330.83333333</v>
+      </c>
+      <c r="R39" t="n">
+        <v>24328485.83333334</v>
+      </c>
+      <c r="S39" t="n">
+        <v>24361262.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>21669291.66666667</v>
+      </c>
+      <c r="U39" t="n">
+        <v>23666741.66666667</v>
+      </c>
+      <c r="V39" t="n">
+        <v>30421253.33333333</v>
+      </c>
+      <c r="W39" t="n">
+        <v>24607897.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>27927234.16666666</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>26538865</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>24508780.83333333</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>28600660.83333334</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>28002218.33333333</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>26030525.83333333</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>27891271.66666667</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>28989285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9385631.666666666</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13750229.16666667</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11686651.66666667</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12311493.33333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9504926.666666666</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11566382.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7594880</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8973987.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12567097.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>8327929.166666667</v>
+      </c>
+      <c r="L40" t="n">
+        <v>13885529.16666667</v>
+      </c>
+      <c r="M40" t="n">
+        <v>13924150.83333333</v>
+      </c>
+      <c r="N40" t="n">
+        <v>14471957.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>15523018.33333333</v>
+      </c>
+      <c r="P40" t="n">
+        <v>14345800</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>16606029.16666667</v>
+      </c>
+      <c r="R40" t="n">
+        <v>13569476.66666667</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13552027.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>12576981.66666667</v>
+      </c>
+      <c r="U40" t="n">
+        <v>14544271.66666667</v>
+      </c>
+      <c r="V40" t="n">
+        <v>19285387.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>16351633.33333333</v>
+      </c>
+      <c r="X40" t="n">
+        <v>16131912.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>17659632.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>19488150</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>17316004.16666666</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>18879255</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>17197530</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>17409010.83333333</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>17304963.33333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>15321888.33333333</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18065758.33333333</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21393285.83333333</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19701988.33333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20280596.66666667</v>
+      </c>
+      <c r="G41" t="n">
+        <v>16607810.83333333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>16441880</v>
+      </c>
+      <c r="I41" t="n">
+        <v>17372971.66666667</v>
+      </c>
+      <c r="J41" t="n">
+        <v>17131356.66666667</v>
+      </c>
+      <c r="K41" t="n">
+        <v>19885502.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>22985769.16666667</v>
+      </c>
+      <c r="M41" t="n">
+        <v>22318398.33333334</v>
+      </c>
+      <c r="N41" t="n">
+        <v>20642385.83333333</v>
+      </c>
+      <c r="O41" t="n">
+        <v>20805856.66666667</v>
+      </c>
+      <c r="P41" t="n">
+        <v>19448370.83333333</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>22390036.66666666</v>
+      </c>
+      <c r="R41" t="n">
+        <v>21325840</v>
+      </c>
+      <c r="S41" t="n">
+        <v>20367505</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18707926.66666666</v>
+      </c>
+      <c r="U41" t="n">
+        <v>19765401.66666667</v>
+      </c>
+      <c r="V41" t="n">
+        <v>26531291.66666666</v>
+      </c>
+      <c r="W41" t="n">
+        <v>22339360</v>
+      </c>
+      <c r="X41" t="n">
+        <v>22802687.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>27212744.16666666</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>24850734.16666666</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>24891671.66666667</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>27513268.33333333</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>24151740.83333333</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>24162976.66666667</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>25550595.83333334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13443917.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>15539049.16666667</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14148861.66666667</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14780173.33333333</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13952204.16666667</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13876571.66666667</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12644046.66666667</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12237305</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14771184.16666667</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13387476.66666667</v>
+      </c>
+      <c r="L42" t="n">
+        <v>18355331.66666667</v>
+      </c>
+      <c r="M42" t="n">
+        <v>19302631.66666667</v>
+      </c>
+      <c r="N42" t="n">
+        <v>17176003.33333333</v>
+      </c>
+      <c r="O42" t="n">
+        <v>18249295</v>
+      </c>
+      <c r="P42" t="n">
+        <v>17663957.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>18397195</v>
+      </c>
+      <c r="R42" t="n">
+        <v>17714529.16666666</v>
+      </c>
+      <c r="S42" t="n">
+        <v>18032320</v>
+      </c>
+      <c r="T42" t="n">
+        <v>16824038.33333333</v>
+      </c>
+      <c r="U42" t="n">
+        <v>17886518.33333333</v>
+      </c>
+      <c r="V42" t="n">
+        <v>22993389.16666667</v>
+      </c>
+      <c r="W42" t="n">
+        <v>19598454.16666667</v>
+      </c>
+      <c r="X42" t="n">
+        <v>23118877.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>21836295</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>21919000.83333333</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>21151765</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>21162587.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>20821099.16666666</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>23179067.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>22443685.83333333</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +3922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:D9"/>
@@ -2493,7 +3957,7 @@
     <col width="8" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="8" customWidth="1" min="31" max="31"/>
@@ -2541,16 +4005,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>74395.5</v>
+        <v>73333.3</v>
       </c>
       <c r="D2" t="n">
-        <v>61894</v>
+        <v>63947</v>
       </c>
       <c r="E2" t="n">
-        <v>87220</v>
+        <v>86899</v>
       </c>
       <c r="F2" t="n">
-        <v>8241.257807519432</v>
+        <v>6909.877264467148</v>
       </c>
     </row>
     <row r="3">
@@ -2563,16 +4027,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>98473.89999999999</v>
+        <v>90644.5</v>
       </c>
       <c r="D3" t="n">
-        <v>80144</v>
+        <v>76706</v>
       </c>
       <c r="E3" t="n">
-        <v>108796</v>
+        <v>110317</v>
       </c>
       <c r="F3" t="n">
-        <v>8395.707444283657</v>
+        <v>9924.575570269995</v>
       </c>
     </row>
     <row r="4">
@@ -2585,16 +4049,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>103466.3</v>
+        <v>108390.1</v>
       </c>
       <c r="D4" t="n">
-        <v>95801</v>
+        <v>97606</v>
       </c>
       <c r="E4" t="n">
-        <v>115992</v>
+        <v>123712</v>
       </c>
       <c r="F4" t="n">
-        <v>6230.683558807974</v>
+        <v>8261.956383932318</v>
       </c>
     </row>
     <row r="5">
@@ -2607,16 +4071,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>82530.7</v>
+        <v>82521.60000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>70650</v>
+        <v>70548</v>
       </c>
       <c r="E5" t="n">
-        <v>93379</v>
+        <v>93409</v>
       </c>
       <c r="F5" t="n">
-        <v>5961.559897375853</v>
+        <v>5990.640787094482</v>
       </c>
     </row>
     <row r="6">
@@ -2629,16 +4093,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>101106.5</v>
+        <v>90315</v>
       </c>
       <c r="D6" t="n">
-        <v>84497</v>
+        <v>79581</v>
       </c>
       <c r="E6" t="n">
-        <v>116713</v>
+        <v>101964</v>
       </c>
       <c r="F6" t="n">
-        <v>8945.970883587761</v>
+        <v>6975.47697293884</v>
       </c>
     </row>
     <row r="7">
@@ -2651,16 +4115,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>103016.5</v>
+        <v>97976.5</v>
       </c>
       <c r="D7" t="n">
-        <v>87438</v>
+        <v>86259</v>
       </c>
       <c r="E7" t="n">
-        <v>114647</v>
+        <v>110621</v>
       </c>
       <c r="F7" t="n">
-        <v>7930.840803470966</v>
+        <v>7199.170302889076</v>
       </c>
     </row>
     <row r="8">
@@ -2673,16 +4137,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>74985.60000000001</v>
+        <v>42027.3</v>
       </c>
       <c r="D8" t="n">
-        <v>60416</v>
+        <v>30075</v>
       </c>
       <c r="E8" t="n">
-        <v>89018</v>
+        <v>55349</v>
       </c>
       <c r="F8" t="n">
-        <v>9165.524940776715</v>
+        <v>7999.479758709313</v>
       </c>
     </row>
     <row r="9">
@@ -2695,16 +4159,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>101233.5</v>
+        <v>54407.6</v>
       </c>
       <c r="D9" t="n">
-        <v>91287</v>
+        <v>46603</v>
       </c>
       <c r="E9" t="n">
-        <v>112911</v>
+        <v>62539</v>
       </c>
       <c r="F9" t="n">
-        <v>6842.359421281521</v>
+        <v>4004.776777799232</v>
       </c>
     </row>
     <row r="10">
@@ -2717,16 +4181,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>105160.2</v>
+        <v>64746.4</v>
       </c>
       <c r="D10" t="n">
-        <v>89190</v>
+        <v>58836</v>
       </c>
       <c r="E10" t="n">
-        <v>113159</v>
+        <v>72321</v>
       </c>
       <c r="F10" t="n">
-        <v>7287.041097729585</v>
+        <v>4167.844171751146</v>
       </c>
     </row>
     <row r="11">
@@ -2739,16 +4203,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>68443.7</v>
+        <v>71585.89999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>53309</v>
+        <v>59466</v>
       </c>
       <c r="E11" t="n">
-        <v>81492</v>
+        <v>84743</v>
       </c>
       <c r="F11" t="n">
-        <v>8632.847190237992</v>
+        <v>7701.185083479036</v>
       </c>
     </row>
     <row r="12">
@@ -2761,16 +4225,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>87113.39999999999</v>
+        <v>78496.7</v>
       </c>
       <c r="D12" t="n">
-        <v>75026</v>
+        <v>70448</v>
       </c>
       <c r="E12" t="n">
-        <v>99162</v>
+        <v>87502</v>
       </c>
       <c r="F12" t="n">
-        <v>6904.554876311723</v>
+        <v>5134.255993812541</v>
       </c>
     </row>
     <row r="13">
@@ -2783,25 +4247,82 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>88202.39999999999</v>
+        <v>90712.5</v>
       </c>
       <c r="D13" t="n">
-        <v>76821</v>
+        <v>79809</v>
       </c>
       <c r="E13" t="n">
-        <v>104270</v>
+        <v>100873</v>
       </c>
       <c r="F13" t="n">
-        <v>7115.160928608713</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>6955.572891574065</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>53984.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46601</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61365</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4277.684987233165</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>66333.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60989</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72020</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2886.853712954642</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>150</v>
+      </c>
+      <c r="C16" t="n">
+        <v>77904.10000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>69749</v>
+      </c>
+      <c r="E16" t="n">
+        <v>84394</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4176.393837989899</v>
       </c>
     </row>
     <row r="17">
@@ -2843,9 +4364,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2864,45 +4385,99 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>81253.16666666667</v>
+        <v>90789.3</v>
       </c>
       <c r="D20" t="n">
-        <v>53309</v>
+        <v>63947</v>
       </c>
       <c r="E20" t="n">
-        <v>104270</v>
+        <v>123712</v>
       </c>
       <c r="F20" t="n">
-        <v>11825.69319485707</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
+        <v>16623.52340339837</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>90271.03333333334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70548</v>
+      </c>
+      <c r="E21" t="n">
+        <v>110621</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9234.048871733112</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>53727.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30075</v>
+      </c>
+      <c r="E22" t="n">
+        <v>72321</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10896.08815538861</v>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>80265.03333333334</v>
+      </c>
+      <c r="D23" t="n">
+        <v>59466</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100873</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10354.59235471017</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>66074.13333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>46601</v>
+      </c>
+      <c r="E24" t="n">
+        <v>84394</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10492.05335713124</v>
       </c>
     </row>
     <row r="25">
@@ -2938,9 +4513,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2956,42 +4531,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Algorithms</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68443.7</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>87113.39999999999</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>88202.39999999999</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>73333.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>90644.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>108390.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>82521.60000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>90315</v>
+      </c>
+      <c r="D30" t="n">
+        <v>97976.5</v>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
-        </is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>42027.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>54407.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>64746.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
+        <v>71585.89999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>78496.7</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>90712.5</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -3078,17 +4692,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>67622</v>
+        <v>53984.5</v>
       </c>
       <c r="C33" t="n">
-        <v>79915</v>
+        <v>66333.8</v>
       </c>
       <c r="D33" t="n">
-        <v>86656</v>
+        <v>77904.10000000001</v>
       </c>
       <c r="E33" t="n">
         <v>87220</v>
@@ -3367,9 +4981,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>QUEST</t>
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3461,6 +5075,588 @@
       </c>
       <c r="AE36" t="n">
         <v>93547</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100</v>
+      </c>
+      <c r="N37" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" t="n">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>100</v>
+      </c>
+      <c r="R37" t="n">
+        <v>100</v>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="n">
+        <v>100</v>
+      </c>
+      <c r="V37" t="n">
+        <v>150</v>
+      </c>
+      <c r="W37" t="n">
+        <v>150</v>
+      </c>
+      <c r="X37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>73869</v>
+      </c>
+      <c r="C38" t="n">
+        <v>74093</v>
+      </c>
+      <c r="D38" t="n">
+        <v>77484</v>
+      </c>
+      <c r="E38" t="n">
+        <v>80922</v>
+      </c>
+      <c r="F38" t="n">
+        <v>86899</v>
+      </c>
+      <c r="G38" t="n">
+        <v>72743</v>
+      </c>
+      <c r="H38" t="n">
+        <v>66761</v>
+      </c>
+      <c r="I38" t="n">
+        <v>63947</v>
+      </c>
+      <c r="J38" t="n">
+        <v>64089</v>
+      </c>
+      <c r="K38" t="n">
+        <v>72526</v>
+      </c>
+      <c r="L38" t="n">
+        <v>110317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>85751</v>
+      </c>
+      <c r="N38" t="n">
+        <v>78370</v>
+      </c>
+      <c r="O38" t="n">
+        <v>98010</v>
+      </c>
+      <c r="P38" t="n">
+        <v>80948</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>92861</v>
+      </c>
+      <c r="R38" t="n">
+        <v>98011</v>
+      </c>
+      <c r="S38" t="n">
+        <v>95273</v>
+      </c>
+      <c r="T38" t="n">
+        <v>76706</v>
+      </c>
+      <c r="U38" t="n">
+        <v>90198</v>
+      </c>
+      <c r="V38" t="n">
+        <v>109427</v>
+      </c>
+      <c r="W38" t="n">
+        <v>97606</v>
+      </c>
+      <c r="X38" t="n">
+        <v>123712</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>103077</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>110885</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>107016</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>98172</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>105069</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>121707</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>107230</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>78723</v>
+      </c>
+      <c r="C39" t="n">
+        <v>87144</v>
+      </c>
+      <c r="D39" t="n">
+        <v>93409</v>
+      </c>
+      <c r="E39" t="n">
+        <v>81853</v>
+      </c>
+      <c r="F39" t="n">
+        <v>83491</v>
+      </c>
+      <c r="G39" t="n">
+        <v>78356</v>
+      </c>
+      <c r="H39" t="n">
+        <v>70548</v>
+      </c>
+      <c r="I39" t="n">
+        <v>79080</v>
+      </c>
+      <c r="J39" t="n">
+        <v>87294</v>
+      </c>
+      <c r="K39" t="n">
+        <v>85318</v>
+      </c>
+      <c r="L39" t="n">
+        <v>101964</v>
+      </c>
+      <c r="M39" t="n">
+        <v>91387</v>
+      </c>
+      <c r="N39" t="n">
+        <v>88899</v>
+      </c>
+      <c r="O39" t="n">
+        <v>101901</v>
+      </c>
+      <c r="P39" t="n">
+        <v>80960</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>88378</v>
+      </c>
+      <c r="R39" t="n">
+        <v>90968</v>
+      </c>
+      <c r="S39" t="n">
+        <v>91202</v>
+      </c>
+      <c r="T39" t="n">
+        <v>79581</v>
+      </c>
+      <c r="U39" t="n">
+        <v>87910</v>
+      </c>
+      <c r="V39" t="n">
+        <v>110621</v>
+      </c>
+      <c r="W39" t="n">
+        <v>87712</v>
+      </c>
+      <c r="X39" t="n">
+        <v>99630</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>94761</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>86259</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>102685</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>100007</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>92884</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>100650</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>104556</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>36999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>55349</v>
+      </c>
+      <c r="D40" t="n">
+        <v>46463</v>
+      </c>
+      <c r="E40" t="n">
+        <v>49141</v>
+      </c>
+      <c r="F40" t="n">
+        <v>37673</v>
+      </c>
+      <c r="G40" t="n">
+        <v>46235</v>
+      </c>
+      <c r="H40" t="n">
+        <v>30075</v>
+      </c>
+      <c r="I40" t="n">
+        <v>35576</v>
+      </c>
+      <c r="J40" t="n">
+        <v>49893</v>
+      </c>
+      <c r="K40" t="n">
+        <v>32869</v>
+      </c>
+      <c r="L40" t="n">
+        <v>53170</v>
+      </c>
+      <c r="M40" t="n">
+        <v>52975</v>
+      </c>
+      <c r="N40" t="n">
+        <v>55866</v>
+      </c>
+      <c r="O40" t="n">
+        <v>58568</v>
+      </c>
+      <c r="P40" t="n">
+        <v>54266</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>62539</v>
+      </c>
+      <c r="R40" t="n">
+        <v>52338</v>
+      </c>
+      <c r="S40" t="n">
+        <v>52223</v>
+      </c>
+      <c r="T40" t="n">
+        <v>46603</v>
+      </c>
+      <c r="U40" t="n">
+        <v>55528</v>
+      </c>
+      <c r="V40" t="n">
+        <v>70535</v>
+      </c>
+      <c r="W40" t="n">
+        <v>59218</v>
+      </c>
+      <c r="X40" t="n">
+        <v>58836</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>64160</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>72321</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>62931</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>67733</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>62692</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>64046</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>64992</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>59466</v>
+      </c>
+      <c r="C41" t="n">
+        <v>71031</v>
+      </c>
+      <c r="D41" t="n">
+        <v>84743</v>
+      </c>
+      <c r="E41" t="n">
+        <v>78008</v>
+      </c>
+      <c r="F41" t="n">
+        <v>79782</v>
+      </c>
+      <c r="G41" t="n">
+        <v>65487</v>
+      </c>
+      <c r="H41" t="n">
+        <v>63812</v>
+      </c>
+      <c r="I41" t="n">
+        <v>68262</v>
+      </c>
+      <c r="J41" t="n">
+        <v>67463</v>
+      </c>
+      <c r="K41" t="n">
+        <v>77805</v>
+      </c>
+      <c r="L41" t="n">
+        <v>87502</v>
+      </c>
+      <c r="M41" t="n">
+        <v>84018</v>
+      </c>
+      <c r="N41" t="n">
+        <v>78202</v>
+      </c>
+      <c r="O41" t="n">
+        <v>77403</v>
+      </c>
+      <c r="P41" t="n">
+        <v>73092</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>83092</v>
+      </c>
+      <c r="R41" t="n">
+        <v>80699</v>
+      </c>
+      <c r="S41" t="n">
+        <v>77466</v>
+      </c>
+      <c r="T41" t="n">
+        <v>70448</v>
+      </c>
+      <c r="U41" t="n">
+        <v>73045</v>
+      </c>
+      <c r="V41" t="n">
+        <v>97544</v>
+      </c>
+      <c r="W41" t="n">
+        <v>80664</v>
+      </c>
+      <c r="X41" t="n">
+        <v>79809</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>100262</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>90547</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>90135</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>100873</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>88234</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>86927</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>92130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>51908</v>
+      </c>
+      <c r="C42" t="n">
+        <v>61365</v>
+      </c>
+      <c r="D42" t="n">
+        <v>55534</v>
+      </c>
+      <c r="E42" t="n">
+        <v>57468</v>
+      </c>
+      <c r="F42" t="n">
+        <v>54269</v>
+      </c>
+      <c r="G42" t="n">
+        <v>54987</v>
+      </c>
+      <c r="H42" t="n">
+        <v>48441</v>
+      </c>
+      <c r="I42" t="n">
+        <v>46601</v>
+      </c>
+      <c r="J42" t="n">
+        <v>57989</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51283</v>
+      </c>
+      <c r="L42" t="n">
+        <v>67992</v>
+      </c>
+      <c r="M42" t="n">
+        <v>72020</v>
+      </c>
+      <c r="N42" t="n">
+        <v>62584</v>
+      </c>
+      <c r="O42" t="n">
+        <v>67063</v>
+      </c>
+      <c r="P42" t="n">
+        <v>65620</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>67822</v>
+      </c>
+      <c r="R42" t="n">
+        <v>65593</v>
+      </c>
+      <c r="S42" t="n">
+        <v>67645</v>
+      </c>
+      <c r="T42" t="n">
+        <v>60989</v>
+      </c>
+      <c r="U42" t="n">
+        <v>66010</v>
+      </c>
+      <c r="V42" t="n">
+        <v>82133</v>
+      </c>
+      <c r="W42" t="n">
+        <v>69749</v>
+      </c>
+      <c r="X42" t="n">
+        <v>80353</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>79162</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>78237</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>75013</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>74689</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>74384</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>84394</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>80927</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +5670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,7 +5775,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -3588,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="4">
@@ -3601,16 +5797,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -3645,7 +5841,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -3654,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -3667,16 +5863,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="8">
@@ -3689,16 +5885,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="9">
@@ -3711,16 +5907,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -3799,25 +5995,82 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>150</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3859,9 +6112,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3880,45 +6133,99 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
+        <v>0.4988876515698589</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4898979485566357</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" t="n">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3954,9 +6261,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3972,42 +6279,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Algorithms</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
-        </is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>0.8</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -4094,16 +6440,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="B33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="b">
@@ -4383,99 +6729,681 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100</v>
+      </c>
+      <c r="N37" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" t="n">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>100</v>
+      </c>
+      <c r="R37" t="n">
+        <v>100</v>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="n">
+        <v>100</v>
+      </c>
+      <c r="V37" t="n">
+        <v>150</v>
+      </c>
+      <c r="W37" t="n">
+        <v>150</v>
+      </c>
+      <c r="X37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" t="b">
+        <v>1</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" t="b">
+        <v>1</v>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" t="b">
+        <v>1</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W40" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="B36" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="b">
-        <v>1</v>
-      </c>
-      <c r="R36" t="b">
-        <v>1</v>
-      </c>
-      <c r="S36" t="b">
-        <v>1</v>
-      </c>
-      <c r="T36" t="b">
-        <v>1</v>
-      </c>
-      <c r="U36" t="b">
-        <v>1</v>
-      </c>
-      <c r="V36" t="b">
-        <v>1</v>
-      </c>
-      <c r="W36" t="b">
-        <v>1</v>
-      </c>
-      <c r="X36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="b">
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4490,7 +7418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
@@ -4573,16 +7501,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>11914.74</v>
+        <v>11704.22</v>
       </c>
       <c r="D2" t="n">
-        <v>10390.8</v>
+        <v>9806.6</v>
       </c>
       <c r="E2" t="n">
-        <v>13139.5</v>
+        <v>13095.4</v>
       </c>
       <c r="F2" t="n">
-        <v>880.4191049721719</v>
+        <v>1006.662854981746</v>
       </c>
     </row>
     <row r="3">
@@ -4595,16 +7523,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>34199.09</v>
+        <v>22626.14</v>
       </c>
       <c r="D3" t="n">
-        <v>31939.9</v>
+        <v>20620.5</v>
       </c>
       <c r="E3" t="n">
-        <v>37720.6</v>
+        <v>25944.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1577.269304494321</v>
+        <v>1778.106319205913</v>
       </c>
     </row>
     <row r="4">
@@ -4617,16 +7545,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>33528.06</v>
+        <v>33473.69</v>
       </c>
       <c r="D4" t="n">
-        <v>31376</v>
+        <v>30295</v>
       </c>
       <c r="E4" t="n">
-        <v>35912.1</v>
+        <v>36257.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1477.10934747567</v>
+        <v>1978.819078364668</v>
       </c>
     </row>
     <row r="5">
@@ -4661,16 +7589,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>34076</v>
+        <v>22660.75</v>
       </c>
       <c r="D6" t="n">
-        <v>32385.8</v>
+        <v>21520.9</v>
       </c>
       <c r="E6" t="n">
-        <v>36468.4</v>
+        <v>24825.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1013.742927965469</v>
+        <v>1011.628573390451</v>
       </c>
     </row>
     <row r="7">
@@ -4683,16 +7611,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>34099.8</v>
+        <v>33701.79</v>
       </c>
       <c r="D7" t="n">
-        <v>32651.6</v>
+        <v>31200</v>
       </c>
       <c r="E7" t="n">
-        <v>37231.9</v>
+        <v>35280.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1269.50771088639</v>
+        <v>1202.414062168269</v>
       </c>
     </row>
     <row r="8">
@@ -4705,16 +7633,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>11580.21</v>
+        <v>10666.94</v>
       </c>
       <c r="D8" t="n">
-        <v>10158.9</v>
+        <v>8443.6</v>
       </c>
       <c r="E8" t="n">
-        <v>12691.7</v>
+        <v>12012.2</v>
       </c>
       <c r="F8" t="n">
-        <v>981.2608414178158</v>
+        <v>1106.708959211951</v>
       </c>
     </row>
     <row r="9">
@@ -4727,16 +7655,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>33861.67</v>
+        <v>21489.71</v>
       </c>
       <c r="D9" t="n">
-        <v>30554.6</v>
+        <v>18948.3</v>
       </c>
       <c r="E9" t="n">
-        <v>36388.4</v>
+        <v>24481.4</v>
       </c>
       <c r="F9" t="n">
-        <v>1597.535682261902</v>
+        <v>1827.381830078214</v>
       </c>
     </row>
     <row r="10">
@@ -4749,16 +7677,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>34251.72</v>
+        <v>32925.63</v>
       </c>
       <c r="D10" t="n">
-        <v>31705.3</v>
+        <v>28493.3</v>
       </c>
       <c r="E10" t="n">
-        <v>36976.6</v>
+        <v>35316.6</v>
       </c>
       <c r="F10" t="n">
-        <v>1541.825007450586</v>
+        <v>1886.691025075383</v>
       </c>
     </row>
     <row r="11">
@@ -4771,16 +7699,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>10954.18</v>
+        <v>11612.18</v>
       </c>
       <c r="D11" t="n">
-        <v>9102.1</v>
+        <v>9929.799999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>12449.2</v>
+        <v>13268.1</v>
       </c>
       <c r="F11" t="n">
-        <v>982.4122839215723</v>
+        <v>989.5850512209653</v>
       </c>
     </row>
     <row r="12">
@@ -4793,16 +7721,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>33736.99</v>
+        <v>22305.67</v>
       </c>
       <c r="D12" t="n">
-        <v>31885.3</v>
+        <v>20924.6</v>
       </c>
       <c r="E12" t="n">
-        <v>35551.5</v>
+        <v>23845.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1136.274098490324</v>
+        <v>869.3522451227697</v>
       </c>
     </row>
     <row r="13">
@@ -4815,25 +7743,82 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>34765.44</v>
+        <v>33594.03</v>
       </c>
       <c r="D13" t="n">
-        <v>32748.9</v>
+        <v>30813.3</v>
       </c>
       <c r="E13" t="n">
-        <v>38679.7</v>
+        <v>36715.2</v>
       </c>
       <c r="F13" t="n">
-        <v>1757.048784866259</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>1921.426129753627</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11537.28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9656.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12460.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>848.1856858023486</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>23024.39</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21120.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26724.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1572.886124581179</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>150</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33316.38</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30041.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>36116.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1761.080728302935</v>
       </c>
     </row>
     <row r="17">
@@ -4875,9 +7860,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4896,45 +7881,99 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26485.53666666667</v>
+        <v>22601.35</v>
       </c>
       <c r="D20" t="n">
-        <v>9102.1</v>
+        <v>9806.6</v>
       </c>
       <c r="E20" t="n">
-        <v>38679.7</v>
+        <v>36257.2</v>
       </c>
       <c r="F20" t="n">
-        <v>11071.08678370476</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
+        <v>9037.820367535158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>22697.72333333333</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10353</v>
+      </c>
+      <c r="E21" t="n">
+        <v>35280.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9025.31251900946</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21694.09333333333</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8443.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>35316.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9235.998974589713</v>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22503.96</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9929.799999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>36715.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9075.365435602764</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>22626.01666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>9656.9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>36116.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9012.906401824861</v>
       </c>
     </row>
     <row r="25">
@@ -4970,9 +8009,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4988,42 +8027,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Algorithms</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10954.18</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>33736.99</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>34765.44</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11704.22</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22626.14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>33473.69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11730.63</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22660.75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>33701.79</v>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
-        </is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10666.94</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21489.71</v>
+      </c>
+      <c r="D31" t="n">
+        <v>32925.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
+        <v>11612.18</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>22305.67</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>33594.03</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -5110,17 +8188,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12131.6</v>
+        <v>11537.28</v>
       </c>
       <c r="C33" t="n">
-        <v>12972.9</v>
+        <v>23024.39</v>
       </c>
       <c r="D33" t="n">
-        <v>10390.8</v>
+        <v>33316.38</v>
       </c>
       <c r="E33" t="n">
         <v>12667.6</v>
@@ -5399,9 +8477,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>QUEST</t>
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5493,6 +8571,588 @@
       </c>
       <c r="AE36" t="n">
         <v>35054.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100</v>
+      </c>
+      <c r="N37" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" t="n">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>100</v>
+      </c>
+      <c r="R37" t="n">
+        <v>100</v>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="n">
+        <v>100</v>
+      </c>
+      <c r="V37" t="n">
+        <v>150</v>
+      </c>
+      <c r="W37" t="n">
+        <v>150</v>
+      </c>
+      <c r="X37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>12490.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12236.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10492.1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11611.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12502.8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9806.6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10759.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13095.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12515.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11530.9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>22841.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>24432.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20824.7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>25944.6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>20674.6</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>24588.8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>20620.5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>22999.9</v>
+      </c>
+      <c r="T38" t="n">
+        <v>21226.9</v>
+      </c>
+      <c r="U38" t="n">
+        <v>22107.3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>33576.2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>30295</v>
+      </c>
+      <c r="X38" t="n">
+        <v>35066.1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>30633.9</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>34773.7</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>34675.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>36257.2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>31438.2</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>32818.8</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>35202.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>12131.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12276.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11039.1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12229.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12163.9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10353</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10613.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>12526</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11857.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12115.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>22886.2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>23369.4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>21532.6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>24825.1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>22304</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>23724.5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>21647</v>
+      </c>
+      <c r="S39" t="n">
+        <v>21520.9</v>
+      </c>
+      <c r="T39" t="n">
+        <v>22419.7</v>
+      </c>
+      <c r="U39" t="n">
+        <v>22378.1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>33996.8</v>
+      </c>
+      <c r="W39" t="n">
+        <v>31200</v>
+      </c>
+      <c r="X39" t="n">
+        <v>35280.1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>33329.4</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>33453.2</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>34788.1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>35184.1</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>32823.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>32715</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>34247.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>11341.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10773.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11476.3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11554.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11586.8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8443.6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9191.700000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10053.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12012.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10235.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>22553.9</v>
+      </c>
+      <c r="M40" t="n">
+        <v>21341.7</v>
+      </c>
+      <c r="N40" t="n">
+        <v>18948.3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>24481.4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>19967.8</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>23241</v>
+      </c>
+      <c r="R40" t="n">
+        <v>19605.5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>19389</v>
+      </c>
+      <c r="T40" t="n">
+        <v>22123.2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>23245.3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>34871.4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>28493.3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>32561</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>33663.7</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>34399.4</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>35316.6</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>32965</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>31057.1</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>33190.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12853.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>11062</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11143.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13268.1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11790.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9929.799999999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10752.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12413.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10865</v>
+      </c>
+      <c r="K41" t="n">
+        <v>12044.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>21694.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>22718</v>
+      </c>
+      <c r="N41" t="n">
+        <v>20924.6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>23845.6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>21512.9</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>23384</v>
+      </c>
+      <c r="R41" t="n">
+        <v>22611.5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>22782.3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>21573.6</v>
+      </c>
+      <c r="U41" t="n">
+        <v>22009.6</v>
+      </c>
+      <c r="V41" t="n">
+        <v>33676.3</v>
+      </c>
+      <c r="W41" t="n">
+        <v>30813.3</v>
+      </c>
+      <c r="X41" t="n">
+        <v>35200.3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>33352.6</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>32595.4</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>34105.1</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>36265.8</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>31100.6</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>32115.7</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>36715.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12284.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10406.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11425.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12460.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>11974.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11293.8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9656.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11819.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12299.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11751.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>23181.3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>22738.2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>21293.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>26724.6</v>
+      </c>
+      <c r="P42" t="n">
+        <v>21120.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>23862.1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>21367.8</v>
+      </c>
+      <c r="S42" t="n">
+        <v>22849.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>23176.8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>23929.9</v>
+      </c>
+      <c r="V42" t="n">
+        <v>34061</v>
+      </c>
+      <c r="W42" t="n">
+        <v>30041.7</v>
+      </c>
+      <c r="X42" t="n">
+        <v>35091.6</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>35467.6</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>32607.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>32897.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>36116.2</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>32070.6</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>32741.9</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>32068.2</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +9166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:A36"/>
@@ -5589,16 +9249,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>8348.299999999999</v>
+        <v>10544.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2098</v>
+        <v>5369</v>
       </c>
       <c r="E2" t="n">
-        <v>15003</v>
+        <v>16899</v>
       </c>
       <c r="F2" t="n">
-        <v>3742.540635717934</v>
+        <v>4238.626541699564</v>
       </c>
     </row>
     <row r="3">
@@ -5611,16 +9271,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>29613.1</v>
+        <v>19108.3</v>
       </c>
       <c r="D3" t="n">
-        <v>19854</v>
+        <v>7943</v>
       </c>
       <c r="E3" t="n">
-        <v>51999</v>
+        <v>30102</v>
       </c>
       <c r="F3" t="n">
-        <v>9674.384739610059</v>
+        <v>7955.61395556622</v>
       </c>
     </row>
     <row r="4">
@@ -5633,16 +9293,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>34765.1</v>
+        <v>30425.5</v>
       </c>
       <c r="D4" t="n">
-        <v>15102</v>
+        <v>15503</v>
       </c>
       <c r="E4" t="n">
-        <v>54217</v>
+        <v>50827</v>
       </c>
       <c r="F4" t="n">
-        <v>11621.00042552275</v>
+        <v>8777.147307069648</v>
       </c>
     </row>
     <row r="5">
@@ -5677,16 +9337,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>28988.9</v>
+        <v>18833.5</v>
       </c>
       <c r="D6" t="n">
-        <v>27449</v>
+        <v>17773</v>
       </c>
       <c r="E6" t="n">
-        <v>31138</v>
+        <v>20890</v>
       </c>
       <c r="F6" t="n">
-        <v>932.2757585607384</v>
+        <v>949.439334554873</v>
       </c>
     </row>
     <row r="7">
@@ -5699,16 +9359,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>28977.6</v>
+        <v>28612.5</v>
       </c>
       <c r="D7" t="n">
-        <v>27649</v>
+        <v>26367</v>
       </c>
       <c r="E7" t="n">
-        <v>31812</v>
+        <v>30119</v>
       </c>
       <c r="F7" t="n">
-        <v>1168.742161471041</v>
+        <v>1083.055792653361</v>
       </c>
     </row>
     <row r="8">
@@ -5721,16 +9381,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>11256.7</v>
+        <v>26715.7</v>
       </c>
       <c r="D8" t="n">
-        <v>6474</v>
+        <v>12562</v>
       </c>
       <c r="E8" t="n">
-        <v>24591</v>
+        <v>40251</v>
       </c>
       <c r="F8" t="n">
-        <v>4788.739167045956</v>
+        <v>7880.889214422444</v>
       </c>
     </row>
     <row r="9">
@@ -5743,16 +9403,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>31827.4</v>
+        <v>42375.3</v>
       </c>
       <c r="D9" t="n">
-        <v>13249</v>
+        <v>25270</v>
       </c>
       <c r="E9" t="n">
-        <v>44791</v>
+        <v>53383</v>
       </c>
       <c r="F9" t="n">
-        <v>8530.208100626855</v>
+        <v>9246.419220974138</v>
       </c>
     </row>
     <row r="10">
@@ -5765,16 +9425,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>29383.1</v>
+        <v>52143.7</v>
       </c>
       <c r="D10" t="n">
-        <v>19069</v>
+        <v>37323</v>
       </c>
       <c r="E10" t="n">
-        <v>41724</v>
+        <v>71529</v>
       </c>
       <c r="F10" t="n">
-        <v>6723.474926702709</v>
+        <v>10361.34585900886</v>
       </c>
     </row>
     <row r="11">
@@ -5787,16 +9447,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>18525.4</v>
+        <v>13226.1</v>
       </c>
       <c r="D11" t="n">
-        <v>8876</v>
+        <v>5706</v>
       </c>
       <c r="E11" t="n">
-        <v>26677</v>
+        <v>23594</v>
       </c>
       <c r="F11" t="n">
-        <v>6293.463787136619</v>
+        <v>5760.650856457107</v>
       </c>
     </row>
     <row r="12">
@@ -5809,16 +9469,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>39443.8</v>
+        <v>27535.5</v>
       </c>
       <c r="D12" t="n">
-        <v>19584</v>
+        <v>14662</v>
       </c>
       <c r="E12" t="n">
-        <v>57474</v>
+        <v>35361</v>
       </c>
       <c r="F12" t="n">
-        <v>9526.030902742234</v>
+        <v>7097.40761475625</v>
       </c>
     </row>
     <row r="13">
@@ -5831,25 +9491,82 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>30494.7</v>
+        <v>35727.1</v>
       </c>
       <c r="D13" t="n">
-        <v>19329</v>
+        <v>13529</v>
       </c>
       <c r="E13" t="n">
-        <v>48104</v>
+        <v>49651</v>
       </c>
       <c r="F13" t="n">
-        <v>7228.886000622779</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>9215.301584321589</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15049.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5426</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31089</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6610.498692231925</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21602.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11182</v>
+      </c>
+      <c r="E15" t="n">
+        <v>34823</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7614.744352898527</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>150</v>
+      </c>
+      <c r="C16" t="n">
+        <v>39076.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20598</v>
+      </c>
+      <c r="E16" t="n">
+        <v>55953</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10020.63079651176</v>
       </c>
     </row>
     <row r="17">
@@ -5891,9 +9608,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -5912,45 +9629,99 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29487.96666666667</v>
+        <v>20026.2</v>
       </c>
       <c r="D20" t="n">
-        <v>8876</v>
+        <v>5369</v>
       </c>
       <c r="E20" t="n">
-        <v>57474</v>
+        <v>50827</v>
       </c>
       <c r="F20" t="n">
-        <v>11589.07159492175</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
+        <v>10911.47698648843</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>18692.86666666666</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7361</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30119</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8209.350030030122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>40411.56666666667</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12562</v>
+      </c>
+      <c r="E22" t="n">
+        <v>71529</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13952.75523730787</v>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>25496.23333333333</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5706</v>
+      </c>
+      <c r="E23" t="n">
+        <v>49651</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11942.43818959187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>25242.73333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>5426</v>
+      </c>
+      <c r="E24" t="n">
+        <v>55953</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13046.30346862879</v>
       </c>
     </row>
     <row r="25">
@@ -5986,9 +9757,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NSGA3</t>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Average data for chart</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -6004,42 +9775,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>Algorithms</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18525.4</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>39443.8</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>30494.7</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10544.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>19108.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>30425.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8632.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18833.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28612.5</v>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
-        </is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>26715.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>42375.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>52143.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
+        <v>13226.1</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>27535.5</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>35727.1</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -6126,17 +9936,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9741</v>
+        <v>15049.2</v>
       </c>
       <c r="C33" t="n">
-        <v>5378</v>
+        <v>21602.8</v>
       </c>
       <c r="D33" t="n">
-        <v>15003</v>
+        <v>39076.2</v>
       </c>
       <c r="E33" t="n">
         <v>7294</v>
@@ -6415,9 +10225,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>QUEST</t>
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6509,6 +10319,588 @@
       </c>
       <c r="AE36" t="n">
         <v>28221</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100</v>
+      </c>
+      <c r="N37" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" t="n">
+        <v>100</v>
+      </c>
+      <c r="P37" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>100</v>
+      </c>
+      <c r="R37" t="n">
+        <v>100</v>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="n">
+        <v>100</v>
+      </c>
+      <c r="V37" t="n">
+        <v>150</v>
+      </c>
+      <c r="W37" t="n">
+        <v>150</v>
+      </c>
+      <c r="X37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5776</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10644</v>
+      </c>
+      <c r="D38" t="n">
+        <v>16899</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16131</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7944</v>
+      </c>
+      <c r="G38" t="n">
+        <v>14216</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7050</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7102</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5369</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14317</v>
+      </c>
+      <c r="L38" t="n">
+        <v>19115</v>
+      </c>
+      <c r="M38" t="n">
+        <v>13208</v>
+      </c>
+      <c r="N38" t="n">
+        <v>24666</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>30102</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>13532</v>
+      </c>
+      <c r="R38" t="n">
+        <v>27071</v>
+      </c>
+      <c r="S38" t="n">
+        <v>7943</v>
+      </c>
+      <c r="T38" t="n">
+        <v>29974</v>
+      </c>
+      <c r="U38" t="n">
+        <v>16472</v>
+      </c>
+      <c r="V38" t="n">
+        <v>31909</v>
+      </c>
+      <c r="W38" t="n">
+        <v>33881</v>
+      </c>
+      <c r="X38" t="n">
+        <v>31841</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>50827</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>15503</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>28249</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>25547</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>35940</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>26586</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>23972</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8902</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9094</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8241</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9258</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9165</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7361</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7373</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8883</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8809</v>
+      </c>
+      <c r="L39" t="n">
+        <v>18990</v>
+      </c>
+      <c r="M39" t="n">
+        <v>19353</v>
+      </c>
+      <c r="N39" t="n">
+        <v>17773</v>
+      </c>
+      <c r="O39" t="n">
+        <v>20890</v>
+      </c>
+      <c r="P39" t="n">
+        <v>18504</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>19951</v>
+      </c>
+      <c r="R39" t="n">
+        <v>17873</v>
+      </c>
+      <c r="S39" t="n">
+        <v>17861</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18598</v>
+      </c>
+      <c r="U39" t="n">
+        <v>18542</v>
+      </c>
+      <c r="V39" t="n">
+        <v>28968</v>
+      </c>
+      <c r="W39" t="n">
+        <v>26367</v>
+      </c>
+      <c r="X39" t="n">
+        <v>30119</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>28318</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>28339</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>29523</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>29874</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>27693</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>27822</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>29102</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>24758</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31617</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12562</v>
+      </c>
+      <c r="E40" t="n">
+        <v>24504</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23992</v>
+      </c>
+      <c r="G40" t="n">
+        <v>30965</v>
+      </c>
+      <c r="H40" t="n">
+        <v>28196</v>
+      </c>
+      <c r="I40" t="n">
+        <v>40251</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15875</v>
+      </c>
+      <c r="K40" t="n">
+        <v>34437</v>
+      </c>
+      <c r="L40" t="n">
+        <v>37133</v>
+      </c>
+      <c r="M40" t="n">
+        <v>51111</v>
+      </c>
+      <c r="N40" t="n">
+        <v>53383</v>
+      </c>
+      <c r="O40" t="n">
+        <v>37874</v>
+      </c>
+      <c r="P40" t="n">
+        <v>50360</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>35381</v>
+      </c>
+      <c r="R40" t="n">
+        <v>49876</v>
+      </c>
+      <c r="S40" t="n">
+        <v>50263</v>
+      </c>
+      <c r="T40" t="n">
+        <v>33102</v>
+      </c>
+      <c r="U40" t="n">
+        <v>25270</v>
+      </c>
+      <c r="V40" t="n">
+        <v>37323</v>
+      </c>
+      <c r="W40" t="n">
+        <v>63108</v>
+      </c>
+      <c r="X40" t="n">
+        <v>71529</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>50353</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>43788</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>50587</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>42906</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>42800</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>58827</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>60216</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>6778</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23594</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5706</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15456</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14455</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7700</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15202</v>
+      </c>
+      <c r="J41" t="n">
+        <v>21728</v>
+      </c>
+      <c r="K41" t="n">
+        <v>11673</v>
+      </c>
+      <c r="L41" t="n">
+        <v>35361</v>
+      </c>
+      <c r="M41" t="n">
+        <v>30138</v>
+      </c>
+      <c r="N41" t="n">
+        <v>28861</v>
+      </c>
+      <c r="O41" t="n">
+        <v>35280</v>
+      </c>
+      <c r="P41" t="n">
+        <v>31691</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>25476</v>
+      </c>
+      <c r="R41" t="n">
+        <v>15472</v>
+      </c>
+      <c r="S41" t="n">
+        <v>14662</v>
+      </c>
+      <c r="T41" t="n">
+        <v>33428</v>
+      </c>
+      <c r="U41" t="n">
+        <v>24986</v>
+      </c>
+      <c r="V41" t="n">
+        <v>39302</v>
+      </c>
+      <c r="W41" t="n">
+        <v>35456</v>
+      </c>
+      <c r="X41" t="n">
+        <v>34547</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>34751</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>42423</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>42274</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>28142</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>49651</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>37196</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>13529</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12099</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31089</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10058</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12252</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16055</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5426</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17804</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19434</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10843</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15432</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22630</v>
+      </c>
+      <c r="M42" t="n">
+        <v>31370</v>
+      </c>
+      <c r="N42" t="n">
+        <v>22948</v>
+      </c>
+      <c r="O42" t="n">
+        <v>12422</v>
+      </c>
+      <c r="P42" t="n">
+        <v>34823</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>24918</v>
+      </c>
+      <c r="R42" t="n">
+        <v>25533</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13888</v>
+      </c>
+      <c r="T42" t="n">
+        <v>16314</v>
+      </c>
+      <c r="U42" t="n">
+        <v>11182</v>
+      </c>
+      <c r="V42" t="n">
+        <v>34501</v>
+      </c>
+      <c r="W42" t="n">
+        <v>43035</v>
+      </c>
+      <c r="X42" t="n">
+        <v>33535</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>20598</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>42095</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>53318</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>30055</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>41761</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>35911</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>55953</v>
       </c>
     </row>
   </sheetData>

--- a/result-montage-1.xlsx
+++ b/result-montage-1.xlsx
@@ -440,31 +440,31 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
     <col width="19" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
     <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
+    <col width="19" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="19" customWidth="1" min="30" max="30"/>
+    <col width="19" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -509,16 +509,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>3216.633333333333</v>
+        <v>3442.823529411765</v>
       </c>
       <c r="D2" t="n">
-        <v>2311.235294117647</v>
+        <v>3139.56862745098</v>
       </c>
       <c r="E2" t="n">
-        <v>4179.019607843137</v>
+        <v>3858.43137254902</v>
       </c>
       <c r="F2" t="n">
-        <v>477.7870116812869</v>
+        <v>286.2243708442831</v>
       </c>
     </row>
     <row r="3">
@@ -531,16 +531,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>4358.5</v>
+        <v>4619.645544554455</v>
       </c>
       <c r="D3" t="n">
-        <v>3494.148514851485</v>
+        <v>3513.504950495049</v>
       </c>
       <c r="E3" t="n">
-        <v>5295.821782178218</v>
+        <v>5825.40594059406</v>
       </c>
       <c r="F3" t="n">
-        <v>500.8093848383461</v>
+        <v>869.6676033945839</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +553,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>5839.507947019867</v>
+        <v>5632.63178807947</v>
       </c>
       <c r="D4" t="n">
-        <v>4983.238410596026</v>
+        <v>4714.437086092716</v>
       </c>
       <c r="E4" t="n">
-        <v>6463.211920529801</v>
+        <v>6563.754966887417</v>
       </c>
       <c r="F4" t="n">
-        <v>499.7378134743568</v>
+        <v>650.8233207592408</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>3493.543137254902</v>
+        <v>3636.235294117647</v>
       </c>
       <c r="D5" t="n">
-        <v>2851.196078431372</v>
+        <v>2993.803921568628</v>
       </c>
       <c r="E5" t="n">
-        <v>4161.705882352941</v>
+        <v>3893.862745098039</v>
       </c>
       <c r="F5" t="n">
-        <v>423.4639190511721</v>
+        <v>338.2032864650764</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>4061.650495049505</v>
+        <v>4126.401980198019</v>
       </c>
       <c r="D6" t="n">
-        <v>3495.940594059406</v>
+        <v>3789.267326732673</v>
       </c>
       <c r="E6" t="n">
-        <v>4515.079207920792</v>
+        <v>4315.089108910891</v>
       </c>
       <c r="F6" t="n">
-        <v>282.4122831912319</v>
+        <v>191.0249906895287</v>
       </c>
     </row>
     <row r="7">
@@ -619,16 +619,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>5391.531125827814</v>
+        <v>5338.847682119205</v>
       </c>
       <c r="D7" t="n">
-        <v>5145.741721854305</v>
+        <v>5150.841059602649</v>
       </c>
       <c r="E7" t="n">
-        <v>5847.046357615894</v>
+        <v>5847.476821192053</v>
       </c>
       <c r="F7" t="n">
-        <v>245.0468712049199</v>
+        <v>268.0143785005249</v>
       </c>
     </row>
     <row r="8">
@@ -641,16 +641,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>2645.443137254902</v>
+        <v>3680.858823529412</v>
       </c>
       <c r="D8" t="n">
-        <v>2262.764705882353</v>
+        <v>2901.627450980392</v>
       </c>
       <c r="E8" t="n">
-        <v>2843.862745098039</v>
+        <v>4010.352941176471</v>
       </c>
       <c r="F8" t="n">
-        <v>192.2866320917799</v>
+        <v>429.7320398242592</v>
       </c>
     </row>
     <row r="9">
@@ -663,16 +663,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>2796.179207920792</v>
+        <v>4729.855445544555</v>
       </c>
       <c r="D9" t="n">
-        <v>2462.663366336634</v>
+        <v>4206.841584158416</v>
       </c>
       <c r="E9" t="n">
-        <v>3250.772277227723</v>
+        <v>5392.693069306931</v>
       </c>
       <c r="F9" t="n">
-        <v>255.0767864633153</v>
+        <v>412.9954469436162</v>
       </c>
     </row>
     <row r="10">
@@ -685,16 +685,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>3285.834437086093</v>
+        <v>5756.85298013245</v>
       </c>
       <c r="D10" t="n">
-        <v>2975.807947019868</v>
+        <v>4608.245033112583</v>
       </c>
       <c r="E10" t="n">
-        <v>3711.629139072847</v>
+        <v>7107.370860927153</v>
       </c>
       <c r="F10" t="n">
-        <v>182.3740645636428</v>
+        <v>991.6559342011337</v>
       </c>
     </row>
     <row r="11">
@@ -707,16 +707,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>2550.03137254902</v>
+        <v>2606.564705882353</v>
       </c>
       <c r="D11" t="n">
-        <v>2243.392156862745</v>
+        <v>2420.098039215686</v>
       </c>
       <c r="E11" t="n">
-        <v>2732.117647058823</v>
+        <v>2692.78431372549</v>
       </c>
       <c r="F11" t="n">
-        <v>172.2865979521042</v>
+        <v>97.22476003498319</v>
       </c>
     </row>
     <row r="12">
@@ -729,16 +729,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>3010.99702970297</v>
+        <v>3122.950495049505</v>
       </c>
       <c r="D12" t="n">
-        <v>2781.910891089109</v>
+        <v>2868.316831683168</v>
       </c>
       <c r="E12" t="n">
-        <v>3324.148514851485</v>
+        <v>3331.455445544555</v>
       </c>
       <c r="F12" t="n">
-        <v>144.749774463163</v>
+        <v>167.5480517702157</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>3942.952317880794</v>
+        <v>3853.092715231788</v>
       </c>
       <c r="D13" t="n">
-        <v>3614.609271523179</v>
+        <v>3600.337748344371</v>
       </c>
       <c r="E13" t="n">
-        <v>4252.019867549669</v>
+        <v>4064.165562913907</v>
       </c>
       <c r="F13" t="n">
-        <v>216.538317394111</v>
+        <v>179.4107380300464</v>
       </c>
     </row>
     <row r="14">
@@ -773,16 +773,16 @@
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>2794.958823529412</v>
+        <v>2861.933333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>2503.294117647059</v>
+        <v>2701.039215686274</v>
       </c>
       <c r="E14" t="n">
-        <v>3038.156862745098</v>
+        <v>3018.411764705882</v>
       </c>
       <c r="F14" t="n">
-        <v>164.7547059872471</v>
+        <v>126.2992483379016</v>
       </c>
     </row>
     <row r="15">
@@ -795,16 +795,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>3364.370297029703</v>
+        <v>3196.584158415842</v>
       </c>
       <c r="D15" t="n">
-        <v>3054.128712871287</v>
+        <v>2959.415841584158</v>
       </c>
       <c r="E15" t="n">
-        <v>3614.217821782178</v>
+        <v>3478.90099009901</v>
       </c>
       <c r="F15" t="n">
-        <v>181.5994027201815</v>
+        <v>185.9722105365577</v>
       </c>
     </row>
     <row r="16">
@@ -817,16 +817,16 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>4230.274172185431</v>
+        <v>4299.479470198676</v>
       </c>
       <c r="D16" t="n">
-        <v>3716.82119205298</v>
+        <v>3802.569536423841</v>
       </c>
       <c r="E16" t="n">
-        <v>5109.198675496688</v>
+        <v>4661.966887417218</v>
       </c>
       <c r="F16" t="n">
-        <v>398.1310967788859</v>
+        <v>338.2959324826434</v>
       </c>
     </row>
     <row r="17">
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4707.142141713198</v>
+        <v>4536.308031060215</v>
       </c>
       <c r="D17" t="n">
-        <v>2601.176470588235</v>
+        <v>3131.921568627451</v>
       </c>
       <c r="E17" t="n">
-        <v>6206.94701986755</v>
+        <v>6425.973509933775</v>
       </c>
       <c r="F17" t="n">
-        <v>1159.706362090752</v>
+        <v>1000.990573003917</v>
       </c>
     </row>
     <row r="18">
@@ -855,16 +855,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4800.433251092932</v>
+        <v>4367.483244857403</v>
       </c>
       <c r="D18" t="n">
-        <v>2851.470588235294</v>
+        <v>2993.803921568628</v>
       </c>
       <c r="E18" t="n">
-        <v>6331.854304635762</v>
+        <v>5847.92715231788</v>
       </c>
       <c r="F18" t="n">
-        <v>1009.517410298087</v>
+        <v>765.9290228547833</v>
       </c>
     </row>
     <row r="19">
@@ -874,16 +874,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4663.097273081418</v>
+        <v>4340.39088481501</v>
       </c>
       <c r="D19" t="n">
-        <v>2673.196078431372</v>
+        <v>2974.764705882353</v>
       </c>
       <c r="E19" t="n">
-        <v>6284</v>
+        <v>6103.629139072847</v>
       </c>
       <c r="F19" t="n">
-        <v>1073.936788217618</v>
+        <v>1049.241418752984</v>
       </c>
     </row>
     <row r="20">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4471.547093451067</v>
+        <v>4565.033620681897</v>
       </c>
       <c r="D20" t="n">
-        <v>2311.235294117647</v>
+        <v>3139.56862745098</v>
       </c>
       <c r="E20" t="n">
-        <v>6463.211920529801</v>
+        <v>6563.754966887417</v>
       </c>
       <c r="F20" t="n">
-        <v>1181.486837034431</v>
+        <v>1105.12758296823</v>
       </c>
     </row>
     <row r="21">
@@ -912,16 +912,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4315.574919377407</v>
+        <v>4367.161652144958</v>
       </c>
       <c r="D21" t="n">
-        <v>2851.196078431372</v>
+        <v>2993.803921568628</v>
       </c>
       <c r="E21" t="n">
-        <v>5847.046357615894</v>
+        <v>5847.476821192053</v>
       </c>
       <c r="F21" t="n">
-        <v>859.6553533852375</v>
+        <v>765.7449572081023</v>
       </c>
     </row>
     <row r="22">
@@ -931,16 +931,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2909.152260753929</v>
+        <v>4722.522416402139</v>
       </c>
       <c r="D22" t="n">
-        <v>2262.764705882353</v>
+        <v>2901.627450980392</v>
       </c>
       <c r="E22" t="n">
-        <v>3711.629139072847</v>
+        <v>7107.370860927153</v>
       </c>
       <c r="F22" t="n">
-        <v>346.1663808770354</v>
+        <v>1079.131268842919</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3167.993573377595</v>
+        <v>3194.202638721215</v>
       </c>
       <c r="D23" t="n">
-        <v>2243.392156862745</v>
+        <v>2420.098039215686</v>
       </c>
       <c r="E23" t="n">
-        <v>4252.019867549669</v>
+        <v>4064.165562913907</v>
       </c>
       <c r="F23" t="n">
-        <v>606.7976774295173</v>
+        <v>533.6180149224708</v>
       </c>
     </row>
     <row r="24">
@@ -972,16 +972,16 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>3463.201097581515</v>
+        <v>3452.665653982617</v>
       </c>
       <c r="D24" t="n">
-        <v>2503.294117647059</v>
+        <v>2701.039215686274</v>
       </c>
       <c r="E24" t="n">
-        <v>5109.198675496688</v>
+        <v>4661.966887417218</v>
       </c>
       <c r="F24" t="n">
-        <v>648.9343038618449</v>
+        <v>657.4235944256648</v>
       </c>
     </row>
     <row r="25">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3206.554901960784</v>
+        <v>3525.972549019608</v>
       </c>
       <c r="C25" t="n">
-        <v>5291.736423841059</v>
+        <v>4439.433663366337</v>
       </c>
       <c r="D25" t="n">
-        <v>5623.135099337748</v>
+        <v>5643.517880794702</v>
       </c>
     </row>
     <row r="26">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3493.368627450981</v>
+        <v>3636.450980392157</v>
       </c>
       <c r="C26" t="n">
-        <v>5449.88476821192</v>
+        <v>4126.776237623762</v>
       </c>
       <c r="D26" t="n">
-        <v>5458.046357615895</v>
+        <v>5339.222516556291</v>
       </c>
     </row>
     <row r="27">
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3328.017647058824</v>
+        <v>3356.776470588235</v>
       </c>
       <c r="C27" t="n">
-        <v>5398.697350993378</v>
+        <v>4133.352475247525</v>
       </c>
       <c r="D27" t="n">
-        <v>5262.576821192053</v>
+        <v>5531.043708609272</v>
       </c>
     </row>
     <row r="28">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3216.633333333333</v>
+        <v>3442.823529411765</v>
       </c>
       <c r="C29" t="n">
-        <v>4358.5</v>
+        <v>4619.645544554455</v>
       </c>
       <c r="D29" t="n">
-        <v>5839.507947019867</v>
+        <v>5632.63178807947</v>
       </c>
     </row>
     <row r="30">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3493.543137254902</v>
+        <v>3636.235294117647</v>
       </c>
       <c r="C30" t="n">
-        <v>4061.650495049505</v>
+        <v>4126.401980198019</v>
       </c>
       <c r="D30" t="n">
-        <v>5391.531125827814</v>
+        <v>5338.847682119205</v>
       </c>
     </row>
     <row r="31">
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2645.443137254902</v>
+        <v>3680.858823529412</v>
       </c>
       <c r="C31" t="n">
-        <v>2796.179207920792</v>
+        <v>4729.855445544555</v>
       </c>
       <c r="D31" t="n">
-        <v>3285.834437086093</v>
+        <v>5756.85298013245</v>
       </c>
     </row>
     <row r="32">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2550.03137254902</v>
+        <v>2606.564705882353</v>
       </c>
       <c r="C32" t="n">
-        <v>3010.99702970297</v>
+        <v>3122.950495049505</v>
       </c>
       <c r="D32" t="n">
-        <v>3942.952317880794</v>
+        <v>3853.092715231788</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -1118,34 +1118,34 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="n">
         <v>100</v>
@@ -1200,49 +1200,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2794.958823529412</v>
+        <v>2861.933333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>3364.370297029703</v>
+        <v>3196.584158415842</v>
       </c>
       <c r="D33" t="n">
-        <v>4230.274172185431</v>
+        <v>4299.479470198676</v>
       </c>
       <c r="E33" t="n">
-        <v>3335.235294117647</v>
+        <v>3354.588235294118</v>
       </c>
       <c r="F33" t="n">
-        <v>3595.196078431372</v>
+        <v>3131.921568627451</v>
       </c>
       <c r="G33" t="n">
-        <v>2601.176470588235</v>
+        <v>4402.306930693069</v>
       </c>
       <c r="H33" t="n">
-        <v>3137.235294117647</v>
+        <v>4723.504950495049</v>
       </c>
       <c r="I33" t="n">
-        <v>2721.352941176471</v>
+        <v>4355.425742574257</v>
       </c>
       <c r="J33" t="n">
-        <v>3708.941176470588</v>
+        <v>4212.049504950495</v>
       </c>
       <c r="K33" t="n">
-        <v>3239.039215686274</v>
+        <v>4503.881188118812</v>
       </c>
       <c r="L33" t="n">
-        <v>4409.291390728476</v>
+        <v>6425.973509933775</v>
       </c>
       <c r="M33" t="n">
-        <v>6039.086092715232</v>
+        <v>5938.966887417218</v>
       </c>
       <c r="N33" t="n">
-        <v>5560.920529801325</v>
+        <v>4666.794701986755</v>
       </c>
       <c r="O33" t="n">
-        <v>4912.562913907284</v>
+        <v>4899.834437086092</v>
       </c>
       <c r="P33" t="n">
-        <v>5963.403973509934</v>
+        <v>6286.019867549669</v>
       </c>
       <c r="Q33" t="n">
         <v>5564.615894039735</v>
@@ -1297,49 +1297,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3893.882352941177</v>
+        <v>3893.921568627451</v>
       </c>
       <c r="C34" t="n">
-        <v>2993.254901960785</v>
+        <v>2993.803921568628</v>
       </c>
       <c r="D34" t="n">
-        <v>3807.941176470588</v>
+        <v>3810.941176470588</v>
       </c>
       <c r="E34" t="n">
-        <v>3884.509803921569</v>
+        <v>3885.235294117647</v>
       </c>
       <c r="F34" t="n">
-        <v>3599.725490196078</v>
+        <v>3598.352941176471</v>
       </c>
       <c r="G34" t="n">
-        <v>3037.529411764706</v>
+        <v>4142.178217821782</v>
       </c>
       <c r="H34" t="n">
-        <v>2851.470588235294</v>
+        <v>4081.376237623762</v>
       </c>
       <c r="I34" t="n">
-        <v>3271.647058823529</v>
+        <v>4304.188118811881</v>
       </c>
       <c r="J34" t="n">
-        <v>3431.43137254902</v>
+        <v>4317.168316831683</v>
       </c>
       <c r="K34" t="n">
-        <v>4162.294117647059</v>
+        <v>3788.970297029703</v>
       </c>
       <c r="L34" t="n">
-        <v>6044.801324503312</v>
+        <v>5151.721854304636</v>
       </c>
       <c r="M34" t="n">
-        <v>6142.516556291391</v>
+        <v>5170.92715231788</v>
       </c>
       <c r="N34" t="n">
-        <v>5291.112582781457</v>
+        <v>5847.92715231788</v>
       </c>
       <c r="O34" t="n">
-        <v>5249.344370860927</v>
+        <v>5150.033112582782</v>
       </c>
       <c r="P34" t="n">
-        <v>4964.655629139073</v>
+        <v>5375.503311258278</v>
       </c>
       <c r="Q34" t="n">
         <v>5115.894039735099</v>
@@ -1394,49 +1394,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4857.745098039216</v>
+        <v>3872.843137254902</v>
       </c>
       <c r="C35" t="n">
-        <v>3262.980392156863</v>
+        <v>3519.941176470588</v>
       </c>
       <c r="D35" t="n">
-        <v>3486.294117647059</v>
+        <v>3208.137254901961</v>
       </c>
       <c r="E35" t="n">
-        <v>2869.588235294118</v>
+        <v>3208.196078431372</v>
       </c>
       <c r="F35" t="n">
-        <v>2967.980392156863</v>
+        <v>2974.764705882353</v>
       </c>
       <c r="G35" t="n">
-        <v>2722.941176470588</v>
+        <v>4001.108910891089</v>
       </c>
       <c r="H35" t="n">
-        <v>3716.21568627451</v>
+        <v>3824.128712871287</v>
       </c>
       <c r="I35" t="n">
-        <v>3215.921568627451</v>
+        <v>3110.732673267327</v>
       </c>
       <c r="J35" t="n">
-        <v>2673.196078431372</v>
+        <v>5059.504950495049</v>
       </c>
       <c r="K35" t="n">
-        <v>3507.313725490196</v>
+        <v>4671.287128712871</v>
       </c>
       <c r="L35" t="n">
-        <v>4515.940397350993</v>
+        <v>5816.23178807947</v>
       </c>
       <c r="M35" t="n">
-        <v>5859.761589403974</v>
+        <v>6103.629139072847</v>
       </c>
       <c r="N35" t="n">
-        <v>5119.516556291391</v>
+        <v>4459.17880794702</v>
       </c>
       <c r="O35" t="n">
-        <v>5364.006622516556</v>
+        <v>5679.87417218543</v>
       </c>
       <c r="P35" t="n">
-        <v>4995.629139072847</v>
+        <v>5596.304635761589</v>
       </c>
       <c r="Q35" t="n">
         <v>5046.165562913908</v>
@@ -1491,49 +1491,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2603.823529411765</v>
+        <v>2668.745098039215</v>
       </c>
       <c r="C36" t="n">
-        <v>2651.725490196078</v>
+        <v>2709.803921568628</v>
       </c>
       <c r="D36" t="n">
-        <v>2460.647058823529</v>
+        <v>2427.352941176471</v>
       </c>
       <c r="E36" t="n">
-        <v>2703.901960784314</v>
+        <v>2676</v>
       </c>
       <c r="F36" t="n">
-        <v>2596.686274509804</v>
+        <v>2706.705882352941</v>
       </c>
       <c r="G36" t="n">
-        <v>2234.607843137255</v>
+        <v>3081.70297029703</v>
       </c>
       <c r="H36" t="n">
-        <v>2278.333333333333</v>
+        <v>3213.29702970297</v>
       </c>
       <c r="I36" t="n">
-        <v>2766.823529411765</v>
+        <v>2824.405940594059</v>
       </c>
       <c r="J36" t="n">
-        <v>2558.333333333333</v>
+        <v>3243.80198019802</v>
       </c>
       <c r="K36" t="n">
-        <v>2592.862745098039</v>
+        <v>3061.683168316832</v>
       </c>
       <c r="L36" t="n">
-        <v>3715.754966887417</v>
+        <v>3913.112582781457</v>
       </c>
       <c r="M36" t="n">
-        <v>4132.350993377483</v>
+        <v>3357.079470198676</v>
       </c>
       <c r="N36" t="n">
-        <v>3878.721854304636</v>
+        <v>3868.675496688742</v>
       </c>
       <c r="O36" t="n">
-        <v>3923.152317880795</v>
+        <v>3702.072847682119</v>
       </c>
       <c r="P36" t="n">
-        <v>3925.185430463576</v>
+        <v>4070.867549668874</v>
       </c>
       <c r="Q36" t="n">
         <v>4014.496688741722</v>
@@ -1603,34 +1603,34 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="n">
         <v>100</v>
@@ -1685,49 +1685,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4179.019607843137</v>
+        <v>3139.56862745098</v>
       </c>
       <c r="C38" t="n">
-        <v>3050.627450980392</v>
+        <v>3303.960784313726</v>
       </c>
       <c r="D38" t="n">
-        <v>2984.196078431372</v>
+        <v>3706.372549019608</v>
       </c>
       <c r="E38" t="n">
-        <v>3276.901960784314</v>
+        <v>3205.78431372549</v>
       </c>
       <c r="F38" t="n">
-        <v>3558.823529411765</v>
+        <v>3858.43137254902</v>
       </c>
       <c r="G38" t="n">
-        <v>2311.235294117647</v>
+        <v>5825.40594059406</v>
       </c>
       <c r="H38" t="n">
-        <v>2714.196078431372</v>
+        <v>3768.811881188119</v>
       </c>
       <c r="I38" t="n">
-        <v>3463.352941176471</v>
+        <v>3513.504950495049</v>
       </c>
       <c r="J38" t="n">
-        <v>3280.156862745098</v>
+        <v>4773.752475247525</v>
       </c>
       <c r="K38" t="n">
-        <v>3347.823529411765</v>
+        <v>5216.752475247525</v>
       </c>
       <c r="L38" t="n">
-        <v>4815</v>
+        <v>6563.754966887417</v>
       </c>
       <c r="M38" t="n">
-        <v>3494.148514851485</v>
+        <v>4714.437086092716</v>
       </c>
       <c r="N38" t="n">
-        <v>4009.722772277228</v>
+        <v>5296.490066225166</v>
       </c>
       <c r="O38" t="n">
-        <v>5295.821782178218</v>
+        <v>5445.986754966887</v>
       </c>
       <c r="P38" t="n">
-        <v>4257.554455445545</v>
+        <v>6142.490066225166</v>
       </c>
       <c r="Q38" t="n">
         <v>4159.891089108911</v>
@@ -1782,49 +1782,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3894.313725490196</v>
+        <v>3893.862745098039</v>
       </c>
       <c r="C39" t="n">
-        <v>2994.862745098039</v>
+        <v>2993.803921568628</v>
       </c>
       <c r="D39" t="n">
-        <v>3808.705882352941</v>
+        <v>3808.450980392157</v>
       </c>
       <c r="E39" t="n">
-        <v>3884.803921568628</v>
+        <v>3884.941176470588</v>
       </c>
       <c r="F39" t="n">
-        <v>3599.43137254902</v>
+        <v>3600.117647058823</v>
       </c>
       <c r="G39" t="n">
-        <v>3037.549019607843</v>
+        <v>4141.950495049505</v>
       </c>
       <c r="H39" t="n">
-        <v>2851.196078431372</v>
+        <v>4083.039603960396</v>
       </c>
       <c r="I39" t="n">
-        <v>3271.058823529412</v>
+        <v>4302.663366336634</v>
       </c>
       <c r="J39" t="n">
-        <v>3431.803921568628</v>
+        <v>4315.089108910891</v>
       </c>
       <c r="K39" t="n">
-        <v>4161.705882352941</v>
+        <v>3789.267326732673</v>
       </c>
       <c r="L39" t="n">
-        <v>4142.475247524752</v>
+        <v>5150.841059602649</v>
       </c>
       <c r="M39" t="n">
-        <v>4083.118811881188</v>
+        <v>5169.576158940397</v>
       </c>
       <c r="N39" t="n">
-        <v>4304.445544554455</v>
+        <v>5847.476821192053</v>
       </c>
       <c r="O39" t="n">
-        <v>4317.237623762377</v>
+        <v>5151.364238410596</v>
       </c>
       <c r="P39" t="n">
-        <v>3789.415841584158</v>
+        <v>5374.980132450331</v>
       </c>
       <c r="Q39" t="n">
         <v>4155.524752475248</v>
@@ -1879,49 +1879,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2709.333333333333</v>
+        <v>3957.627450980392</v>
       </c>
       <c r="C40" t="n">
-        <v>2843.862745098039</v>
+        <v>4010.352941176471</v>
       </c>
       <c r="D40" t="n">
-        <v>2496.56862745098</v>
+        <v>2901.627450980392</v>
       </c>
       <c r="E40" t="n">
-        <v>2746.117647058823</v>
+        <v>4008.196078431372</v>
       </c>
       <c r="F40" t="n">
-        <v>2771.156862745098</v>
+        <v>3526.490196078431</v>
       </c>
       <c r="G40" t="n">
-        <v>2262.764705882353</v>
+        <v>5392.693069306931</v>
       </c>
       <c r="H40" t="n">
-        <v>2355.156862745098</v>
+        <v>4496.089108910891</v>
       </c>
       <c r="I40" t="n">
-        <v>2760.529411764706</v>
+        <v>4206.841584158416</v>
       </c>
       <c r="J40" t="n">
-        <v>2826.78431372549</v>
+        <v>4575.742574257426</v>
       </c>
       <c r="K40" t="n">
-        <v>2682.156862745098</v>
+        <v>4977.910891089109</v>
       </c>
       <c r="L40" t="n">
-        <v>2858.603960396039</v>
+        <v>6700.761589403974</v>
       </c>
       <c r="M40" t="n">
-        <v>2740.752475247525</v>
+        <v>4847.569536423841</v>
       </c>
       <c r="N40" t="n">
-        <v>2462.663366336634</v>
+        <v>7107.370860927153</v>
       </c>
       <c r="O40" t="n">
-        <v>3169.80198019802</v>
+        <v>4608.245033112583</v>
       </c>
       <c r="P40" t="n">
-        <v>2645.168316831683</v>
+        <v>5520.317880794702</v>
       </c>
       <c r="Q40" t="n">
         <v>3250.772277227723</v>
@@ -1976,49 +1976,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2654.666666666667</v>
+        <v>2617.235294117647</v>
       </c>
       <c r="C41" t="n">
-        <v>2642.196078431372</v>
+        <v>2629.745098039215</v>
       </c>
       <c r="D41" t="n">
-        <v>2407.333333333333</v>
+        <v>2420.098039215686</v>
       </c>
       <c r="E41" t="n">
-        <v>2713.470588235294</v>
+        <v>2692.78431372549</v>
       </c>
       <c r="F41" t="n">
-        <v>2618</v>
+        <v>2672.960784313726</v>
       </c>
       <c r="G41" t="n">
-        <v>2243.392156862745</v>
+        <v>3083.910891089109</v>
       </c>
       <c r="H41" t="n">
-        <v>2259.313725490196</v>
+        <v>3281.504950495049</v>
       </c>
       <c r="I41" t="n">
-        <v>2732.117647058823</v>
+        <v>2868.316831683168</v>
       </c>
       <c r="J41" t="n">
-        <v>2562.137254901961</v>
+        <v>3331.455445544555</v>
       </c>
       <c r="K41" t="n">
-        <v>2667.686274509804</v>
+        <v>3049.564356435644</v>
       </c>
       <c r="L41" t="n">
-        <v>2987.772277227723</v>
+        <v>3962.516556291391</v>
       </c>
       <c r="M41" t="n">
-        <v>2996.257425742574</v>
+        <v>3600.337748344371</v>
       </c>
       <c r="N41" t="n">
-        <v>2781.910891089109</v>
+        <v>4064.165562913907</v>
       </c>
       <c r="O41" t="n">
-        <v>3114.435643564356</v>
+        <v>3680.953642384106</v>
       </c>
       <c r="P41" t="n">
-        <v>2928.138613861386</v>
+        <v>3957.490066225166</v>
       </c>
       <c r="Q41" t="n">
         <v>3324.148514851485</v>
@@ -2073,49 +2073,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2836.156862745098</v>
+        <v>3001.627450980392</v>
       </c>
       <c r="C42" t="n">
-        <v>2991.549019607843</v>
+        <v>2813.274509803922</v>
       </c>
       <c r="D42" t="n">
-        <v>2549.529411764706</v>
+        <v>2701.039215686274</v>
       </c>
       <c r="E42" t="n">
-        <v>3038.156862745098</v>
+        <v>3018.411764705882</v>
       </c>
       <c r="F42" t="n">
-        <v>2826.117647058823</v>
+        <v>2775.313725490196</v>
       </c>
       <c r="G42" t="n">
-        <v>2503.294117647059</v>
+        <v>3198.524752475248</v>
       </c>
       <c r="H42" t="n">
-        <v>2808.529411764706</v>
+        <v>3478.90099009901</v>
       </c>
       <c r="I42" t="n">
-        <v>2725.450980392157</v>
+        <v>3039.128712871287</v>
       </c>
       <c r="J42" t="n">
-        <v>2742.156862745098</v>
+        <v>3306.950495049505</v>
       </c>
       <c r="K42" t="n">
-        <v>2928.647058823529</v>
+        <v>2959.415841584158</v>
       </c>
       <c r="L42" t="n">
-        <v>3561.079207920792</v>
+        <v>4533.728476821192</v>
       </c>
       <c r="M42" t="n">
-        <v>3298.792079207921</v>
+        <v>3802.569536423841</v>
       </c>
       <c r="N42" t="n">
-        <v>3494.811881188119</v>
+        <v>4508.456953642384</v>
       </c>
       <c r="O42" t="n">
-        <v>3614.217821782178</v>
+        <v>3990.675496688742</v>
       </c>
       <c r="P42" t="n">
-        <v>3054.128712871287</v>
+        <v>4661.966887417218</v>
       </c>
       <c r="Q42" t="n">
         <v>3432.722772277228</v>
@@ -2198,21 +2198,21 @@
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
+    <col width="19" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
+    <col width="19" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="19" customWidth="1" min="30" max="30"/>
+    <col width="19" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2257,16 +2257,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>18827491.33333333</v>
+        <v>19913908.5</v>
       </c>
       <c r="D2" t="n">
-        <v>16581765</v>
+        <v>18119000</v>
       </c>
       <c r="E2" t="n">
-        <v>22151180</v>
+        <v>22932855</v>
       </c>
       <c r="F2" t="n">
-        <v>1673905.278161306</v>
+        <v>1660560.821086291</v>
       </c>
     </row>
     <row r="3">
@@ -2279,16 +2279,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>24356747.08333333</v>
+        <v>24249285.5</v>
       </c>
       <c r="D3" t="n">
-        <v>20824455</v>
+        <v>22145252.5</v>
       </c>
       <c r="E3" t="n">
-        <v>29128237.5</v>
+        <v>28709685</v>
       </c>
       <c r="F3" t="n">
-        <v>2464206.122393688</v>
+        <v>2501710.535687399</v>
       </c>
     </row>
     <row r="4">
@@ -2301,16 +2301,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>29856924.08333333</v>
+        <v>28970760.5</v>
       </c>
       <c r="D4" t="n">
-        <v>26973859.16666667</v>
+        <v>25768129.16666667</v>
       </c>
       <c r="E4" t="n">
-        <v>33710869.16666666</v>
+        <v>32444649.16666667</v>
       </c>
       <c r="F4" t="n">
-        <v>2086314.29649918</v>
+        <v>2362581.170939401</v>
       </c>
     </row>
     <row r="5">
@@ -2323,16 +2323,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>21198161.5</v>
+        <v>21799296</v>
       </c>
       <c r="D5" t="n">
-        <v>18201619.16666667</v>
+        <v>20314301.66666667</v>
       </c>
       <c r="E5" t="n">
-        <v>23725265.83333333</v>
+        <v>23733665.83333333</v>
       </c>
       <c r="F5" t="n">
-        <v>1460048.729139468</v>
+        <v>1169541.295948662</v>
       </c>
     </row>
     <row r="6">
@@ -2345,16 +2345,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>24276878.75</v>
+        <v>24961279</v>
       </c>
       <c r="D6" t="n">
-        <v>21669291.66666667</v>
+        <v>21983050</v>
       </c>
       <c r="E6" t="n">
-        <v>27304551.66666667</v>
+        <v>27306231.66666667</v>
       </c>
       <c r="F6" t="n">
-        <v>1732415.139982301</v>
+        <v>2021055.553751375</v>
       </c>
     </row>
     <row r="7">
@@ -2367,16 +2367,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>27351799.25</v>
+        <v>26801430.16666666</v>
       </c>
       <c r="D7" t="n">
-        <v>24508780.83333333</v>
+        <v>24512380.83333333</v>
       </c>
       <c r="E7" t="n">
-        <v>30421253.33333333</v>
+        <v>30407573.33333333</v>
       </c>
       <c r="F7" t="n">
-        <v>1809036.762718494</v>
+        <v>2206930.071109048</v>
       </c>
     </row>
     <row r="8">
@@ -2389,16 +2389,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>10566920.91666667</v>
+        <v>20970825.5</v>
       </c>
       <c r="D8" t="n">
-        <v>7594880</v>
+        <v>17878541.66666667</v>
       </c>
       <c r="E8" t="n">
-        <v>13750229.16666667</v>
+        <v>23058865.83333333</v>
       </c>
       <c r="F8" t="n">
-        <v>1957989.665987102</v>
+        <v>1734972.895888562</v>
       </c>
     </row>
     <row r="9">
@@ -2411,16 +2411,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>14299924.25</v>
+        <v>23130489</v>
       </c>
       <c r="D9" t="n">
-        <v>12576981.66666667</v>
+        <v>22067302.5</v>
       </c>
       <c r="E9" t="n">
-        <v>16606029.16666667</v>
+        <v>25157131.66666667</v>
       </c>
       <c r="F9" t="n">
-        <v>1062066.288836062</v>
+        <v>1098918.364897629</v>
       </c>
     </row>
     <row r="10">
@@ -2433,16 +2433,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>17702347.91666666</v>
+        <v>28735527.83333334</v>
       </c>
       <c r="D10" t="n">
-        <v>16131912.5</v>
+        <v>24635450.83333334</v>
       </c>
       <c r="E10" t="n">
-        <v>19488150</v>
+        <v>34214065.83333334</v>
       </c>
       <c r="F10" t="n">
-        <v>1096394.060093844</v>
+        <v>4043918.300758513</v>
       </c>
     </row>
     <row r="11">
@@ -2455,16 +2455,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>18220303.91666667</v>
+        <v>18076894.5</v>
       </c>
       <c r="D11" t="n">
-        <v>15321888.33333333</v>
+        <v>17323810</v>
       </c>
       <c r="E11" t="n">
-        <v>21393285.83333333</v>
+        <v>19191667.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1880752.411911366</v>
+        <v>662729.2062471251</v>
       </c>
     </row>
     <row r="12">
@@ -2477,16 +2477,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>20875749.08333333</v>
+        <v>20822905</v>
       </c>
       <c r="D12" t="n">
-        <v>18707926.66666666</v>
+        <v>19117875</v>
       </c>
       <c r="E12" t="n">
-        <v>22985769.16666667</v>
+        <v>22735773.33333333</v>
       </c>
       <c r="F12" t="n">
-        <v>1315920.203430826</v>
+        <v>1293945.061654151</v>
       </c>
     </row>
     <row r="13">
@@ -2499,16 +2499,16 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>25000707.08333333</v>
+        <v>24070694</v>
       </c>
       <c r="D13" t="n">
-        <v>22339360</v>
+        <v>22772940.83333333</v>
       </c>
       <c r="E13" t="n">
-        <v>27513268.33333333</v>
+        <v>25282975.83333334</v>
       </c>
       <c r="F13" t="n">
-        <v>1649912.537873146</v>
+        <v>1013131.222983617</v>
       </c>
     </row>
     <row r="14">
@@ -2521,16 +2521,16 @@
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>13878079</v>
+        <v>14482067.66666667</v>
       </c>
       <c r="D14" t="n">
-        <v>12237305</v>
+        <v>13181080.83333333</v>
       </c>
       <c r="E14" t="n">
-        <v>15539049.16666667</v>
+        <v>15696720.83333333</v>
       </c>
       <c r="F14" t="n">
-        <v>953583.5024166593</v>
+        <v>1014716.764110722</v>
       </c>
     </row>
     <row r="15">
@@ -2543,16 +2543,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>17960182</v>
+        <v>17682911.83333334</v>
       </c>
       <c r="D15" t="n">
-        <v>16824038.33333333</v>
+        <v>16338003.33333333</v>
       </c>
       <c r="E15" t="n">
-        <v>19302631.66666667</v>
+        <v>18937993.33333334</v>
       </c>
       <c r="F15" t="n">
-        <v>655542.840999415</v>
+        <v>992702.7071790776</v>
       </c>
     </row>
     <row r="16">
@@ -2565,16 +2565,16 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>21822422.16666666</v>
+        <v>21374378.33333333</v>
       </c>
       <c r="D16" t="n">
-        <v>19598454.16666667</v>
+        <v>19750294.16666667</v>
       </c>
       <c r="E16" t="n">
-        <v>23179067.5</v>
+        <v>22349342.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1100989.526863991</v>
+        <v>886766.8169792745</v>
       </c>
     </row>
     <row r="17">
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25029684.08333333</v>
+        <v>24326432.05555556</v>
       </c>
       <c r="D17" t="n">
-        <v>16060487.5</v>
+        <v>17260078.33333333</v>
       </c>
       <c r="E17" t="n">
-        <v>31816390</v>
+        <v>31501785</v>
       </c>
       <c r="F17" t="n">
-        <v>4636626.374824413</v>
+        <v>3651794.670636717</v>
       </c>
     </row>
     <row r="18">
@@ -2603,16 +2603,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25983825.02777778</v>
+        <v>24519564.38888889</v>
       </c>
       <c r="D18" t="n">
-        <v>18226099.16666667</v>
+        <v>20321741.66666667</v>
       </c>
       <c r="E18" t="n">
-        <v>31965899.16666666</v>
+        <v>30417893.33333333</v>
       </c>
       <c r="F18" t="n">
-        <v>3885898.106957061</v>
+        <v>2778934.800216713</v>
       </c>
     </row>
     <row r="19">
@@ -2622,16 +2622,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25427733.33333333</v>
+        <v>23707567.61111111</v>
       </c>
       <c r="D19" t="n">
-        <v>15549185.83333333</v>
+        <v>17561324.16666667</v>
       </c>
       <c r="E19" t="n">
-        <v>31155718.33333333</v>
+        <v>30001822.5</v>
       </c>
       <c r="F19" t="n">
-        <v>4799284.062188806</v>
+        <v>3588196.63937012</v>
       </c>
     </row>
     <row r="20">
@@ -2641,16 +2641,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24347054.16666667</v>
+        <v>24377984.83333333</v>
       </c>
       <c r="D20" t="n">
-        <v>16581765</v>
+        <v>18119000</v>
       </c>
       <c r="E20" t="n">
-        <v>33710869.16666666</v>
+        <v>32444649.16666667</v>
       </c>
       <c r="F20" t="n">
-        <v>4968276.440242707</v>
+        <v>4306426.86329499</v>
       </c>
     </row>
     <row r="21">
@@ -2660,16 +2660,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24275613.16666667</v>
+        <v>24520668.38888889</v>
       </c>
       <c r="D21" t="n">
-        <v>18201619.16666667</v>
+        <v>20314301.66666667</v>
       </c>
       <c r="E21" t="n">
-        <v>30421253.33333333</v>
+        <v>30407573.33333333</v>
       </c>
       <c r="F21" t="n">
-        <v>3018788.371694454</v>
+        <v>2776383.283437076</v>
       </c>
     </row>
     <row r="22">
@@ -2679,16 +2679,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14189731.02777778</v>
+        <v>24278947.44444444</v>
       </c>
       <c r="D22" t="n">
-        <v>7594880</v>
+        <v>17878541.66666667</v>
       </c>
       <c r="E22" t="n">
-        <v>19488150</v>
+        <v>34214065.83333334</v>
       </c>
       <c r="F22" t="n">
-        <v>3247520.147461415</v>
+        <v>4191052.537090037</v>
       </c>
     </row>
     <row r="23">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21365586.69444444</v>
+        <v>20990164.5</v>
       </c>
       <c r="D23" t="n">
-        <v>15321888.33333333</v>
+        <v>17323810</v>
       </c>
       <c r="E23" t="n">
-        <v>27513268.33333333</v>
+        <v>25282975.83333334</v>
       </c>
       <c r="F23" t="n">
-        <v>3232023.714769592</v>
+        <v>2654852.069449877</v>
       </c>
     </row>
     <row r="24">
@@ -2720,16 +2720,16 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>17886894.38888889</v>
+        <v>17846452.61111111</v>
       </c>
       <c r="D24" t="n">
-        <v>12237305</v>
+        <v>13181080.83333333</v>
       </c>
       <c r="E24" t="n">
-        <v>23179067.5</v>
+        <v>22349342.5</v>
       </c>
       <c r="F24" t="n">
-        <v>3372219.182107742</v>
+        <v>2977334.137883606</v>
       </c>
     </row>
     <row r="25">
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19128197.08333333</v>
+        <v>20218206</v>
       </c>
       <c r="C25" t="n">
-        <v>27354031.75</v>
+        <v>24616868</v>
       </c>
       <c r="D25" t="n">
-        <v>28606823.41666667</v>
+        <v>28144222.16666666</v>
       </c>
     </row>
     <row r="26">
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21200345.5</v>
+        <v>21792432</v>
       </c>
       <c r="C26" t="n">
-        <v>28145305.58333333</v>
+        <v>24964831</v>
       </c>
       <c r="D26" t="n">
-        <v>28605824</v>
+        <v>26801430.16666666</v>
       </c>
     </row>
     <row r="27">
@@ -2771,13 +2771,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19253866.08333333</v>
+        <v>20084419.16666667</v>
       </c>
       <c r="C27" t="n">
-        <v>28070310.83333333</v>
+        <v>23516506.33333333</v>
       </c>
       <c r="D27" t="n">
-        <v>28959023.08333333</v>
+        <v>27521777.33333333</v>
       </c>
     </row>
     <row r="28">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18827491.33333333</v>
+        <v>19913908.5</v>
       </c>
       <c r="C29" t="n">
-        <v>24356747.08333333</v>
+        <v>24249285.5</v>
       </c>
       <c r="D29" t="n">
-        <v>29856924.08333333</v>
+        <v>28970760.5</v>
       </c>
     </row>
     <row r="30">
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21198161.5</v>
+        <v>21799296</v>
       </c>
       <c r="C30" t="n">
-        <v>24276878.75</v>
+        <v>24961279</v>
       </c>
       <c r="D30" t="n">
-        <v>27351799.25</v>
+        <v>26801430.16666666</v>
       </c>
     </row>
     <row r="31">
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10566920.91666667</v>
+        <v>20970825.5</v>
       </c>
       <c r="C31" t="n">
-        <v>14299924.25</v>
+        <v>23130489</v>
       </c>
       <c r="D31" t="n">
-        <v>17702347.91666666</v>
+        <v>28735527.83333334</v>
       </c>
     </row>
     <row r="32">
@@ -2851,13 +2851,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18220303.91666667</v>
+        <v>18076894.5</v>
       </c>
       <c r="C32" t="n">
-        <v>20875749.08333333</v>
+        <v>20822905</v>
       </c>
       <c r="D32" t="n">
-        <v>25000707.08333333</v>
+        <v>24070694</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -2866,34 +2866,34 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="n">
         <v>100</v>
@@ -2948,49 +2948,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13878079</v>
+        <v>14482067.66666667</v>
       </c>
       <c r="C33" t="n">
-        <v>17960182</v>
+        <v>17682911.83333334</v>
       </c>
       <c r="D33" t="n">
-        <v>21822422.16666666</v>
+        <v>21374378.33333333</v>
       </c>
       <c r="E33" t="n">
-        <v>22238655</v>
+        <v>20630935.83333333</v>
       </c>
       <c r="F33" t="n">
-        <v>19799599.16666667</v>
+        <v>17260078.33333333</v>
       </c>
       <c r="G33" t="n">
-        <v>18829975</v>
+        <v>26624279.16666667</v>
       </c>
       <c r="H33" t="n">
-        <v>18360768.33333333</v>
+        <v>26151679.16666667</v>
       </c>
       <c r="I33" t="n">
-        <v>16434695.83333333</v>
+        <v>24080990</v>
       </c>
       <c r="J33" t="n">
-        <v>19581338.33333333</v>
+        <v>22711980</v>
       </c>
       <c r="K33" t="n">
-        <v>16060487.5</v>
+        <v>23515411.66666666</v>
       </c>
       <c r="L33" t="n">
-        <v>24475992.5</v>
+        <v>31501785</v>
       </c>
       <c r="M33" t="n">
-        <v>28996985.83333333</v>
+        <v>26583480</v>
       </c>
       <c r="N33" t="n">
-        <v>26768696.66666667</v>
+        <v>26500306.66666666</v>
       </c>
       <c r="O33" t="n">
-        <v>26705624.16666667</v>
+        <v>27443723.33333333</v>
       </c>
       <c r="P33" t="n">
-        <v>29631395</v>
+        <v>28691815.83333333</v>
       </c>
       <c r="Q33" t="n">
         <v>29011824.16666667</v>
@@ -3045,49 +3045,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20315501.66666667</v>
+        <v>20321741.66666667</v>
       </c>
       <c r="C34" t="n">
-        <v>22357678.33333333</v>
+        <v>22361518.33333333</v>
       </c>
       <c r="D34" t="n">
-        <v>23718065.83333333</v>
+        <v>23722625.83333333</v>
       </c>
       <c r="E34" t="n">
-        <v>21117938.33333333</v>
+        <v>21092738.33333333</v>
       </c>
       <c r="F34" t="n">
-        <v>21487295.83333333</v>
+        <v>21463535.83333333</v>
       </c>
       <c r="G34" t="n">
-        <v>20055452.5</v>
+        <v>27089955</v>
       </c>
       <c r="H34" t="n">
-        <v>18226099.16666667</v>
+        <v>24622412.5</v>
       </c>
       <c r="I34" t="n">
-        <v>20453510</v>
+        <v>23805465.83333334</v>
       </c>
       <c r="J34" t="n">
-        <v>22352150.83333333</v>
+        <v>27314871.66666667</v>
       </c>
       <c r="K34" t="n">
-        <v>21919762.5</v>
+        <v>21991450</v>
       </c>
       <c r="L34" t="n">
-        <v>30890263.33333333</v>
+        <v>30417893.33333333</v>
       </c>
       <c r="M34" t="n">
-        <v>28277155</v>
+        <v>24602137.5</v>
       </c>
       <c r="N34" t="n">
-        <v>26189434.16666666</v>
+        <v>27926514.16666666</v>
       </c>
       <c r="O34" t="n">
-        <v>26986392.5</v>
+        <v>26545345</v>
       </c>
       <c r="P34" t="n">
-        <v>23968279.16666667</v>
+        <v>24515260.83333333</v>
       </c>
       <c r="Q34" t="n">
         <v>28548864.16666666</v>
@@ -3142,49 +3142,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18889235</v>
+        <v>17561324.16666667</v>
       </c>
       <c r="C35" t="n">
-        <v>19557104.16666667</v>
+        <v>19585276.66666667</v>
       </c>
       <c r="D35" t="n">
-        <v>22583518.33333333</v>
+        <v>23228833.33333333</v>
       </c>
       <c r="E35" t="n">
-        <v>21570188.33333333</v>
+        <v>18776628.33333333</v>
       </c>
       <c r="F35" t="n">
-        <v>21558084.16666667</v>
+        <v>21270033.33333333</v>
       </c>
       <c r="G35" t="n">
-        <v>16974537.5</v>
+        <v>24057641.66666667</v>
       </c>
       <c r="H35" t="n">
-        <v>19623081.66666667</v>
+        <v>24524440.83333333</v>
       </c>
       <c r="I35" t="n">
-        <v>16564775</v>
+        <v>20588175</v>
       </c>
       <c r="J35" t="n">
-        <v>15549185.83333333</v>
+        <v>25287360</v>
       </c>
       <c r="K35" t="n">
-        <v>19668950.83333333</v>
+        <v>23124914.16666667</v>
       </c>
       <c r="L35" t="n">
-        <v>25339089.16666667</v>
+        <v>30001822.5</v>
       </c>
       <c r="M35" t="n">
-        <v>28367654.16666666</v>
+        <v>29356724.16666666</v>
       </c>
       <c r="N35" t="n">
-        <v>27033725.83333333</v>
+        <v>24720827.5</v>
       </c>
       <c r="O35" t="n">
-        <v>28182506.66666667</v>
+        <v>28042845.83333333</v>
       </c>
       <c r="P35" t="n">
-        <v>25371844.16666667</v>
+        <v>25486666.66666666</v>
       </c>
       <c r="Q35" t="n">
         <v>30144360</v>
@@ -3239,49 +3239,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13781231.66666667</v>
+        <v>13711671.66666667</v>
       </c>
       <c r="C36" t="n">
-        <v>19998415</v>
+        <v>17433718.33333333</v>
       </c>
       <c r="D36" t="n">
-        <v>17078060</v>
+        <v>20172918.33333333</v>
       </c>
       <c r="E36" t="n">
-        <v>20199225.83333333</v>
+        <v>21313875.83333333</v>
       </c>
       <c r="F36" t="n">
-        <v>20568985.83333333</v>
+        <v>14907415</v>
       </c>
       <c r="G36" t="n">
-        <v>16717155</v>
+        <v>20086712.5</v>
       </c>
       <c r="H36" t="n">
-        <v>15720263.33333333</v>
+        <v>20332418.33333334</v>
       </c>
       <c r="I36" t="n">
-        <v>18327260.83333333</v>
+        <v>20530001.66666666</v>
       </c>
       <c r="J36" t="n">
-        <v>15815682.5</v>
+        <v>17698281.66666667</v>
       </c>
       <c r="K36" t="n">
-        <v>16552378.33333333</v>
+        <v>19172101.66666666</v>
       </c>
       <c r="L36" t="n">
-        <v>23332364.16666666</v>
+        <v>25781925.83333334</v>
       </c>
       <c r="M36" t="n">
-        <v>23193980.83333333</v>
+        <v>25045525.83333334</v>
       </c>
       <c r="N36" t="n">
-        <v>21271465.83333333</v>
+        <v>27323811.66666667</v>
       </c>
       <c r="O36" t="n">
-        <v>23421793.33333333</v>
+        <v>25709504.16666667</v>
       </c>
       <c r="P36" t="n">
-        <v>24094330</v>
+        <v>26116599.16666667</v>
       </c>
       <c r="Q36" t="n">
         <v>27163661.66666667</v>
@@ -3351,34 +3351,34 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="n">
         <v>100</v>
@@ -3433,49 +3433,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19166510</v>
+        <v>18765665.83333333</v>
       </c>
       <c r="C38" t="n">
-        <v>19123356.66666667</v>
+        <v>20131200</v>
       </c>
       <c r="D38" t="n">
-        <v>19496294.16666667</v>
+        <v>19620821.66666667</v>
       </c>
       <c r="E38" t="n">
-        <v>20710120.83333333</v>
+        <v>18119000</v>
       </c>
       <c r="F38" t="n">
-        <v>22151180</v>
+        <v>22932855</v>
       </c>
       <c r="G38" t="n">
-        <v>18471280</v>
+        <v>28709685</v>
       </c>
       <c r="H38" t="n">
-        <v>17206958.33333333</v>
+        <v>22617771.66666666</v>
       </c>
       <c r="I38" t="n">
-        <v>16581765</v>
+        <v>22145252.5</v>
       </c>
       <c r="J38" t="n">
-        <v>16596085.83333333</v>
+        <v>22464516.66666667</v>
       </c>
       <c r="K38" t="n">
-        <v>18771362.5</v>
+        <v>25309201.66666666</v>
       </c>
       <c r="L38" t="n">
-        <v>29128237.5</v>
+        <v>32444649.16666667</v>
       </c>
       <c r="M38" t="n">
-        <v>23013043.33333333</v>
+        <v>25768129.16666667</v>
       </c>
       <c r="N38" t="n">
-        <v>21171821.66666667</v>
+        <v>29494413.33333333</v>
       </c>
       <c r="O38" t="n">
-        <v>26634720</v>
+        <v>26993108.33333333</v>
       </c>
       <c r="P38" t="n">
-        <v>22159945</v>
+        <v>30153502.5</v>
       </c>
       <c r="Q38" t="n">
         <v>24935563.33333334</v>
@@ -3530,49 +3530,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20314061.66666667</v>
+        <v>20314301.66666667</v>
       </c>
       <c r="C39" t="n">
-        <v>22374958.33333333</v>
+        <v>22361038.33333333</v>
       </c>
       <c r="D39" t="n">
-        <v>23725265.83333333</v>
+        <v>23733665.83333333</v>
       </c>
       <c r="E39" t="n">
-        <v>21109538.33333333</v>
+        <v>21112898.33333333</v>
       </c>
       <c r="F39" t="n">
-        <v>21485615.83333333</v>
+        <v>21474575.83333333</v>
       </c>
       <c r="G39" t="n">
-        <v>20049692.5</v>
+        <v>27103875</v>
       </c>
       <c r="H39" t="n">
-        <v>18201619.16666667</v>
+        <v>24609692.5</v>
       </c>
       <c r="I39" t="n">
-        <v>20460950</v>
+        <v>23803545.83333334</v>
       </c>
       <c r="J39" t="n">
-        <v>22349030.83333333</v>
+        <v>27306231.66666667</v>
       </c>
       <c r="K39" t="n">
-        <v>21910882.5</v>
+        <v>21983050</v>
       </c>
       <c r="L39" t="n">
-        <v>27100275</v>
+        <v>30407573.33333333</v>
       </c>
       <c r="M39" t="n">
-        <v>24618092.5</v>
+        <v>24613897.5</v>
       </c>
       <c r="N39" t="n">
-        <v>23804745.83333334</v>
+        <v>27923874.16666666</v>
       </c>
       <c r="O39" t="n">
-        <v>27304551.66666667</v>
+        <v>26549425</v>
       </c>
       <c r="P39" t="n">
-        <v>21990010</v>
+        <v>24512380.83333333</v>
       </c>
       <c r="Q39" t="n">
         <v>23925330.83333333</v>
@@ -3627,49 +3627,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9385631.666666666</v>
+        <v>17878541.66666667</v>
       </c>
       <c r="C40" t="n">
-        <v>13750229.16666667</v>
+        <v>21930371.66666667</v>
       </c>
       <c r="D40" t="n">
-        <v>11686651.66666667</v>
+        <v>23058865.83333333</v>
       </c>
       <c r="E40" t="n">
-        <v>12311493.33333333</v>
+        <v>21314729.16666667</v>
       </c>
       <c r="F40" t="n">
-        <v>9504926.666666666</v>
+        <v>20671619.16666667</v>
       </c>
       <c r="G40" t="n">
-        <v>11566382.5</v>
+        <v>25157131.66666667</v>
       </c>
       <c r="H40" t="n">
-        <v>7594880</v>
+        <v>23378175</v>
       </c>
       <c r="I40" t="n">
-        <v>8973987.5</v>
+        <v>22578213.33333334</v>
       </c>
       <c r="J40" t="n">
-        <v>12567097.5</v>
+        <v>22067302.5</v>
       </c>
       <c r="K40" t="n">
-        <v>8327929.166666667</v>
+        <v>22471622.5</v>
       </c>
       <c r="L40" t="n">
-        <v>13885529.16666667</v>
+        <v>34214065.83333334</v>
       </c>
       <c r="M40" t="n">
-        <v>13924150.83333333</v>
+        <v>24635450.83333334</v>
       </c>
       <c r="N40" t="n">
-        <v>14471957.5</v>
+        <v>32940598.33333334</v>
       </c>
       <c r="O40" t="n">
-        <v>15523018.33333333</v>
+        <v>26857774.16666666</v>
       </c>
       <c r="P40" t="n">
-        <v>14345800</v>
+        <v>25029750</v>
       </c>
       <c r="Q40" t="n">
         <v>16606029.16666667</v>
@@ -3724,49 +3724,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15321888.33333333</v>
+        <v>17701208.33333333</v>
       </c>
       <c r="C41" t="n">
-        <v>18065758.33333333</v>
+        <v>17323810</v>
       </c>
       <c r="D41" t="n">
-        <v>21393285.83333333</v>
+        <v>19191667.5</v>
       </c>
       <c r="E41" t="n">
-        <v>19701988.33333333</v>
+        <v>17733924.16666667</v>
       </c>
       <c r="F41" t="n">
-        <v>20280596.66666667</v>
+        <v>18433862.5</v>
       </c>
       <c r="G41" t="n">
-        <v>16607810.83333333</v>
+        <v>22735773.33333333</v>
       </c>
       <c r="H41" t="n">
-        <v>16441880</v>
+        <v>20290825.83333334</v>
       </c>
       <c r="I41" t="n">
-        <v>17372971.66666667</v>
+        <v>20127820</v>
       </c>
       <c r="J41" t="n">
-        <v>17131356.66666667</v>
+        <v>21842230.83333333</v>
       </c>
       <c r="K41" t="n">
-        <v>19885502.5</v>
+        <v>19117875</v>
       </c>
       <c r="L41" t="n">
-        <v>22985769.16666667</v>
+        <v>25282975.83333334</v>
       </c>
       <c r="M41" t="n">
-        <v>22318398.33333334</v>
+        <v>22983511.66666667</v>
       </c>
       <c r="N41" t="n">
-        <v>20642385.83333333</v>
+        <v>24890323.33333333</v>
       </c>
       <c r="O41" t="n">
-        <v>20805856.66666667</v>
+        <v>22772940.83333333</v>
       </c>
       <c r="P41" t="n">
-        <v>19448370.83333333</v>
+        <v>24423718.33333333</v>
       </c>
       <c r="Q41" t="n">
         <v>22390036.66666666</v>
@@ -3821,49 +3821,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13443917.5</v>
+        <v>13181080.83333333</v>
       </c>
       <c r="C42" t="n">
-        <v>15539049.16666667</v>
+        <v>15064853.33333333</v>
       </c>
       <c r="D42" t="n">
-        <v>14148861.66666667</v>
+        <v>15104884.16666667</v>
       </c>
       <c r="E42" t="n">
-        <v>14780173.33333333</v>
+        <v>15696720.83333333</v>
       </c>
       <c r="F42" t="n">
-        <v>13952204.16666667</v>
+        <v>13362799.16666667</v>
       </c>
       <c r="G42" t="n">
-        <v>13876571.66666667</v>
+        <v>18234036.66666667</v>
       </c>
       <c r="H42" t="n">
-        <v>12644046.66666667</v>
+        <v>18937993.33333334</v>
       </c>
       <c r="I42" t="n">
-        <v>12237305</v>
+        <v>16699551.66666667</v>
       </c>
       <c r="J42" t="n">
-        <v>14771184.16666667</v>
+        <v>18204974.16666667</v>
       </c>
       <c r="K42" t="n">
-        <v>13387476.66666667</v>
+        <v>16338003.33333333</v>
       </c>
       <c r="L42" t="n">
-        <v>18355331.66666667</v>
+        <v>22349342.5</v>
       </c>
       <c r="M42" t="n">
-        <v>19302631.66666667</v>
+        <v>19750294.16666667</v>
       </c>
       <c r="N42" t="n">
-        <v>17176003.33333333</v>
+        <v>21320557.5</v>
       </c>
       <c r="O42" t="n">
-        <v>18249295</v>
+        <v>21942196.66666666</v>
       </c>
       <c r="P42" t="n">
-        <v>17663957.5</v>
+        <v>21509500.83333333</v>
       </c>
       <c r="Q42" t="n">
         <v>18397195</v>
@@ -3936,14 +3936,14 @@
     <col width="10" customWidth="1" min="4" max="5"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
@@ -4005,16 +4005,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>73333.3</v>
+        <v>77890.60000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>63947</v>
+        <v>70071</v>
       </c>
       <c r="E2" t="n">
-        <v>86899</v>
+        <v>90311</v>
       </c>
       <c r="F2" t="n">
-        <v>6909.877264467148</v>
+        <v>7094.15000123341</v>
       </c>
     </row>
     <row r="3">
@@ -4027,16 +4027,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>90644.5</v>
+        <v>89787</v>
       </c>
       <c r="D3" t="n">
-        <v>76706</v>
+        <v>81361</v>
       </c>
       <c r="E3" t="n">
-        <v>110317</v>
+        <v>106817</v>
       </c>
       <c r="F3" t="n">
-        <v>9924.575570269995</v>
+        <v>9456.502376671831</v>
       </c>
     </row>
     <row r="4">
@@ -4049,16 +4049,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>108390.1</v>
+        <v>104959.4</v>
       </c>
       <c r="D4" t="n">
-        <v>97606</v>
+        <v>92805</v>
       </c>
       <c r="E4" t="n">
-        <v>123712</v>
+        <v>118026</v>
       </c>
       <c r="F4" t="n">
-        <v>8261.956383932318</v>
+        <v>8984.985867545925</v>
       </c>
     </row>
     <row r="5">
@@ -4071,16 +4071,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>82521.60000000001</v>
+        <v>84913.2</v>
       </c>
       <c r="D5" t="n">
-        <v>70548</v>
+        <v>78724</v>
       </c>
       <c r="E5" t="n">
-        <v>93409</v>
+        <v>93444</v>
       </c>
       <c r="F5" t="n">
-        <v>5990.640787094482</v>
+        <v>5044.536664551067</v>
       </c>
     </row>
     <row r="6">
@@ -4093,16 +4093,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>90315</v>
+        <v>93012.8</v>
       </c>
       <c r="D6" t="n">
-        <v>79581</v>
+        <v>80931</v>
       </c>
       <c r="E6" t="n">
-        <v>101964</v>
+        <v>101979</v>
       </c>
       <c r="F6" t="n">
-        <v>6975.47697293884</v>
+        <v>8064.861893423842</v>
       </c>
     </row>
     <row r="7">
@@ -4115,16 +4115,16 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>97976.5</v>
+        <v>95799.2</v>
       </c>
       <c r="D7" t="n">
-        <v>86259</v>
+        <v>86274</v>
       </c>
       <c r="E7" t="n">
-        <v>110621</v>
+        <v>110564</v>
       </c>
       <c r="F7" t="n">
-        <v>7199.170302889076</v>
+        <v>8823.652518090226</v>
       </c>
     </row>
     <row r="8">
@@ -4137,16 +4137,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>42027.3</v>
+        <v>81517.2</v>
       </c>
       <c r="D8" t="n">
-        <v>30075</v>
+        <v>68434</v>
       </c>
       <c r="E8" t="n">
-        <v>55349</v>
+        <v>91198</v>
       </c>
       <c r="F8" t="n">
-        <v>7999.479758709313</v>
+        <v>7566.986597054339</v>
       </c>
     </row>
     <row r="9">
@@ -4159,16 +4159,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>54407.6</v>
+        <v>85539</v>
       </c>
       <c r="D9" t="n">
-        <v>46603</v>
+        <v>80173</v>
       </c>
       <c r="E9" t="n">
-        <v>62539</v>
+        <v>93497</v>
       </c>
       <c r="F9" t="n">
-        <v>4004.776777799232</v>
+        <v>4646.891563185007</v>
       </c>
     </row>
     <row r="10">
@@ -4181,16 +4181,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>64746.4</v>
+        <v>104186.6</v>
       </c>
       <c r="D10" t="n">
-        <v>58836</v>
+        <v>89059</v>
       </c>
       <c r="E10" t="n">
-        <v>72321</v>
+        <v>125680</v>
       </c>
       <c r="F10" t="n">
-        <v>4167.844171751146</v>
+        <v>15132.56084871295</v>
       </c>
     </row>
     <row r="11">
@@ -4203,16 +4203,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>71585.89999999999</v>
+        <v>70958.8</v>
       </c>
       <c r="D11" t="n">
-        <v>59466</v>
+        <v>67606</v>
       </c>
       <c r="E11" t="n">
-        <v>84743</v>
+        <v>76317</v>
       </c>
       <c r="F11" t="n">
-        <v>7701.185083479036</v>
+        <v>3050.810279253693</v>
       </c>
     </row>
     <row r="12">
@@ -4225,16 +4225,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>78496.7</v>
+        <v>78029.8</v>
       </c>
       <c r="D12" t="n">
-        <v>70448</v>
+        <v>70731</v>
       </c>
       <c r="E12" t="n">
-        <v>87502</v>
+        <v>86062</v>
       </c>
       <c r="F12" t="n">
-        <v>5134.255993812541</v>
+        <v>5163.753727667499</v>
       </c>
     </row>
     <row r="13">
@@ -4247,16 +4247,16 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>90712.5</v>
+        <v>87614</v>
       </c>
       <c r="D13" t="n">
-        <v>79809</v>
+        <v>82759</v>
       </c>
       <c r="E13" t="n">
-        <v>100873</v>
+        <v>92749</v>
       </c>
       <c r="F13" t="n">
-        <v>6955.572891574065</v>
+        <v>3640.035933888565</v>
       </c>
     </row>
     <row r="14">
@@ -4269,16 +4269,16 @@
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>53984.5</v>
+        <v>56184.2</v>
       </c>
       <c r="D14" t="n">
-        <v>46601</v>
+        <v>50811</v>
       </c>
       <c r="E14" t="n">
-        <v>61365</v>
+        <v>60437</v>
       </c>
       <c r="F14" t="n">
-        <v>4277.684987233165</v>
+        <v>4062.904694919633</v>
       </c>
     </row>
     <row r="15">
@@ -4291,16 +4291,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>66333.8</v>
+        <v>65379.4</v>
       </c>
       <c r="D15" t="n">
-        <v>60989</v>
+        <v>60686</v>
       </c>
       <c r="E15" t="n">
-        <v>72020</v>
+        <v>71006</v>
       </c>
       <c r="F15" t="n">
-        <v>2886.853712954642</v>
+        <v>3941.838180341755</v>
       </c>
     </row>
     <row r="16">
@@ -4313,16 +4313,16 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>77904.10000000001</v>
+        <v>76337.60000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>69749</v>
+        <v>70727</v>
       </c>
       <c r="E16" t="n">
-        <v>84394</v>
+        <v>79880</v>
       </c>
       <c r="F16" t="n">
-        <v>4176.393837989899</v>
+        <v>3123.786074621628</v>
       </c>
     </row>
     <row r="17">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92111.89999999999</v>
+        <v>90732.2</v>
       </c>
       <c r="D17" t="n">
-        <v>61894</v>
+        <v>67199</v>
       </c>
       <c r="E17" t="n">
-        <v>115992</v>
+        <v>113669</v>
       </c>
       <c r="F17" t="n">
-        <v>14837.96845562087</v>
+        <v>11407.18507608253</v>
       </c>
     </row>
     <row r="18">
@@ -4351,16 +4351,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>95551.23333333334</v>
+        <v>91237.13333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>70650</v>
+        <v>78755</v>
       </c>
       <c r="E18" t="n">
-        <v>116713</v>
+        <v>110607</v>
       </c>
       <c r="F18" t="n">
-        <v>12035.97814522036</v>
+        <v>8807.439293889885</v>
       </c>
     </row>
     <row r="19">
@@ -4370,16 +4370,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>93793.10000000001</v>
+        <v>88418.53333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>60416</v>
+        <v>67359</v>
       </c>
       <c r="E19" t="n">
-        <v>113159</v>
+        <v>109570</v>
       </c>
       <c r="F19" t="n">
-        <v>15515.77980283299</v>
+        <v>11551.50055399249</v>
       </c>
     </row>
     <row r="20">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>90789.3</v>
+        <v>90879</v>
       </c>
       <c r="D20" t="n">
-        <v>63947</v>
+        <v>70071</v>
       </c>
       <c r="E20" t="n">
-        <v>123712</v>
+        <v>118026</v>
       </c>
       <c r="F20" t="n">
-        <v>16623.52340339837</v>
+        <v>14007.51030935429</v>
       </c>
     </row>
     <row r="21">
@@ -4408,16 +4408,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>90271.03333333334</v>
+        <v>91241.73333333334</v>
       </c>
       <c r="D21" t="n">
-        <v>70548</v>
+        <v>78724</v>
       </c>
       <c r="E21" t="n">
-        <v>110621</v>
+        <v>110564</v>
       </c>
       <c r="F21" t="n">
-        <v>9234.048871733112</v>
+        <v>8799.691376911402</v>
       </c>
     </row>
     <row r="22">
@@ -4427,16 +4427,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>53727.1</v>
+        <v>90414.26666666666</v>
       </c>
       <c r="D22" t="n">
-        <v>30075</v>
+        <v>68434</v>
       </c>
       <c r="E22" t="n">
-        <v>72321</v>
+        <v>125680</v>
       </c>
       <c r="F22" t="n">
-        <v>10896.08815538861</v>
+        <v>14147.44347914335</v>
       </c>
     </row>
     <row r="23">
@@ -4446,16 +4446,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>80265.03333333334</v>
+        <v>78867.53333333334</v>
       </c>
       <c r="D23" t="n">
-        <v>59466</v>
+        <v>67606</v>
       </c>
       <c r="E23" t="n">
-        <v>100873</v>
+        <v>92749</v>
       </c>
       <c r="F23" t="n">
-        <v>10354.59235471017</v>
+        <v>7936.670098277293</v>
       </c>
     </row>
     <row r="24">
@@ -4468,16 +4468,16 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>66074.13333333333</v>
+        <v>65967.06666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>46601</v>
+        <v>50811</v>
       </c>
       <c r="E24" t="n">
-        <v>84394</v>
+        <v>79880</v>
       </c>
       <c r="F24" t="n">
-        <v>10492.05335713124</v>
+        <v>9044.355812451335</v>
       </c>
     </row>
     <row r="25">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74395.5</v>
+        <v>78878</v>
       </c>
       <c r="C25" t="n">
-        <v>98473.89999999999</v>
+        <v>91634.60000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>103466.3</v>
+        <v>101684</v>
       </c>
     </row>
     <row r="26">
@@ -4503,13 +4503,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82530.7</v>
+        <v>84884.60000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>101106.5</v>
+        <v>93027.60000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>103016.5</v>
+        <v>95799.2</v>
       </c>
     </row>
     <row r="27">
@@ -4519,13 +4519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>74985.60000000001</v>
+        <v>78045.60000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>101233.5</v>
+        <v>87932.60000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>105160.2</v>
+        <v>99277.39999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73333.3</v>
+        <v>77890.60000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>90644.5</v>
+        <v>89787</v>
       </c>
       <c r="D29" t="n">
-        <v>108390.1</v>
+        <v>104959.4</v>
       </c>
     </row>
     <row r="30">
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82521.60000000001</v>
+        <v>84913.2</v>
       </c>
       <c r="C30" t="n">
-        <v>90315</v>
+        <v>93012.8</v>
       </c>
       <c r="D30" t="n">
-        <v>97976.5</v>
+        <v>95799.2</v>
       </c>
     </row>
     <row r="31">
@@ -4583,13 +4583,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42027.3</v>
+        <v>81517.2</v>
       </c>
       <c r="C31" t="n">
-        <v>54407.6</v>
+        <v>85539</v>
       </c>
       <c r="D31" t="n">
-        <v>64746.4</v>
+        <v>104186.6</v>
       </c>
     </row>
     <row r="32">
@@ -4599,13 +4599,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71585.89999999999</v>
+        <v>70958.8</v>
       </c>
       <c r="C32" t="n">
-        <v>78496.7</v>
+        <v>78029.8</v>
       </c>
       <c r="D32" t="n">
-        <v>90712.5</v>
+        <v>87614</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -4614,34 +4614,34 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="n">
         <v>100</v>
@@ -4696,49 +4696,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>53984.5</v>
+        <v>56184.2</v>
       </c>
       <c r="C33" t="n">
-        <v>66333.8</v>
+        <v>65379.4</v>
       </c>
       <c r="D33" t="n">
-        <v>77904.10000000001</v>
+        <v>76337.60000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>87220</v>
+        <v>80725</v>
       </c>
       <c r="F33" t="n">
-        <v>76185</v>
+        <v>67199</v>
       </c>
       <c r="G33" t="n">
-        <v>74009</v>
+        <v>99515</v>
       </c>
       <c r="H33" t="n">
-        <v>71249</v>
+        <v>97480</v>
       </c>
       <c r="I33" t="n">
-        <v>63579</v>
+        <v>90098</v>
       </c>
       <c r="J33" t="n">
-        <v>75626</v>
+        <v>83894</v>
       </c>
       <c r="K33" t="n">
-        <v>61894</v>
+        <v>87186</v>
       </c>
       <c r="L33" t="n">
-        <v>88901</v>
+        <v>113669</v>
       </c>
       <c r="M33" t="n">
-        <v>103521</v>
+        <v>95613</v>
       </c>
       <c r="N33" t="n">
-        <v>96330</v>
+        <v>95528</v>
       </c>
       <c r="O33" t="n">
-        <v>95520</v>
+        <v>99752</v>
       </c>
       <c r="P33" t="n">
-        <v>107043</v>
+        <v>103858</v>
       </c>
       <c r="Q33" t="n">
         <v>104942</v>
@@ -4793,49 +4793,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78729</v>
+        <v>78755</v>
       </c>
       <c r="C34" t="n">
-        <v>87072</v>
+        <v>87088</v>
       </c>
       <c r="D34" t="n">
-        <v>93379</v>
+        <v>93398</v>
       </c>
       <c r="E34" t="n">
-        <v>81888</v>
+        <v>81783</v>
       </c>
       <c r="F34" t="n">
-        <v>83498</v>
+        <v>83399</v>
       </c>
       <c r="G34" t="n">
-        <v>78380</v>
+        <v>101921</v>
       </c>
       <c r="H34" t="n">
-        <v>70650</v>
+        <v>91405</v>
       </c>
       <c r="I34" t="n">
-        <v>79049</v>
+        <v>88902</v>
       </c>
       <c r="J34" t="n">
-        <v>87307</v>
+        <v>101944</v>
       </c>
       <c r="K34" t="n">
-        <v>85355</v>
+        <v>80966</v>
       </c>
       <c r="L34" t="n">
-        <v>112844</v>
+        <v>110607</v>
       </c>
       <c r="M34" t="n">
-        <v>100532</v>
+        <v>87688</v>
       </c>
       <c r="N34" t="n">
-        <v>93281</v>
+        <v>99627</v>
       </c>
       <c r="O34" t="n">
-        <v>96348</v>
+        <v>94788</v>
       </c>
       <c r="P34" t="n">
-        <v>84497</v>
+        <v>86286</v>
       </c>
       <c r="Q34" t="n">
         <v>102564</v>
@@ -4890,49 +4890,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>71694</v>
+        <v>67359</v>
       </c>
       <c r="C35" t="n">
-        <v>76397</v>
+        <v>75384</v>
       </c>
       <c r="D35" t="n">
-        <v>89018</v>
+        <v>91732</v>
       </c>
       <c r="E35" t="n">
-        <v>85195</v>
+        <v>72535</v>
       </c>
       <c r="F35" t="n">
-        <v>85246</v>
+        <v>83218</v>
       </c>
       <c r="G35" t="n">
-        <v>66711</v>
+        <v>89610</v>
       </c>
       <c r="H35" t="n">
-        <v>76644</v>
+        <v>91505</v>
       </c>
       <c r="I35" t="n">
-        <v>63270</v>
+        <v>77740</v>
       </c>
       <c r="J35" t="n">
-        <v>60416</v>
+        <v>94296</v>
       </c>
       <c r="K35" t="n">
-        <v>75265</v>
+        <v>86512</v>
       </c>
       <c r="L35" t="n">
-        <v>92043</v>
+        <v>109570</v>
       </c>
       <c r="M35" t="n">
-        <v>101787</v>
+        <v>106728</v>
       </c>
       <c r="N35" t="n">
-        <v>96932</v>
+        <v>89007</v>
       </c>
       <c r="O35" t="n">
-        <v>101901</v>
+        <v>100554</v>
       </c>
       <c r="P35" t="n">
-        <v>91287</v>
+        <v>90528</v>
       </c>
       <c r="Q35" t="n">
         <v>110249</v>
@@ -4987,49 +4987,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>53309</v>
+        <v>53040</v>
       </c>
       <c r="C36" t="n">
-        <v>78489</v>
+        <v>67624</v>
       </c>
       <c r="D36" t="n">
-        <v>67209</v>
+        <v>79555</v>
       </c>
       <c r="E36" t="n">
-        <v>79273</v>
+        <v>83824</v>
       </c>
       <c r="F36" t="n">
-        <v>81492</v>
+        <v>57569</v>
       </c>
       <c r="G36" t="n">
-        <v>65879</v>
+        <v>75295</v>
       </c>
       <c r="H36" t="n">
-        <v>60805</v>
+        <v>76497</v>
       </c>
       <c r="I36" t="n">
-        <v>71123</v>
+        <v>77469</v>
       </c>
       <c r="J36" t="n">
-        <v>62044</v>
+        <v>65174</v>
       </c>
       <c r="K36" t="n">
-        <v>64814</v>
+        <v>70119</v>
       </c>
       <c r="L36" t="n">
-        <v>85422</v>
+        <v>94042</v>
       </c>
       <c r="M36" t="n">
-        <v>82245</v>
+        <v>92526</v>
       </c>
       <c r="N36" t="n">
-        <v>75026</v>
+        <v>100171</v>
       </c>
       <c r="O36" t="n">
-        <v>84179</v>
+        <v>94236</v>
       </c>
       <c r="P36" t="n">
-        <v>88462</v>
+        <v>95076</v>
       </c>
       <c r="Q36" t="n">
         <v>99162</v>
@@ -5099,34 +5099,34 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="n">
         <v>100</v>
@@ -5181,49 +5181,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73869</v>
+        <v>72265</v>
       </c>
       <c r="C38" t="n">
-        <v>74093</v>
+        <v>79826</v>
       </c>
       <c r="D38" t="n">
-        <v>77484</v>
+        <v>76980</v>
       </c>
       <c r="E38" t="n">
-        <v>80922</v>
+        <v>70071</v>
       </c>
       <c r="F38" t="n">
-        <v>86899</v>
+        <v>90311</v>
       </c>
       <c r="G38" t="n">
-        <v>72743</v>
+        <v>106817</v>
       </c>
       <c r="H38" t="n">
-        <v>66761</v>
+        <v>84954</v>
       </c>
       <c r="I38" t="n">
-        <v>63947</v>
+        <v>82627</v>
       </c>
       <c r="J38" t="n">
-        <v>64089</v>
+        <v>81361</v>
       </c>
       <c r="K38" t="n">
-        <v>72526</v>
+        <v>93176</v>
       </c>
       <c r="L38" t="n">
-        <v>110317</v>
+        <v>118026</v>
       </c>
       <c r="M38" t="n">
-        <v>85751</v>
+        <v>92805</v>
       </c>
       <c r="N38" t="n">
-        <v>78370</v>
+        <v>106508</v>
       </c>
       <c r="O38" t="n">
-        <v>98010</v>
+        <v>97414</v>
       </c>
       <c r="P38" t="n">
-        <v>80948</v>
+        <v>110044</v>
       </c>
       <c r="Q38" t="n">
         <v>92861</v>
@@ -5278,49 +5278,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78723</v>
+        <v>78724</v>
       </c>
       <c r="C39" t="n">
-        <v>87144</v>
+        <v>87086</v>
       </c>
       <c r="D39" t="n">
-        <v>93409</v>
+        <v>93444</v>
       </c>
       <c r="E39" t="n">
-        <v>81853</v>
+        <v>81867</v>
       </c>
       <c r="F39" t="n">
-        <v>83491</v>
+        <v>83445</v>
       </c>
       <c r="G39" t="n">
-        <v>78356</v>
+        <v>101979</v>
       </c>
       <c r="H39" t="n">
-        <v>70548</v>
+        <v>91352</v>
       </c>
       <c r="I39" t="n">
-        <v>79080</v>
+        <v>88894</v>
       </c>
       <c r="J39" t="n">
-        <v>87294</v>
+        <v>101908</v>
       </c>
       <c r="K39" t="n">
-        <v>85318</v>
+        <v>80931</v>
       </c>
       <c r="L39" t="n">
-        <v>101964</v>
+        <v>110564</v>
       </c>
       <c r="M39" t="n">
-        <v>91387</v>
+        <v>87737</v>
       </c>
       <c r="N39" t="n">
-        <v>88899</v>
+        <v>99616</v>
       </c>
       <c r="O39" t="n">
-        <v>101901</v>
+        <v>94805</v>
       </c>
       <c r="P39" t="n">
-        <v>80960</v>
+        <v>86274</v>
       </c>
       <c r="Q39" t="n">
         <v>88378</v>
@@ -5375,49 +5375,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36999</v>
+        <v>68434</v>
       </c>
       <c r="C40" t="n">
-        <v>55349</v>
+        <v>85878</v>
       </c>
       <c r="D40" t="n">
-        <v>46463</v>
+        <v>91198</v>
       </c>
       <c r="E40" t="n">
-        <v>49141</v>
+        <v>82021</v>
       </c>
       <c r="F40" t="n">
-        <v>37673</v>
+        <v>80055</v>
       </c>
       <c r="G40" t="n">
-        <v>46235</v>
+        <v>93497</v>
       </c>
       <c r="H40" t="n">
-        <v>30075</v>
+        <v>87465</v>
       </c>
       <c r="I40" t="n">
-        <v>35576</v>
+        <v>84262</v>
       </c>
       <c r="J40" t="n">
-        <v>49893</v>
+        <v>80173</v>
       </c>
       <c r="K40" t="n">
-        <v>32869</v>
+        <v>82298</v>
       </c>
       <c r="L40" t="n">
-        <v>53170</v>
+        <v>125680</v>
       </c>
       <c r="M40" t="n">
-        <v>52975</v>
+        <v>89059</v>
       </c>
       <c r="N40" t="n">
-        <v>55866</v>
+        <v>118637</v>
       </c>
       <c r="O40" t="n">
-        <v>58568</v>
+        <v>97566</v>
       </c>
       <c r="P40" t="n">
-        <v>54266</v>
+        <v>89991</v>
       </c>
       <c r="Q40" t="n">
         <v>62539</v>
@@ -5472,49 +5472,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>59466</v>
+        <v>69597</v>
       </c>
       <c r="C41" t="n">
-        <v>71031</v>
+        <v>67606</v>
       </c>
       <c r="D41" t="n">
-        <v>84743</v>
+        <v>76317</v>
       </c>
       <c r="E41" t="n">
-        <v>78008</v>
+        <v>69133</v>
       </c>
       <c r="F41" t="n">
-        <v>79782</v>
+        <v>72141</v>
       </c>
       <c r="G41" t="n">
-        <v>65487</v>
+        <v>86062</v>
       </c>
       <c r="H41" t="n">
-        <v>63812</v>
+        <v>75861</v>
       </c>
       <c r="I41" t="n">
-        <v>68262</v>
+        <v>76534</v>
       </c>
       <c r="J41" t="n">
-        <v>67463</v>
+        <v>80961</v>
       </c>
       <c r="K41" t="n">
-        <v>77805</v>
+        <v>70731</v>
       </c>
       <c r="L41" t="n">
-        <v>87502</v>
+        <v>92749</v>
       </c>
       <c r="M41" t="n">
-        <v>84018</v>
+        <v>84241</v>
       </c>
       <c r="N41" t="n">
-        <v>78202</v>
+        <v>89434</v>
       </c>
       <c r="O41" t="n">
-        <v>77403</v>
+        <v>82759</v>
       </c>
       <c r="P41" t="n">
-        <v>73092</v>
+        <v>88887</v>
       </c>
       <c r="Q41" t="n">
         <v>83092</v>
@@ -5569,49 +5569,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51908</v>
+        <v>50811</v>
       </c>
       <c r="C42" t="n">
-        <v>61365</v>
+        <v>58789</v>
       </c>
       <c r="D42" t="n">
-        <v>55534</v>
+        <v>59163</v>
       </c>
       <c r="E42" t="n">
-        <v>57468</v>
+        <v>60437</v>
       </c>
       <c r="F42" t="n">
-        <v>54269</v>
+        <v>51721</v>
       </c>
       <c r="G42" t="n">
-        <v>54987</v>
+        <v>67549</v>
       </c>
       <c r="H42" t="n">
-        <v>48441</v>
+        <v>71006</v>
       </c>
       <c r="I42" t="n">
-        <v>46601</v>
+        <v>61137</v>
       </c>
       <c r="J42" t="n">
-        <v>57989</v>
+        <v>66519</v>
       </c>
       <c r="K42" t="n">
-        <v>51283</v>
+        <v>60686</v>
       </c>
       <c r="L42" t="n">
-        <v>67992</v>
+        <v>79880</v>
       </c>
       <c r="M42" t="n">
-        <v>72020</v>
+        <v>70727</v>
       </c>
       <c r="N42" t="n">
-        <v>62584</v>
+        <v>75562</v>
       </c>
       <c r="O42" t="n">
-        <v>67063</v>
+        <v>78002</v>
       </c>
       <c r="P42" t="n">
-        <v>65620</v>
+        <v>77517</v>
       </c>
       <c r="Q42" t="n">
         <v>67822</v>
@@ -5753,7 +5753,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -5797,7 +5797,7 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -5841,7 +5841,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="7">
@@ -5863,7 +5863,7 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -5885,16 +5885,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="9">
@@ -5929,16 +5929,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="11">
@@ -5995,16 +5995,16 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -6080,7 +6080,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2494438257849294</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="18">
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3726779962499649</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="19">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3726779962499649</v>
+        <v>0.4422166387140533</v>
       </c>
     </row>
     <row r="20">
@@ -6175,16 +6175,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.4714045207910317</v>
       </c>
     </row>
     <row r="23">
@@ -6194,16 +6194,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="24">
@@ -6235,13 +6235,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
@@ -6254,10 +6254,10 @@
         <v>0.6</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
@@ -6299,13 +6299,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C29" t="n">
         <v>0.6</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30">
@@ -6318,10 +6318,10 @@
         <v>0.6</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
@@ -6331,13 +6331,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
@@ -6353,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -6362,34 +6362,34 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="n">
         <v>100</v>
@@ -6453,16 +6453,16 @@
         <v>1</v>
       </c>
       <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
@@ -6483,10 +6483,10 @@
         <v>1</v>
       </c>
       <c r="O33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="b">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -6647,37 +6647,37 @@
         <v>0</v>
       </c>
       <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="b">
+      <c r="M35" t="b">
         <v>0</v>
       </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
       <c r="N35" t="b">
         <v>1</v>
       </c>
       <c r="O35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -6847,34 +6847,34 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="n">
         <v>100</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -6965,13 +6965,13 @@
         <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="b">
         <v>0</v>
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -7062,10 +7062,10 @@
         <v>1</v>
       </c>
       <c r="N39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -7126,10 +7126,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -7153,16 +7153,16 @@
         <v>1</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
       </c>
       <c r="N40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -7429,7 +7429,7 @@
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="5"/>
+    <col width="20" customWidth="1" min="4" max="5"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
@@ -7501,16 +7501,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>11704.22</v>
+        <v>11812.32</v>
       </c>
       <c r="D2" t="n">
-        <v>9806.6</v>
+        <v>10135.1</v>
       </c>
       <c r="E2" t="n">
-        <v>13095.4</v>
+        <v>12615.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1006.662854981746</v>
+        <v>885.3398497752148</v>
       </c>
     </row>
     <row r="3">
@@ -7523,16 +7523,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>22626.14</v>
+        <v>22632.38</v>
       </c>
       <c r="D3" t="n">
-        <v>20620.5</v>
+        <v>20479.7</v>
       </c>
       <c r="E3" t="n">
-        <v>25944.6</v>
+        <v>24781.1</v>
       </c>
       <c r="F3" t="n">
-        <v>1778.106319205913</v>
+        <v>1494.662973917531</v>
       </c>
     </row>
     <row r="4">
@@ -7545,16 +7545,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>33473.69</v>
+        <v>33391.4</v>
       </c>
       <c r="D4" t="n">
-        <v>30295</v>
+        <v>31677.5</v>
       </c>
       <c r="E4" t="n">
-        <v>36257.2</v>
+        <v>35484.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1978.819078364668</v>
+        <v>1333.876571501276</v>
       </c>
     </row>
     <row r="5">
@@ -7567,16 +7567,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>11730.63</v>
+        <v>11968.14</v>
       </c>
       <c r="D5" t="n">
-        <v>10353</v>
+        <v>11039.1</v>
       </c>
       <c r="E5" t="n">
-        <v>12526</v>
+        <v>12276.4</v>
       </c>
       <c r="F5" t="n">
-        <v>729.1226481875324</v>
+        <v>467.2460448200711</v>
       </c>
     </row>
     <row r="6">
@@ -7589,16 +7589,16 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>22660.75</v>
+        <v>22983.46</v>
       </c>
       <c r="D6" t="n">
-        <v>21520.9</v>
+        <v>21532.6</v>
       </c>
       <c r="E6" t="n">
         <v>24825.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1011.628573390451</v>
+        <v>1106.047712533234</v>
       </c>
     </row>
     <row r="7">
@@ -7611,7 +7611,7 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>33701.79</v>
+        <v>33451.9</v>
       </c>
       <c r="D7" t="n">
         <v>31200</v>
@@ -7620,7 +7620,7 @@
         <v>35280.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1202.414062168269</v>
+        <v>1321.006646463219</v>
       </c>
     </row>
     <row r="8">
@@ -7633,16 +7633,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>10666.94</v>
+        <v>11800.04</v>
       </c>
       <c r="D8" t="n">
-        <v>8443.6</v>
+        <v>10646.7</v>
       </c>
       <c r="E8" t="n">
-        <v>12012.2</v>
+        <v>12714.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1106.708959211951</v>
+        <v>674.1917638179805</v>
       </c>
     </row>
     <row r="9">
@@ -7655,16 +7655,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>21489.71</v>
+        <v>23026.36</v>
       </c>
       <c r="D9" t="n">
-        <v>18948.3</v>
+        <v>21789.4</v>
       </c>
       <c r="E9" t="n">
-        <v>24481.4</v>
+        <v>25017.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1827.381830078214</v>
+        <v>1097.332729120935</v>
       </c>
     </row>
     <row r="10">
@@ -7677,16 +7677,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>32925.63</v>
+        <v>33414.18</v>
       </c>
       <c r="D10" t="n">
-        <v>28493.3</v>
+        <v>32227.7</v>
       </c>
       <c r="E10" t="n">
-        <v>35316.6</v>
+        <v>34384</v>
       </c>
       <c r="F10" t="n">
-        <v>1886.691025075383</v>
+        <v>724.5709693328872</v>
       </c>
     </row>
     <row r="11">
@@ -7699,16 +7699,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>11612.18</v>
+        <v>11430.82</v>
       </c>
       <c r="D11" t="n">
-        <v>9929.799999999999</v>
+        <v>11106.8</v>
       </c>
       <c r="E11" t="n">
-        <v>13268.1</v>
+        <v>11911.7</v>
       </c>
       <c r="F11" t="n">
-        <v>989.5850512209653</v>
+        <v>278.2429398924621</v>
       </c>
     </row>
     <row r="12">
@@ -7721,16 +7721,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>22305.67</v>
+        <v>22493.32</v>
       </c>
       <c r="D12" t="n">
-        <v>20924.6</v>
+        <v>21881.8</v>
       </c>
       <c r="E12" t="n">
-        <v>23845.6</v>
+        <v>23226.5</v>
       </c>
       <c r="F12" t="n">
-        <v>869.3522451227697</v>
+        <v>454.3900148550802</v>
       </c>
     </row>
     <row r="13">
@@ -7743,16 +7743,16 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>33594.03</v>
+        <v>33708.4</v>
       </c>
       <c r="D13" t="n">
-        <v>30813.3</v>
+        <v>31631.1</v>
       </c>
       <c r="E13" t="n">
-        <v>36715.2</v>
+        <v>35488.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1921.426129753627</v>
+        <v>1429.053726071908</v>
       </c>
     </row>
     <row r="14">
@@ -7765,16 +7765,16 @@
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>11537.28</v>
+        <v>12745.28</v>
       </c>
       <c r="D14" t="n">
-        <v>9656.9</v>
+        <v>11929.1</v>
       </c>
       <c r="E14" t="n">
-        <v>12460.7</v>
+        <v>13403.5</v>
       </c>
       <c r="F14" t="n">
-        <v>848.1856858023486</v>
+        <v>533.7054708357409</v>
       </c>
     </row>
     <row r="15">
@@ -7787,16 +7787,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>23024.39</v>
+        <v>23011.38</v>
       </c>
       <c r="D15" t="n">
-        <v>21120.5</v>
+        <v>21480.9</v>
       </c>
       <c r="E15" t="n">
-        <v>26724.6</v>
+        <v>25168.1</v>
       </c>
       <c r="F15" t="n">
-        <v>1572.886124581179</v>
+        <v>1414.060334497789</v>
       </c>
     </row>
     <row r="16">
@@ -7809,16 +7809,16 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>33316.38</v>
+        <v>33415.02</v>
       </c>
       <c r="D16" t="n">
-        <v>30041.7</v>
+        <v>31511.2</v>
       </c>
       <c r="E16" t="n">
-        <v>36116.2</v>
+        <v>34706.6</v>
       </c>
       <c r="F16" t="n">
-        <v>1761.080728302935</v>
+        <v>1154.505912327867</v>
       </c>
     </row>
     <row r="17">
@@ -7828,16 +7828,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26547.29666666667</v>
+        <v>22896.15333333333</v>
       </c>
       <c r="D17" t="n">
-        <v>10390.8</v>
+        <v>10977.8</v>
       </c>
       <c r="E17" t="n">
-        <v>37720.6</v>
+        <v>35999.1</v>
       </c>
       <c r="F17" t="n">
-        <v>10437.71176741605</v>
+        <v>9167.5102188738</v>
       </c>
     </row>
     <row r="18">
@@ -7847,16 +7847,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26635.47666666667</v>
+        <v>22801.16666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>10353</v>
+        <v>11039.1</v>
       </c>
       <c r="E18" t="n">
-        <v>37231.9</v>
+        <v>35280.1</v>
       </c>
       <c r="F18" t="n">
-        <v>10589.34856106781</v>
+        <v>8831.997454835582</v>
       </c>
     </row>
     <row r="19">
@@ -7866,16 +7866,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26564.53333333333</v>
+        <v>23050.04</v>
       </c>
       <c r="D19" t="n">
-        <v>10158.9</v>
+        <v>10399.7</v>
       </c>
       <c r="E19" t="n">
-        <v>36976.6</v>
+        <v>35644.9</v>
       </c>
       <c r="F19" t="n">
-        <v>10688.98507166243</v>
+        <v>8867.827889158276</v>
       </c>
     </row>
     <row r="20">
@@ -7885,16 +7885,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22601.35</v>
+        <v>22612.03333333333</v>
       </c>
       <c r="D20" t="n">
-        <v>9806.6</v>
+        <v>10135.1</v>
       </c>
       <c r="E20" t="n">
-        <v>36257.2</v>
+        <v>35484.5</v>
       </c>
       <c r="F20" t="n">
-        <v>9037.820367535158</v>
+        <v>8899.925815546005</v>
       </c>
     </row>
     <row r="21">
@@ -7904,16 +7904,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22697.72333333333</v>
+        <v>22801.16666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>10353</v>
+        <v>11039.1</v>
       </c>
       <c r="E21" t="n">
         <v>35280.1</v>
       </c>
       <c r="F21" t="n">
-        <v>9025.31251900946</v>
+        <v>8831.997454835582</v>
       </c>
     </row>
     <row r="22">
@@ -7923,16 +7923,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21694.09333333333</v>
+        <v>22746.86</v>
       </c>
       <c r="D22" t="n">
-        <v>8443.6</v>
+        <v>10646.7</v>
       </c>
       <c r="E22" t="n">
-        <v>35316.6</v>
+        <v>34384</v>
       </c>
       <c r="F22" t="n">
-        <v>9235.998974589713</v>
+        <v>8867.287843288574</v>
       </c>
     </row>
     <row r="23">
@@ -7942,16 +7942,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22503.96</v>
+        <v>22544.18</v>
       </c>
       <c r="D23" t="n">
-        <v>9929.799999999999</v>
+        <v>11106.8</v>
       </c>
       <c r="E23" t="n">
-        <v>36715.2</v>
+        <v>35488.8</v>
       </c>
       <c r="F23" t="n">
-        <v>9075.365435602764</v>
+        <v>9137.381999398587</v>
       </c>
     </row>
     <row r="24">
@@ -7964,16 +7964,16 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>22626.01666666667</v>
+        <v>23057.22666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>9656.9</v>
+        <v>11929.1</v>
       </c>
       <c r="E24" t="n">
-        <v>36116.2</v>
+        <v>34706.6</v>
       </c>
       <c r="F24" t="n">
-        <v>9012.906401824861</v>
+        <v>8509.593033157082</v>
       </c>
     </row>
     <row r="25">
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11914.74</v>
+        <v>11784.5</v>
       </c>
       <c r="C25" t="n">
-        <v>34199.09</v>
+        <v>22861.94</v>
       </c>
       <c r="D25" t="n">
-        <v>33528.06</v>
+        <v>34042.02</v>
       </c>
     </row>
     <row r="26">
@@ -7999,13 +7999,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11730.63</v>
+        <v>11968.14</v>
       </c>
       <c r="C26" t="n">
-        <v>34076</v>
+        <v>22983.46</v>
       </c>
       <c r="D26" t="n">
-        <v>34099.8</v>
+        <v>33451.9</v>
       </c>
     </row>
     <row r="27">
@@ -8015,13 +8015,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11580.21</v>
+        <v>12249.74</v>
       </c>
       <c r="C27" t="n">
-        <v>33861.67</v>
+        <v>23095.42</v>
       </c>
       <c r="D27" t="n">
-        <v>34251.72</v>
+        <v>33804.96</v>
       </c>
     </row>
     <row r="28">
@@ -8047,13 +8047,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11704.22</v>
+        <v>11812.32</v>
       </c>
       <c r="C29" t="n">
-        <v>22626.14</v>
+        <v>22632.38</v>
       </c>
       <c r="D29" t="n">
-        <v>33473.69</v>
+        <v>33391.4</v>
       </c>
     </row>
     <row r="30">
@@ -8063,13 +8063,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11730.63</v>
+        <v>11968.14</v>
       </c>
       <c r="C30" t="n">
-        <v>22660.75</v>
+        <v>22983.46</v>
       </c>
       <c r="D30" t="n">
-        <v>33701.79</v>
+        <v>33451.9</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10666.94</v>
+        <v>11800.04</v>
       </c>
       <c r="C31" t="n">
-        <v>21489.71</v>
+        <v>23026.36</v>
       </c>
       <c r="D31" t="n">
-        <v>32925.63</v>
+        <v>33414.18</v>
       </c>
     </row>
     <row r="32">
@@ -8095,13 +8095,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11612.18</v>
+        <v>11430.82</v>
       </c>
       <c r="C32" t="n">
-        <v>22305.67</v>
+        <v>22493.32</v>
       </c>
       <c r="D32" t="n">
-        <v>33594.03</v>
+        <v>33708.4</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -8110,34 +8110,34 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="n">
         <v>100</v>
@@ -8192,49 +8192,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11537.28</v>
+        <v>12745.28</v>
       </c>
       <c r="C33" t="n">
-        <v>23024.39</v>
+        <v>23011.38</v>
       </c>
       <c r="D33" t="n">
-        <v>33316.38</v>
+        <v>33415.02</v>
       </c>
       <c r="E33" t="n">
-        <v>12667.6</v>
+        <v>12668.1</v>
       </c>
       <c r="F33" t="n">
-        <v>11685.4</v>
+        <v>11805.7</v>
       </c>
       <c r="G33" t="n">
-        <v>11214.6</v>
+        <v>23303.6</v>
       </c>
       <c r="H33" t="n">
-        <v>10682.9</v>
+        <v>22948.7</v>
       </c>
       <c r="I33" t="n">
-        <v>13139.5</v>
+        <v>21338.8</v>
       </c>
       <c r="J33" t="n">
-        <v>12275.3</v>
+        <v>24833.6</v>
       </c>
       <c r="K33" t="n">
-        <v>11986.8</v>
+        <v>21885</v>
       </c>
       <c r="L33" t="n">
-        <v>33052.6</v>
+        <v>35253.4</v>
       </c>
       <c r="M33" t="n">
-        <v>37720.6</v>
+        <v>31330.5</v>
       </c>
       <c r="N33" t="n">
-        <v>33265.5</v>
+        <v>35999.1</v>
       </c>
       <c r="O33" t="n">
-        <v>34167.1</v>
+        <v>33395.1</v>
       </c>
       <c r="P33" t="n">
-        <v>32925.1</v>
+        <v>34232</v>
       </c>
       <c r="Q33" t="n">
         <v>31939.9</v>
@@ -8304,34 +8304,34 @@
         <v>12163.9</v>
       </c>
       <c r="G34" t="n">
-        <v>10353</v>
+        <v>22886.2</v>
       </c>
       <c r="H34" t="n">
-        <v>10613.5</v>
+        <v>23369.4</v>
       </c>
       <c r="I34" t="n">
-        <v>12526</v>
+        <v>21532.6</v>
       </c>
       <c r="J34" t="n">
-        <v>11857.9</v>
+        <v>24825.1</v>
       </c>
       <c r="K34" t="n">
-        <v>12115.2</v>
+        <v>22304</v>
       </c>
       <c r="L34" t="n">
-        <v>33412.2</v>
+        <v>33996.8</v>
       </c>
       <c r="M34" t="n">
-        <v>36468.4</v>
+        <v>31200</v>
       </c>
       <c r="N34" t="n">
-        <v>33433</v>
+        <v>35280.1</v>
       </c>
       <c r="O34" t="n">
-        <v>33886.9</v>
+        <v>33329.4</v>
       </c>
       <c r="P34" t="n">
-        <v>32385.8</v>
+        <v>33453.2</v>
       </c>
       <c r="Q34" t="n">
         <v>34558.3</v>
@@ -8386,49 +8386,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12099.7</v>
+        <v>12191.1</v>
       </c>
       <c r="C35" t="n">
-        <v>10685.9</v>
+        <v>12862.9</v>
       </c>
       <c r="D35" t="n">
-        <v>10638.2</v>
+        <v>10399.7</v>
       </c>
       <c r="E35" t="n">
-        <v>12691.7</v>
+        <v>13068.4</v>
       </c>
       <c r="F35" t="n">
-        <v>12511.3</v>
+        <v>12726.6</v>
       </c>
       <c r="G35" t="n">
-        <v>10158.9</v>
+        <v>23273.6</v>
       </c>
       <c r="H35" t="n">
-        <v>10212.1</v>
+        <v>23307.2</v>
       </c>
       <c r="I35" t="n">
-        <v>12469</v>
+        <v>21488.7</v>
       </c>
       <c r="J35" t="n">
-        <v>12481.8</v>
+        <v>24908.4</v>
       </c>
       <c r="K35" t="n">
-        <v>11853.5</v>
+        <v>22499.2</v>
       </c>
       <c r="L35" t="n">
-        <v>34219.5</v>
+        <v>34345.1</v>
       </c>
       <c r="M35" t="n">
-        <v>36388.4</v>
+        <v>32214.6</v>
       </c>
       <c r="N35" t="n">
-        <v>33385.2</v>
+        <v>35644.9</v>
       </c>
       <c r="O35" t="n">
-        <v>33966.8</v>
+        <v>32923.8</v>
       </c>
       <c r="P35" t="n">
-        <v>30554.6</v>
+        <v>33896.4</v>
       </c>
       <c r="Q35" t="n">
         <v>34087.1</v>
@@ -8483,49 +8483,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10614.1</v>
+        <v>11828.2</v>
       </c>
       <c r="C36" t="n">
-        <v>12449.2</v>
+        <v>12846</v>
       </c>
       <c r="D36" t="n">
-        <v>10415.5</v>
+        <v>10335.1</v>
       </c>
       <c r="E36" t="n">
-        <v>11947.1</v>
+        <v>11996.6</v>
       </c>
       <c r="F36" t="n">
-        <v>10575.4</v>
+        <v>11092.6</v>
       </c>
       <c r="G36" t="n">
-        <v>9102.1</v>
+        <v>22161.3</v>
       </c>
       <c r="H36" t="n">
-        <v>10609.2</v>
+        <v>23169.4</v>
       </c>
       <c r="I36" t="n">
-        <v>12418.6</v>
+        <v>21757.4</v>
       </c>
       <c r="J36" t="n">
-        <v>10527.2</v>
+        <v>26073.5</v>
       </c>
       <c r="K36" t="n">
-        <v>10883.4</v>
+        <v>21515.5</v>
       </c>
       <c r="L36" t="n">
-        <v>33141.8</v>
+        <v>33472.9</v>
       </c>
       <c r="M36" t="n">
-        <v>35551.5</v>
+        <v>29769.2</v>
       </c>
       <c r="N36" t="n">
-        <v>32155.5</v>
+        <v>35278.6</v>
       </c>
       <c r="O36" t="n">
-        <v>33819.1</v>
+        <v>34498.3</v>
       </c>
       <c r="P36" t="n">
-        <v>34375.7</v>
+        <v>31588.6</v>
       </c>
       <c r="Q36" t="n">
         <v>34721</v>
@@ -8595,34 +8595,34 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="n">
         <v>100</v>
@@ -8677,49 +8677,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12490.3</v>
+        <v>11801.8</v>
       </c>
       <c r="C38" t="n">
-        <v>12236.8</v>
+        <v>12615.7</v>
       </c>
       <c r="D38" t="n">
-        <v>10492.1</v>
+        <v>10135.1</v>
       </c>
       <c r="E38" t="n">
-        <v>11611.9</v>
+        <v>12068.1</v>
       </c>
       <c r="F38" t="n">
-        <v>12502.8</v>
+        <v>12440.9</v>
       </c>
       <c r="G38" t="n">
-        <v>9806.6</v>
+        <v>23686.5</v>
       </c>
       <c r="H38" t="n">
-        <v>10759.8</v>
+        <v>21749.2</v>
       </c>
       <c r="I38" t="n">
-        <v>13095.4</v>
+        <v>20479.7</v>
       </c>
       <c r="J38" t="n">
-        <v>12515.6</v>
+        <v>24781.1</v>
       </c>
       <c r="K38" t="n">
-        <v>11530.9</v>
+        <v>22465.4</v>
       </c>
       <c r="L38" t="n">
-        <v>22841.6</v>
+        <v>34219.2</v>
       </c>
       <c r="M38" t="n">
-        <v>24432.5</v>
+        <v>31677.5</v>
       </c>
       <c r="N38" t="n">
-        <v>20824.7</v>
+        <v>35484.5</v>
       </c>
       <c r="O38" t="n">
-        <v>25944.6</v>
+        <v>32501.6</v>
       </c>
       <c r="P38" t="n">
-        <v>20674.6</v>
+        <v>33074.2</v>
       </c>
       <c r="Q38" t="n">
         <v>24588.8</v>
@@ -8789,34 +8789,34 @@
         <v>12163.9</v>
       </c>
       <c r="G39" t="n">
-        <v>10353</v>
+        <v>22886.2</v>
       </c>
       <c r="H39" t="n">
-        <v>10613.5</v>
+        <v>23369.4</v>
       </c>
       <c r="I39" t="n">
-        <v>12526</v>
+        <v>21532.6</v>
       </c>
       <c r="J39" t="n">
-        <v>11857.9</v>
+        <v>24825.1</v>
       </c>
       <c r="K39" t="n">
-        <v>12115.2</v>
+        <v>22304</v>
       </c>
       <c r="L39" t="n">
-        <v>22886.2</v>
+        <v>33996.8</v>
       </c>
       <c r="M39" t="n">
-        <v>23369.4</v>
+        <v>31200</v>
       </c>
       <c r="N39" t="n">
-        <v>21532.6</v>
+        <v>35280.1</v>
       </c>
       <c r="O39" t="n">
-        <v>24825.1</v>
+        <v>33329.4</v>
       </c>
       <c r="P39" t="n">
-        <v>22304</v>
+        <v>33453.2</v>
       </c>
       <c r="Q39" t="n">
         <v>23724.5</v>
@@ -8871,49 +8871,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11341.8</v>
+        <v>11650.3</v>
       </c>
       <c r="C40" t="n">
-        <v>10773.3</v>
+        <v>11929.9</v>
       </c>
       <c r="D40" t="n">
-        <v>11476.3</v>
+        <v>10646.7</v>
       </c>
       <c r="E40" t="n">
-        <v>11554.8</v>
+        <v>12714.5</v>
       </c>
       <c r="F40" t="n">
-        <v>11586.8</v>
+        <v>12058.8</v>
       </c>
       <c r="G40" t="n">
-        <v>8443.6</v>
+        <v>23241.1</v>
       </c>
       <c r="H40" t="n">
-        <v>9191.700000000001</v>
+        <v>21789.4</v>
       </c>
       <c r="I40" t="n">
-        <v>10053.6</v>
+        <v>22466.3</v>
       </c>
       <c r="J40" t="n">
-        <v>12012.2</v>
+        <v>25017.3</v>
       </c>
       <c r="K40" t="n">
-        <v>10235.3</v>
+        <v>22617.7</v>
       </c>
       <c r="L40" t="n">
-        <v>22553.9</v>
+        <v>33069.6</v>
       </c>
       <c r="M40" t="n">
-        <v>21341.7</v>
+        <v>32227.7</v>
       </c>
       <c r="N40" t="n">
-        <v>18948.3</v>
+        <v>33679</v>
       </c>
       <c r="O40" t="n">
-        <v>24481.4</v>
+        <v>33710.6</v>
       </c>
       <c r="P40" t="n">
-        <v>19967.8</v>
+        <v>34384</v>
       </c>
       <c r="Q40" t="n">
         <v>23241</v>
@@ -8968,49 +8968,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12853.1</v>
+        <v>11535.7</v>
       </c>
       <c r="C41" t="n">
-        <v>11062</v>
+        <v>11106.8</v>
       </c>
       <c r="D41" t="n">
-        <v>11143.3</v>
+        <v>11247</v>
       </c>
       <c r="E41" t="n">
-        <v>13268.1</v>
+        <v>11352.9</v>
       </c>
       <c r="F41" t="n">
-        <v>11790.3</v>
+        <v>11911.7</v>
       </c>
       <c r="G41" t="n">
-        <v>9929.799999999999</v>
+        <v>22344.7</v>
       </c>
       <c r="H41" t="n">
-        <v>10752.5</v>
+        <v>23226.5</v>
       </c>
       <c r="I41" t="n">
-        <v>12413.6</v>
+        <v>21881.8</v>
       </c>
       <c r="J41" t="n">
-        <v>10865</v>
+        <v>22728.6</v>
       </c>
       <c r="K41" t="n">
-        <v>12044.1</v>
+        <v>22285</v>
       </c>
       <c r="L41" t="n">
-        <v>21694.6</v>
+        <v>35488.8</v>
       </c>
       <c r="M41" t="n">
-        <v>22718</v>
+        <v>32492.1</v>
       </c>
       <c r="N41" t="n">
-        <v>20924.6</v>
+        <v>34690.5</v>
       </c>
       <c r="O41" t="n">
-        <v>23845.6</v>
+        <v>31631.1</v>
       </c>
       <c r="P41" t="n">
-        <v>21512.9</v>
+        <v>34239.5</v>
       </c>
       <c r="Q41" t="n">
         <v>23384</v>
@@ -9065,49 +9065,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12284.5</v>
+        <v>12455.1</v>
       </c>
       <c r="C42" t="n">
-        <v>10406.8</v>
+        <v>12704.6</v>
       </c>
       <c r="D42" t="n">
-        <v>11425.2</v>
+        <v>11929.1</v>
       </c>
       <c r="E42" t="n">
-        <v>12460.7</v>
+        <v>13234.1</v>
       </c>
       <c r="F42" t="n">
-        <v>11974.2</v>
+        <v>13403.5</v>
       </c>
       <c r="G42" t="n">
-        <v>11293.8</v>
+        <v>22960.3</v>
       </c>
       <c r="H42" t="n">
-        <v>9656.9</v>
+        <v>23914.6</v>
       </c>
       <c r="I42" t="n">
-        <v>11819.4</v>
+        <v>21480.9</v>
       </c>
       <c r="J42" t="n">
-        <v>12299.5</v>
+        <v>25168.1</v>
       </c>
       <c r="K42" t="n">
-        <v>11751.8</v>
+        <v>21533</v>
       </c>
       <c r="L42" t="n">
-        <v>23181.3</v>
+        <v>34529.3</v>
       </c>
       <c r="M42" t="n">
-        <v>22738.2</v>
+        <v>31511.2</v>
       </c>
       <c r="N42" t="n">
-        <v>21293.2</v>
+        <v>34706.6</v>
       </c>
       <c r="O42" t="n">
-        <v>26724.6</v>
+        <v>33209.1</v>
       </c>
       <c r="P42" t="n">
-        <v>21120.5</v>
+        <v>33118.9</v>
       </c>
       <c r="Q42" t="n">
         <v>23862.1</v>
@@ -9190,21 +9190,21 @@
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="9" customWidth="1" min="18" max="18"/>
-    <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="9" customWidth="1" min="21" max="21"/>
-    <col width="9" customWidth="1" min="22" max="22"/>
-    <col width="9" customWidth="1" min="23" max="23"/>
-    <col width="9" customWidth="1" min="24" max="24"/>
-    <col width="9" customWidth="1" min="25" max="25"/>
-    <col width="9" customWidth="1" min="26" max="26"/>
-    <col width="9" customWidth="1" min="27" max="27"/>
-    <col width="9" customWidth="1" min="28" max="28"/>
-    <col width="9" customWidth="1" min="29" max="29"/>
-    <col width="9" customWidth="1" min="30" max="30"/>
-    <col width="9" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9249,16 +9249,16 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>10544.8</v>
+        <v>12260.2</v>
       </c>
       <c r="D2" t="n">
-        <v>5369</v>
+        <v>8834</v>
       </c>
       <c r="E2" t="n">
-        <v>16899</v>
+        <v>17314</v>
       </c>
       <c r="F2" t="n">
-        <v>4238.626541699564</v>
+        <v>2779.81844011439</v>
       </c>
     </row>
     <row r="3">
@@ -9271,16 +9271,16 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>19108.3</v>
+        <v>21343.8</v>
       </c>
       <c r="D3" t="n">
-        <v>7943</v>
+        <v>7862</v>
       </c>
       <c r="E3" t="n">
-        <v>30102</v>
+        <v>37322</v>
       </c>
       <c r="F3" t="n">
-        <v>7955.61395556622</v>
+        <v>10473.90201214428</v>
       </c>
     </row>
     <row r="4">
@@ -9293,16 +9293,16 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>30425.5</v>
+        <v>29217.8</v>
       </c>
       <c r="D4" t="n">
-        <v>15503</v>
+        <v>23085</v>
       </c>
       <c r="E4" t="n">
-        <v>50827</v>
+        <v>36978</v>
       </c>
       <c r="F4" t="n">
-        <v>8777.147307069648</v>
+        <v>5045.449093985589</v>
       </c>
     </row>
     <row r="5">
@@ -9315,16 +9315,16 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>8632.6</v>
+        <v>8932</v>
       </c>
       <c r="D5" t="n">
-        <v>7361</v>
+        <v>8241</v>
       </c>
       <c r="E5" t="n">
         <v>9258</v>
       </c>
       <c r="F5" t="n">
-        <v>691.353918047768</v>
+        <v>364.7437456626227</v>
       </c>
     </row>
     <row r="6">
@@ -9337,7 +9337,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>18833.5</v>
+        <v>19102</v>
       </c>
       <c r="D6" t="n">
         <v>17773</v>
@@ -9346,7 +9346,7 @@
         <v>20890</v>
       </c>
       <c r="F6" t="n">
-        <v>949.439334554873</v>
+        <v>1038.877663635137</v>
       </c>
     </row>
     <row r="7">
@@ -9359,7 +9359,7 @@
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>28612.5</v>
+        <v>28422.2</v>
       </c>
       <c r="D7" t="n">
         <v>26367</v>
@@ -9368,7 +9368,7 @@
         <v>30119</v>
       </c>
       <c r="F7" t="n">
-        <v>1083.055792653361</v>
+        <v>1218.08495598624</v>
       </c>
     </row>
     <row r="8">
@@ -9381,16 +9381,16 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>26715.7</v>
+        <v>10447.8</v>
       </c>
       <c r="D8" t="n">
-        <v>12562</v>
+        <v>3589</v>
       </c>
       <c r="E8" t="n">
-        <v>40251</v>
+        <v>13382</v>
       </c>
       <c r="F8" t="n">
-        <v>7880.889214422444</v>
+        <v>3630.975483255154</v>
       </c>
     </row>
     <row r="9">
@@ -9403,16 +9403,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>42375.3</v>
+        <v>19130.8</v>
       </c>
       <c r="D9" t="n">
-        <v>25270</v>
+        <v>11276</v>
       </c>
       <c r="E9" t="n">
-        <v>53383</v>
+        <v>35378</v>
       </c>
       <c r="F9" t="n">
-        <v>9246.419220974138</v>
+        <v>8544.538592574792</v>
       </c>
     </row>
     <row r="10">
@@ -9425,16 +9425,16 @@
         <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>52143.7</v>
+        <v>29541.8</v>
       </c>
       <c r="D10" t="n">
-        <v>37323</v>
+        <v>20967</v>
       </c>
       <c r="E10" t="n">
-        <v>71529</v>
+        <v>38634</v>
       </c>
       <c r="F10" t="n">
-        <v>10361.34585900886</v>
+        <v>6461.71851445109</v>
       </c>
     </row>
     <row r="11">
@@ -9447,16 +9447,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>13226.1</v>
+        <v>17167.4</v>
       </c>
       <c r="D11" t="n">
-        <v>5706</v>
+        <v>10955</v>
       </c>
       <c r="E11" t="n">
-        <v>23594</v>
+        <v>22404</v>
       </c>
       <c r="F11" t="n">
-        <v>5760.650856457107</v>
+        <v>4007.289088648335</v>
       </c>
     </row>
     <row r="12">
@@ -9469,16 +9469,16 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>27535.5</v>
+        <v>28683.6</v>
       </c>
       <c r="D12" t="n">
-        <v>14662</v>
+        <v>22180</v>
       </c>
       <c r="E12" t="n">
-        <v>35361</v>
+        <v>42575</v>
       </c>
       <c r="F12" t="n">
-        <v>7097.40761475625</v>
+        <v>7381.990262794987</v>
       </c>
     </row>
     <row r="13">
@@ -9491,16 +9491,16 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>35727.1</v>
+        <v>34173.6</v>
       </c>
       <c r="D13" t="n">
-        <v>13529</v>
+        <v>23874</v>
       </c>
       <c r="E13" t="n">
-        <v>49651</v>
+        <v>51331</v>
       </c>
       <c r="F13" t="n">
-        <v>9215.301584321589</v>
+        <v>10470.99060452257</v>
       </c>
     </row>
     <row r="14">
@@ -9513,16 +9513,16 @@
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>15049.2</v>
+        <v>6882.8</v>
       </c>
       <c r="D14" t="n">
-        <v>5426</v>
+        <v>3815</v>
       </c>
       <c r="E14" t="n">
-        <v>31089</v>
+        <v>10756</v>
       </c>
       <c r="F14" t="n">
-        <v>6610.498692231925</v>
+        <v>3164.241356154742</v>
       </c>
     </row>
     <row r="15">
@@ -9535,16 +9535,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>21602.8</v>
+        <v>25498.6</v>
       </c>
       <c r="D15" t="n">
-        <v>11182</v>
+        <v>22730</v>
       </c>
       <c r="E15" t="n">
-        <v>34823</v>
+        <v>32892</v>
       </c>
       <c r="F15" t="n">
-        <v>7614.744352898527</v>
+        <v>3768.020042409541</v>
       </c>
     </row>
     <row r="16">
@@ -9557,16 +9557,16 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>39076.2</v>
+        <v>36478.8</v>
       </c>
       <c r="D16" t="n">
-        <v>20598</v>
+        <v>31713</v>
       </c>
       <c r="E16" t="n">
-        <v>55953</v>
+        <v>43343</v>
       </c>
       <c r="F16" t="n">
-        <v>10020.63079651176</v>
+        <v>4646.295143444936</v>
       </c>
     </row>
     <row r="17">
@@ -9576,16 +9576,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24242.16666666667</v>
+        <v>18776.46666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>2098</v>
+        <v>6801</v>
       </c>
       <c r="E17" t="n">
-        <v>54217</v>
+        <v>30776</v>
       </c>
       <c r="F17" t="n">
-        <v>14546.95878659484</v>
+        <v>7207.264371143572</v>
       </c>
     </row>
     <row r="18">
@@ -9595,16 +9595,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22199.7</v>
+        <v>18818.73333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>7361</v>
+        <v>8241</v>
       </c>
       <c r="E18" t="n">
-        <v>31812</v>
+        <v>30119</v>
       </c>
       <c r="F18" t="n">
-        <v>9640.408601817664</v>
+        <v>8015.616919211868</v>
       </c>
     </row>
     <row r="19">
@@ -9614,16 +9614,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24155.73333333333</v>
+        <v>18165.53333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>6474</v>
+        <v>3366</v>
       </c>
       <c r="E19" t="n">
-        <v>44791</v>
+        <v>33867</v>
       </c>
       <c r="F19" t="n">
-        <v>11452.31389700595</v>
+        <v>9214.36492922268</v>
       </c>
     </row>
     <row r="20">
@@ -9633,16 +9633,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20026.2</v>
+        <v>20940.6</v>
       </c>
       <c r="D20" t="n">
-        <v>5369</v>
+        <v>7862</v>
       </c>
       <c r="E20" t="n">
-        <v>50827</v>
+        <v>37322</v>
       </c>
       <c r="F20" t="n">
-        <v>10911.47698648843</v>
+        <v>9779.40906053803</v>
       </c>
     </row>
     <row r="21">
@@ -9652,16 +9652,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18692.86666666666</v>
+        <v>18818.73333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>7361</v>
+        <v>8241</v>
       </c>
       <c r="E21" t="n">
         <v>30119</v>
       </c>
       <c r="F21" t="n">
-        <v>8209.350030030122</v>
+        <v>8015.616919211868</v>
       </c>
     </row>
     <row r="22">
@@ -9671,16 +9671,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40411.56666666667</v>
+        <v>19706.8</v>
       </c>
       <c r="D22" t="n">
-        <v>12562</v>
+        <v>3589</v>
       </c>
       <c r="E22" t="n">
-        <v>71529</v>
+        <v>38634</v>
       </c>
       <c r="F22" t="n">
-        <v>13952.75523730787</v>
+        <v>10177.34429799837</v>
       </c>
     </row>
     <row r="23">
@@ -9690,16 +9690,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25496.23333333333</v>
+        <v>26674.86666666666</v>
       </c>
       <c r="D23" t="n">
-        <v>5706</v>
+        <v>10955</v>
       </c>
       <c r="E23" t="n">
-        <v>49651</v>
+        <v>51331</v>
       </c>
       <c r="F23" t="n">
-        <v>11942.43818959187</v>
+        <v>10501.6145416894</v>
       </c>
     </row>
     <row r="24">
@@ -9712,16 +9712,16 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>25242.73333333333</v>
+        <v>22953.4</v>
       </c>
       <c r="D24" t="n">
-        <v>5426</v>
+        <v>3815</v>
       </c>
       <c r="E24" t="n">
-        <v>55953</v>
+        <v>43343</v>
       </c>
       <c r="F24" t="n">
-        <v>13046.30346862879</v>
+        <v>12825.45814022512</v>
       </c>
     </row>
     <row r="25">
@@ -9731,13 +9731,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8348.299999999999</v>
+        <v>11798.4</v>
       </c>
       <c r="C25" t="n">
-        <v>29613.1</v>
+        <v>20238.4</v>
       </c>
       <c r="D25" t="n">
-        <v>34765.1</v>
+        <v>24292.6</v>
       </c>
     </row>
     <row r="26">
@@ -9747,13 +9747,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8632.6</v>
+        <v>8932</v>
       </c>
       <c r="C26" t="n">
-        <v>28988.9</v>
+        <v>19102</v>
       </c>
       <c r="D26" t="n">
-        <v>28977.6</v>
+        <v>28422.2</v>
       </c>
     </row>
     <row r="27">
@@ -9763,13 +9763,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11256.7</v>
+        <v>7304.2</v>
       </c>
       <c r="C27" t="n">
-        <v>31827.4</v>
+        <v>20494</v>
       </c>
       <c r="D27" t="n">
-        <v>29383.1</v>
+        <v>26698.4</v>
       </c>
     </row>
     <row r="28">
@@ -9795,13 +9795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10544.8</v>
+        <v>12260.2</v>
       </c>
       <c r="C29" t="n">
-        <v>19108.3</v>
+        <v>21343.8</v>
       </c>
       <c r="D29" t="n">
-        <v>30425.5</v>
+        <v>29217.8</v>
       </c>
     </row>
     <row r="30">
@@ -9811,13 +9811,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8632.6</v>
+        <v>8932</v>
       </c>
       <c r="C30" t="n">
-        <v>18833.5</v>
+        <v>19102</v>
       </c>
       <c r="D30" t="n">
-        <v>28612.5</v>
+        <v>28422.2</v>
       </c>
     </row>
     <row r="31">
@@ -9827,13 +9827,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26715.7</v>
+        <v>10447.8</v>
       </c>
       <c r="C31" t="n">
-        <v>42375.3</v>
+        <v>19130.8</v>
       </c>
       <c r="D31" t="n">
-        <v>52143.7</v>
+        <v>29541.8</v>
       </c>
     </row>
     <row r="32">
@@ -9843,13 +9843,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13226.1</v>
+        <v>17167.4</v>
       </c>
       <c r="C32" t="n">
-        <v>27535.5</v>
+        <v>28683.6</v>
       </c>
       <c r="D32" t="n">
-        <v>35727.1</v>
+        <v>34173.6</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -9858,34 +9858,34 @@
         <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="n">
         <v>100</v>
@@ -9940,49 +9940,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15049.2</v>
+        <v>6882.8</v>
       </c>
       <c r="C33" t="n">
-        <v>21602.8</v>
+        <v>25498.6</v>
       </c>
       <c r="D33" t="n">
-        <v>39076.2</v>
+        <v>36478.8</v>
       </c>
       <c r="E33" t="n">
-        <v>7294</v>
+        <v>7793</v>
       </c>
       <c r="F33" t="n">
-        <v>12401</v>
+        <v>15338</v>
       </c>
       <c r="G33" t="n">
-        <v>2098</v>
+        <v>14417</v>
       </c>
       <c r="H33" t="n">
-        <v>6898</v>
+        <v>22069</v>
       </c>
       <c r="I33" t="n">
-        <v>7341</v>
+        <v>19484</v>
       </c>
       <c r="J33" t="n">
-        <v>5122</v>
+        <v>23600</v>
       </c>
       <c r="K33" t="n">
-        <v>12207</v>
+        <v>21622</v>
       </c>
       <c r="L33" t="n">
-        <v>38153</v>
+        <v>15078</v>
       </c>
       <c r="M33" t="n">
-        <v>20837</v>
+        <v>24484</v>
       </c>
       <c r="N33" t="n">
-        <v>31172</v>
+        <v>28760</v>
       </c>
       <c r="O33" t="n">
-        <v>27415</v>
+        <v>30776</v>
       </c>
       <c r="P33" t="n">
-        <v>20442</v>
+        <v>22365</v>
       </c>
       <c r="Q33" t="n">
         <v>51999</v>
@@ -10052,34 +10052,34 @@
         <v>9165</v>
       </c>
       <c r="G34" t="n">
-        <v>7361</v>
+        <v>18990</v>
       </c>
       <c r="H34" t="n">
-        <v>7373</v>
+        <v>19353</v>
       </c>
       <c r="I34" t="n">
-        <v>9240</v>
+        <v>17773</v>
       </c>
       <c r="J34" t="n">
-        <v>8883</v>
+        <v>20890</v>
       </c>
       <c r="K34" t="n">
-        <v>8809</v>
+        <v>18504</v>
       </c>
       <c r="L34" t="n">
-        <v>28352</v>
+        <v>28968</v>
       </c>
       <c r="M34" t="n">
-        <v>31138</v>
+        <v>26367</v>
       </c>
       <c r="N34" t="n">
-        <v>28231</v>
+        <v>30119</v>
       </c>
       <c r="O34" t="n">
-        <v>28877</v>
+        <v>28318</v>
       </c>
       <c r="P34" t="n">
-        <v>27449</v>
+        <v>28339</v>
       </c>
       <c r="Q34" t="n">
         <v>29411</v>
@@ -10134,49 +10134,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6474</v>
+        <v>8671</v>
       </c>
       <c r="C35" t="n">
-        <v>24591</v>
+        <v>3948</v>
       </c>
       <c r="D35" t="n">
-        <v>12430</v>
+        <v>14452</v>
       </c>
       <c r="E35" t="n">
-        <v>8966</v>
+        <v>3366</v>
       </c>
       <c r="F35" t="n">
-        <v>9887</v>
+        <v>6084</v>
       </c>
       <c r="G35" t="n">
-        <v>11827</v>
+        <v>16602</v>
       </c>
       <c r="H35" t="n">
-        <v>11094</v>
+        <v>21107</v>
       </c>
       <c r="I35" t="n">
-        <v>10750</v>
+        <v>23654</v>
       </c>
       <c r="J35" t="n">
-        <v>7341</v>
+        <v>22176</v>
       </c>
       <c r="K35" t="n">
-        <v>9207</v>
+        <v>18931</v>
       </c>
       <c r="L35" t="n">
-        <v>27461</v>
+        <v>27821</v>
       </c>
       <c r="M35" t="n">
-        <v>33951</v>
+        <v>16147</v>
       </c>
       <c r="N35" t="n">
-        <v>28949</v>
+        <v>33867</v>
       </c>
       <c r="O35" t="n">
-        <v>29616</v>
+        <v>30477</v>
       </c>
       <c r="P35" t="n">
-        <v>44791</v>
+        <v>25180</v>
       </c>
       <c r="Q35" t="n">
         <v>35832</v>
@@ -10231,49 +10231,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25794</v>
+        <v>15886</v>
       </c>
       <c r="C36" t="n">
-        <v>10746</v>
+        <v>7050</v>
       </c>
       <c r="D36" t="n">
-        <v>17040</v>
+        <v>16346</v>
       </c>
       <c r="E36" t="n">
-        <v>14561</v>
+        <v>13925</v>
       </c>
       <c r="F36" t="n">
-        <v>26677</v>
+        <v>21614</v>
       </c>
       <c r="G36" t="n">
-        <v>21090</v>
+        <v>31221</v>
       </c>
       <c r="H36" t="n">
-        <v>8876</v>
+        <v>28290</v>
       </c>
       <c r="I36" t="n">
-        <v>12415</v>
+        <v>21378</v>
       </c>
       <c r="J36" t="n">
-        <v>24653</v>
+        <v>18762</v>
       </c>
       <c r="K36" t="n">
-        <v>23402</v>
+        <v>27190</v>
       </c>
       <c r="L36" t="n">
-        <v>40583</v>
+        <v>40033</v>
       </c>
       <c r="M36" t="n">
-        <v>45779</v>
+        <v>45465</v>
       </c>
       <c r="N36" t="n">
-        <v>44217</v>
+        <v>37654</v>
       </c>
       <c r="O36" t="n">
-        <v>36032</v>
+        <v>25935</v>
       </c>
       <c r="P36" t="n">
-        <v>19584</v>
+        <v>48849</v>
       </c>
       <c r="Q36" t="n">
         <v>33906</v>
@@ -10343,34 +10343,34 @@
         <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="n">
         <v>100</v>
@@ -10425,49 +10425,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5776</v>
+        <v>11589</v>
       </c>
       <c r="C38" t="n">
-        <v>10644</v>
+        <v>11308</v>
       </c>
       <c r="D38" t="n">
-        <v>16899</v>
+        <v>17314</v>
       </c>
       <c r="E38" t="n">
-        <v>16131</v>
+        <v>12256</v>
       </c>
       <c r="F38" t="n">
-        <v>7944</v>
+        <v>8834</v>
       </c>
       <c r="G38" t="n">
-        <v>14216</v>
+        <v>7862</v>
       </c>
       <c r="H38" t="n">
-        <v>7050</v>
+        <v>37322</v>
       </c>
       <c r="I38" t="n">
-        <v>7102</v>
+        <v>27993</v>
       </c>
       <c r="J38" t="n">
-        <v>5369</v>
+        <v>20336</v>
       </c>
       <c r="K38" t="n">
-        <v>14317</v>
+        <v>13206</v>
       </c>
       <c r="L38" t="n">
-        <v>19115</v>
+        <v>24621</v>
       </c>
       <c r="M38" t="n">
-        <v>13208</v>
+        <v>23085</v>
       </c>
       <c r="N38" t="n">
-        <v>24666</v>
+        <v>29304</v>
       </c>
       <c r="O38" t="n">
-        <v>9000</v>
+        <v>36978</v>
       </c>
       <c r="P38" t="n">
-        <v>30102</v>
+        <v>32101</v>
       </c>
       <c r="Q38" t="n">
         <v>13532</v>
@@ -10537,34 +10537,34 @@
         <v>9165</v>
       </c>
       <c r="G39" t="n">
-        <v>7361</v>
+        <v>18990</v>
       </c>
       <c r="H39" t="n">
-        <v>7373</v>
+        <v>19353</v>
       </c>
       <c r="I39" t="n">
-        <v>9240</v>
+        <v>17773</v>
       </c>
       <c r="J39" t="n">
-        <v>8883</v>
+        <v>20890</v>
       </c>
       <c r="K39" t="n">
-        <v>8809</v>
+        <v>18504</v>
       </c>
       <c r="L39" t="n">
-        <v>18990</v>
+        <v>28968</v>
       </c>
       <c r="M39" t="n">
-        <v>19353</v>
+        <v>26367</v>
       </c>
       <c r="N39" t="n">
-        <v>17773</v>
+        <v>30119</v>
       </c>
       <c r="O39" t="n">
-        <v>20890</v>
+        <v>28318</v>
       </c>
       <c r="P39" t="n">
-        <v>18504</v>
+        <v>28339</v>
       </c>
       <c r="Q39" t="n">
         <v>19951</v>
@@ -10619,49 +10619,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24758</v>
+        <v>12502</v>
       </c>
       <c r="C40" t="n">
-        <v>31617</v>
+        <v>13382</v>
       </c>
       <c r="D40" t="n">
-        <v>12562</v>
+        <v>12849</v>
       </c>
       <c r="E40" t="n">
-        <v>24504</v>
+        <v>3589</v>
       </c>
       <c r="F40" t="n">
-        <v>23992</v>
+        <v>9917</v>
       </c>
       <c r="G40" t="n">
-        <v>30965</v>
+        <v>15166</v>
       </c>
       <c r="H40" t="n">
-        <v>28196</v>
+        <v>35378</v>
       </c>
       <c r="I40" t="n">
-        <v>40251</v>
+        <v>11276</v>
       </c>
       <c r="J40" t="n">
-        <v>15875</v>
+        <v>19549</v>
       </c>
       <c r="K40" t="n">
-        <v>34437</v>
+        <v>14285</v>
       </c>
       <c r="L40" t="n">
-        <v>37133</v>
+        <v>34745</v>
       </c>
       <c r="M40" t="n">
-        <v>51111</v>
+        <v>20967</v>
       </c>
       <c r="N40" t="n">
-        <v>53383</v>
+        <v>38634</v>
       </c>
       <c r="O40" t="n">
-        <v>37874</v>
+        <v>28819</v>
       </c>
       <c r="P40" t="n">
-        <v>50360</v>
+        <v>24544</v>
       </c>
       <c r="Q40" t="n">
         <v>35381</v>
@@ -10716,49 +10716,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6778</v>
+        <v>18122</v>
       </c>
       <c r="C41" t="n">
-        <v>23594</v>
+        <v>22404</v>
       </c>
       <c r="D41" t="n">
-        <v>9969</v>
+        <v>10955</v>
       </c>
       <c r="E41" t="n">
-        <v>5706</v>
+        <v>19763</v>
       </c>
       <c r="F41" t="n">
-        <v>15456</v>
+        <v>14593</v>
       </c>
       <c r="G41" t="n">
-        <v>14455</v>
+        <v>29048</v>
       </c>
       <c r="H41" t="n">
-        <v>7700</v>
+        <v>26681</v>
       </c>
       <c r="I41" t="n">
-        <v>15202</v>
+        <v>22180</v>
       </c>
       <c r="J41" t="n">
-        <v>21728</v>
+        <v>42575</v>
       </c>
       <c r="K41" t="n">
-        <v>11673</v>
+        <v>22934</v>
       </c>
       <c r="L41" t="n">
-        <v>35361</v>
+        <v>25429</v>
       </c>
       <c r="M41" t="n">
-        <v>30138</v>
+        <v>23874</v>
       </c>
       <c r="N41" t="n">
-        <v>28861</v>
+        <v>41012</v>
       </c>
       <c r="O41" t="n">
-        <v>35280</v>
+        <v>51331</v>
       </c>
       <c r="P41" t="n">
-        <v>31691</v>
+        <v>29222</v>
       </c>
       <c r="Q41" t="n">
         <v>25476</v>
@@ -10813,49 +10813,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12099</v>
+        <v>10695</v>
       </c>
       <c r="C42" t="n">
-        <v>31089</v>
+        <v>10756</v>
       </c>
       <c r="D42" t="n">
-        <v>10058</v>
+        <v>5051</v>
       </c>
       <c r="E42" t="n">
-        <v>12252</v>
+        <v>3815</v>
       </c>
       <c r="F42" t="n">
-        <v>16055</v>
+        <v>4097</v>
       </c>
       <c r="G42" t="n">
-        <v>5426</v>
+        <v>24600</v>
       </c>
       <c r="H42" t="n">
-        <v>17804</v>
+        <v>22960</v>
       </c>
       <c r="I42" t="n">
-        <v>19434</v>
+        <v>22730</v>
       </c>
       <c r="J42" t="n">
-        <v>10843</v>
+        <v>24311</v>
       </c>
       <c r="K42" t="n">
-        <v>15432</v>
+        <v>32892</v>
       </c>
       <c r="L42" t="n">
-        <v>22630</v>
+        <v>31713</v>
       </c>
       <c r="M42" t="n">
-        <v>31370</v>
+        <v>31823</v>
       </c>
       <c r="N42" t="n">
-        <v>22948</v>
+        <v>43343</v>
       </c>
       <c r="O42" t="n">
-        <v>12422</v>
+        <v>35192</v>
       </c>
       <c r="P42" t="n">
-        <v>34823</v>
+        <v>40323</v>
       </c>
       <c r="Q42" t="n">
         <v>24918</v>
